--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T479"/>
+  <dimension ref="A1:T481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>820</v>
+        <v>230</v>
       </c>
       <c r="N262" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O262" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="P262" t="n">
-        <v>8268</v>
+        <v>18000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1181</v>
+        <v>2571</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="N263" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O263" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="P263" t="n">
-        <v>7280</v>
+        <v>14000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1040</v>
+        <v>2000</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="N264" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O264" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="P264" t="n">
-        <v>5271</v>
+        <v>8268</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>753</v>
+        <v>1181</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>1180</v>
+        <v>1000</v>
       </c>
       <c r="N265" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O265" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P265" t="n">
-        <v>6746</v>
+        <v>7280</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>964</v>
+        <v>1040</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>1550</v>
+        <v>830</v>
       </c>
       <c r="N266" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O266" t="n">
         <v>5500</v>
       </c>
-      <c r="O266" t="n">
-        <v>6000</v>
-      </c>
       <c r="P266" t="n">
-        <v>5758</v>
+        <v>5271</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>823</v>
+        <v>753</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>600</v>
+        <v>1180</v>
       </c>
       <c r="N267" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="O267" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P267" t="n">
-        <v>3767</v>
+        <v>6746</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>538</v>
+        <v>964</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>730</v>
+        <v>1550</v>
       </c>
       <c r="N268" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O268" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="P268" t="n">
-        <v>9308</v>
+        <v>5758</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1330</v>
+        <v>823</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>770</v>
+        <v>600</v>
       </c>
       <c r="N269" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O269" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="P269" t="n">
-        <v>7227</v>
+        <v>3767</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1032</v>
+        <v>538</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>460</v>
+        <v>730</v>
       </c>
       <c r="N270" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O270" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="P270" t="n">
-        <v>4783</v>
+        <v>9308</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>683</v>
+        <v>1330</v>
       </c>
       <c r="T270" t="n">
         <v>7</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>400</v>
+        <v>770</v>
       </c>
       <c r="N271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O271" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P271" t="n">
-        <v>8000</v>
+        <v>7227</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1143</v>
+        <v>1032</v>
       </c>
       <c r="T271" t="n">
         <v>7</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>1100</v>
+        <v>460</v>
       </c>
       <c r="N272" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O272" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P272" t="n">
-        <v>7159</v>
+        <v>4783</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1023</v>
+        <v>683</v>
       </c>
       <c r="T272" t="n">
         <v>7</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N273" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O273" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P273" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>643</v>
+        <v>1143</v>
       </c>
       <c r="T273" t="n">
         <v>7</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="N274" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O274" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="P274" t="n">
-        <v>3250</v>
+        <v>7159</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>464</v>
+        <v>1023</v>
       </c>
       <c r="T274" t="n">
         <v>7</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="N275" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O275" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P275" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>2857</v>
+        <v>643</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N276" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="O276" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="P276" t="n">
-        <v>18000</v>
+        <v>3250</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>2571</v>
+        <v>464</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N277" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O277" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P277" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>2143</v>
+        <v>2857</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>760</v>
+        <v>90</v>
       </c>
       <c r="N278" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O278" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P278" t="n">
-        <v>8770</v>
+        <v>18000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1253</v>
+        <v>2571</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>1450</v>
+        <v>75</v>
       </c>
       <c r="N279" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O279" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P279" t="n">
-        <v>7276</v>
+        <v>15000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1039</v>
+        <v>2143</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>1170</v>
+        <v>760</v>
       </c>
       <c r="N280" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="O280" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P280" t="n">
-        <v>5235</v>
+        <v>8770</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>748</v>
+        <v>1253</v>
       </c>
       <c r="T280" t="n">
         <v>7</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>780</v>
+        <v>1450</v>
       </c>
       <c r="N281" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O281" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="P281" t="n">
-        <v>3244</v>
+        <v>7276</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>463</v>
+        <v>1039</v>
       </c>
       <c r="T281" t="n">
         <v>7</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>1130</v>
+        <v>1170</v>
       </c>
       <c r="N282" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="O282" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P282" t="n">
-        <v>8801</v>
+        <v>5235</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1257</v>
+        <v>748</v>
       </c>
       <c r="T282" t="n">
         <v>7</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>1550</v>
+        <v>780</v>
       </c>
       <c r="N283" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="O283" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P283" t="n">
-        <v>7774</v>
+        <v>3244</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1111</v>
+        <v>463</v>
       </c>
       <c r="T283" t="n">
         <v>7</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>1380</v>
+        <v>1130</v>
       </c>
       <c r="N284" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="O284" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P284" t="n">
-        <v>4761</v>
+        <v>8801</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>680</v>
+        <v>1257</v>
       </c>
       <c r="T284" t="n">
         <v>7</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>780</v>
+        <v>1550</v>
       </c>
       <c r="N285" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O285" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P285" t="n">
-        <v>7256</v>
+        <v>7774</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1037</v>
+        <v>1111</v>
       </c>
       <c r="T285" t="n">
         <v>7</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>1180</v>
+        <v>1380</v>
       </c>
       <c r="N286" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="O286" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P286" t="n">
-        <v>5754</v>
+        <v>4761</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>822</v>
+        <v>680</v>
       </c>
       <c r="T286" t="n">
         <v>7</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>470</v>
+        <v>780</v>
       </c>
       <c r="N287" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O287" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="P287" t="n">
-        <v>3723</v>
+        <v>7256</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>532</v>
+        <v>1037</v>
       </c>
       <c r="T287" t="n">
         <v>7</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>900</v>
+        <v>1180</v>
       </c>
       <c r="N288" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O288" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P288" t="n">
-        <v>10500</v>
+        <v>5754</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1500</v>
+        <v>822</v>
       </c>
       <c r="T288" t="n">
         <v>7</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="N289" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O289" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P289" t="n">
-        <v>8500</v>
+        <v>3723</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1214</v>
+        <v>532</v>
       </c>
       <c r="T289" t="n">
         <v>7</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N290" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O290" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P290" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>643</v>
+        <v>1500</v>
       </c>
       <c r="T290" t="n">
         <v>7</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N291" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O291" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P291" t="n">
-        <v>3750</v>
+        <v>8500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>536</v>
+        <v>1214</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N292" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O292" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="P292" t="n">
-        <v>9318</v>
+        <v>4500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1331</v>
+        <v>643</v>
       </c>
       <c r="T292" t="n">
         <v>7</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N293" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O293" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="P293" t="n">
-        <v>8267</v>
+        <v>3750</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1181</v>
+        <v>536</v>
       </c>
       <c r="T293" t="n">
         <v>7</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="N294" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O294" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="P294" t="n">
-        <v>6225</v>
+        <v>9318</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>889</v>
+        <v>1331</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>380</v>
+        <v>750</v>
       </c>
       <c r="N295" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O295" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="P295" t="n">
-        <v>4763</v>
+        <v>8267</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>680</v>
+        <v>1181</v>
       </c>
       <c r="T295" t="n">
         <v>7</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="N296" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="O296" t="n">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="P296" t="n">
-        <v>24000</v>
+        <v>6225</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>3429</v>
+        <v>889</v>
       </c>
       <c r="T296" t="n">
         <v>7</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N297" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O297" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P297" t="n">
-        <v>14000</v>
+        <v>4763</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>1430</v>
+        <v>150</v>
       </c>
       <c r="N298" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="O298" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="P298" t="n">
-        <v>8762</v>
+        <v>24000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1252</v>
+        <v>3429</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>1500</v>
+        <v>80</v>
       </c>
       <c r="N299" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O299" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P299" t="n">
-        <v>6773</v>
+        <v>14000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>968</v>
+        <v>2000</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>1340</v>
+        <v>1430</v>
       </c>
       <c r="N300" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="O300" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P300" t="n">
-        <v>5291</v>
+        <v>8762</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>756</v>
+        <v>1252</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>175</v>
+        <v>1500</v>
       </c>
       <c r="N301" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="O301" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P301" t="n">
-        <v>11714</v>
+        <v>6773</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1673</v>
+        <v>968</v>
       </c>
       <c r="T301" t="n">
         <v>7</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>180</v>
+        <v>1340</v>
       </c>
       <c r="N302" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="O302" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P302" t="n">
-        <v>9722</v>
+        <v>5291</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1389</v>
+        <v>756</v>
       </c>
       <c r="T302" t="n">
         <v>7</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="N303" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="O303" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P303" t="n">
-        <v>6758</v>
+        <v>11714</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>965</v>
+        <v>1673</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="N304" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="O304" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P304" t="n">
-        <v>8500</v>
+        <v>9722</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1214</v>
+        <v>1389</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>680</v>
+        <v>155</v>
       </c>
       <c r="N305" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O305" t="n">
         <v>7000</v>
       </c>
       <c r="P305" t="n">
-        <v>7000</v>
+        <v>6758</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="N306" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="O306" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="P306" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>786</v>
+        <v>1214</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>1180</v>
+        <v>680</v>
       </c>
       <c r="N307" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O307" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P307" t="n">
-        <v>7788</v>
+        <v>7000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1113</v>
+        <v>1000</v>
       </c>
       <c r="T307" t="n">
         <v>7</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>1480</v>
+        <v>420</v>
       </c>
       <c r="N308" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O308" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="P308" t="n">
-        <v>6230</v>
+        <v>5500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>890</v>
+        <v>786</v>
       </c>
       <c r="T308" t="n">
         <v>7</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>1040</v>
+        <v>1180</v>
       </c>
       <c r="N309" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O309" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P309" t="n">
-        <v>4260</v>
+        <v>7788</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>609</v>
+        <v>1113</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>700</v>
+        <v>1480</v>
       </c>
       <c r="N310" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O310" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="P310" t="n">
-        <v>14500</v>
+        <v>6230</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>2071</v>
+        <v>890</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>500</v>
+        <v>1040</v>
       </c>
       <c r="N311" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O311" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P311" t="n">
-        <v>11500</v>
+        <v>4260</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1643</v>
+        <v>609</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="N312" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O312" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P312" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1071</v>
+        <v>2071</v>
       </c>
       <c r="T312" t="n">
         <v>7</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N313" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O313" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P313" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>714</v>
+        <v>1643</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N314" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O314" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P314" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1643</v>
+        <v>1071</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N315" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O315" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P315" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1357</v>
+        <v>714</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N316" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O316" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P316" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>786</v>
+        <v>1643</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>1030</v>
+        <v>500</v>
       </c>
       <c r="N317" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O317" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P317" t="n">
-        <v>8767</v>
+        <v>9500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1252</v>
+        <v>1357</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>1550</v>
+        <v>300</v>
       </c>
       <c r="N318" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O318" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P318" t="n">
-        <v>7742</v>
+        <v>5500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1106</v>
+        <v>786</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>830</v>
+        <v>1030</v>
       </c>
       <c r="N319" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="O319" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P319" t="n">
-        <v>4735</v>
+        <v>8767</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>676</v>
+        <v>1252</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>95</v>
+        <v>1550</v>
       </c>
       <c r="N320" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="O320" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P320" t="n">
-        <v>17000</v>
+        <v>7742</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>2429</v>
+        <v>1106</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>95</v>
+        <v>830</v>
       </c>
       <c r="N321" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O321" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P321" t="n">
-        <v>20000</v>
+        <v>4735</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>2857</v>
+        <v>676</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>340</v>
+        <v>95</v>
       </c>
       <c r="N322" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O322" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P322" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>2143</v>
+        <v>2429</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O323" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P323" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1714</v>
+        <v>2857</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N324" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O324" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P324" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N325" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O325" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P325" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1214</v>
+        <v>1714</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>950</v>
+        <v>240</v>
       </c>
       <c r="N326" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O326" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P326" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="N327" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="O327" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="P327" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>714</v>
+        <v>1214</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>75</v>
+        <v>950</v>
       </c>
       <c r="N328" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P328" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="N329" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O329" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P329" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="N330" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O330" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P330" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="N331" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O331" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P331" t="n">
-        <v>4776</v>
+        <v>10000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>682</v>
+        <v>1429</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="N332" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O332" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P332" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>550</v>
+        <v>145</v>
       </c>
       <c r="N333" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="O333" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P333" t="n">
-        <v>11000</v>
+        <v>4776</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1571</v>
+        <v>682</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="N334" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O334" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P334" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>857</v>
+        <v>2000</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="N335" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O335" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P335" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>3571</v>
+        <v>1571</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="N336" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O336" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P336" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>2857</v>
+        <v>857</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N337" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P337" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1429</v>
+        <v>3571</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="N338" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O338" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P338" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>3429</v>
+        <v>2857</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N339" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O339" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P339" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>3000</v>
+        <v>1429</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="N340" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O340" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P340" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>2571</v>
+        <v>3429</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="N341" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O341" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P341" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>3286</v>
+        <v>3000</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="N342" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O342" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P342" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="N343" t="n">
-        <v>8500</v>
+        <v>23000</v>
       </c>
       <c r="O343" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="P343" t="n">
-        <v>8620</v>
+        <v>23000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1231</v>
+        <v>3286</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>1540</v>
+        <v>80</v>
       </c>
       <c r="N344" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O344" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P344" t="n">
-        <v>7779</v>
+        <v>10000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1111</v>
+        <v>1429</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>740</v>
+        <v>500</v>
       </c>
       <c r="N345" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="O345" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P345" t="n">
-        <v>4797</v>
+        <v>8620</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>685</v>
+        <v>1231</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>500</v>
+        <v>1540</v>
       </c>
       <c r="N346" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O346" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P346" t="n">
-        <v>9000</v>
+        <v>7779</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1286</v>
+        <v>1111</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>850</v>
+        <v>740</v>
       </c>
       <c r="N347" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O347" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P347" t="n">
-        <v>8000</v>
+        <v>4797</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1143</v>
+        <v>685</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="N348" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O348" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P348" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>714</v>
+        <v>1286</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>480</v>
+        <v>850</v>
       </c>
       <c r="N349" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O349" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P349" t="n">
-        <v>8688</v>
+        <v>8000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1241</v>
+        <v>1143</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>830</v>
+        <v>510</v>
       </c>
       <c r="N350" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O350" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P350" t="n">
-        <v>7229</v>
+        <v>5000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>1033</v>
+        <v>714</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="N351" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="O351" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P351" t="n">
-        <v>5211</v>
+        <v>8688</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>744</v>
+        <v>1241</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>180</v>
+        <v>830</v>
       </c>
       <c r="N352" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O352" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="P352" t="n">
-        <v>3278</v>
+        <v>7229</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>468</v>
+        <v>1033</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="N353" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O353" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="P353" t="n">
-        <v>20000</v>
+        <v>5211</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>2857</v>
+        <v>744</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="N354" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O354" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P354" t="n">
-        <v>15000</v>
+        <v>3278</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>2143</v>
+        <v>468</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N355" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O355" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P355" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1714</v>
+        <v>2857</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="N356" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O356" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P356" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1000</v>
+        <v>2143</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N357" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O357" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P357" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>3429</v>
+        <v>1714</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N358" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O358" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P358" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N359" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O359" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P359" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2571</v>
+        <v>3429</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="N360" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O360" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P360" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>550</v>
+        <v>290</v>
       </c>
       <c r="N361" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O361" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P361" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1143</v>
+        <v>2571</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>680</v>
+        <v>170</v>
       </c>
       <c r="N362" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O362" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P362" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="N363" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O363" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P363" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="N364" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O364" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P364" t="n">
-        <v>12592</v>
+        <v>7000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>1799</v>
+        <v>1000</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>730</v>
+        <v>450</v>
       </c>
       <c r="N365" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O365" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P365" t="n">
-        <v>10425</v>
+        <v>5000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1489</v>
+        <v>714</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>360</v>
+        <v>710</v>
       </c>
       <c r="N366" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O366" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P366" t="n">
-        <v>6611</v>
+        <v>12592</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>944</v>
+        <v>1799</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>120</v>
+        <v>730</v>
       </c>
       <c r="N367" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O367" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P367" t="n">
-        <v>6000</v>
+        <v>10425</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>857</v>
+        <v>1489</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N368" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O368" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P368" t="n">
-        <v>3000</v>
+        <v>6611</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>429</v>
+        <v>944</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="N369" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O369" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="P369" t="n">
-        <v>10316</v>
+        <v>6000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1474</v>
+        <v>857</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N370" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O370" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="P370" t="n">
-        <v>8220</v>
+        <v>3000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1174</v>
+        <v>429</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N371" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O371" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="P371" t="n">
-        <v>4783</v>
+        <v>10316</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>683</v>
+        <v>1474</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>1040</v>
+        <v>250</v>
       </c>
       <c r="N372" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O372" t="n">
         <v>8500</v>
       </c>
-      <c r="O372" t="n">
-        <v>9000</v>
-      </c>
       <c r="P372" t="n">
-        <v>8769</v>
+        <v>8220</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1253</v>
+        <v>1174</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>1080</v>
+        <v>230</v>
       </c>
       <c r="N373" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O373" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P373" t="n">
-        <v>7222</v>
+        <v>4783</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1032</v>
+        <v>683</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>950</v>
+        <v>1040</v>
       </c>
       <c r="N374" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="O374" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P374" t="n">
-        <v>4789</v>
+        <v>8769</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>684</v>
+        <v>1253</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>450</v>
+        <v>1080</v>
       </c>
       <c r="N375" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O375" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P375" t="n">
-        <v>8000</v>
+        <v>7222</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>1143</v>
+        <v>1032</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>290</v>
+        <v>950</v>
       </c>
       <c r="N376" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="O376" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P376" t="n">
-        <v>5500</v>
+        <v>4789</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>786</v>
+        <v>684</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="N377" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="O377" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P377" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>3571</v>
+        <v>1143</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="N378" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="O378" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="P378" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2857</v>
+        <v>786</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="N379" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O379" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P379" t="n">
-        <v>11588</v>
+        <v>25000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1655</v>
+        <v>3571</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>830</v>
+        <v>105</v>
       </c>
       <c r="N380" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O380" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P380" t="n">
-        <v>8422</v>
+        <v>20000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1203</v>
+        <v>2857</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="N381" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O381" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P381" t="n">
-        <v>6560</v>
+        <v>11588</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>937</v>
+        <v>1655</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>250</v>
+        <v>830</v>
       </c>
       <c r="N382" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O382" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P382" t="n">
-        <v>22000</v>
+        <v>8422</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>3143</v>
+        <v>1203</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="N383" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O383" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P383" t="n">
-        <v>16000</v>
+        <v>6560</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>2286</v>
+        <v>937</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="N384" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O384" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P384" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1429</v>
+        <v>3143</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="N385" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O385" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P385" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1071</v>
+        <v>2286</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>800</v>
+        <v>410</v>
       </c>
       <c r="N386" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O386" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P386" t="n">
-        <v>6250</v>
+        <v>10000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>893</v>
+        <v>1429</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="N387" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O387" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P387" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>643</v>
+        <v>1071</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N388" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O388" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="P388" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>464</v>
+        <v>893</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>1130</v>
+        <v>360</v>
       </c>
       <c r="N389" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="O389" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P389" t="n">
-        <v>7788</v>
+        <v>4500</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31502,11 +31502,11 @@
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1113</v>
+        <v>643</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>1250</v>
+        <v>300</v>
       </c>
       <c r="N390" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="O390" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P390" t="n">
-        <v>5740</v>
+        <v>3250</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31582,11 +31582,11 @@
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>820</v>
+        <v>464</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>820</v>
+        <v>1130</v>
       </c>
       <c r="N391" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O391" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P391" t="n">
-        <v>4232</v>
+        <v>7788</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>605</v>
+        <v>1113</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>1130</v>
+        <v>1250</v>
       </c>
       <c r="N392" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O392" t="n">
         <v>6000</v>
       </c>
-      <c r="O392" t="n">
-        <v>6500</v>
-      </c>
       <c r="P392" t="n">
-        <v>6301</v>
+        <v>5740</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31742,11 +31742,11 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>900</v>
+        <v>820</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>1480</v>
+        <v>820</v>
       </c>
       <c r="N393" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O393" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P393" t="n">
-        <v>5277</v>
+        <v>4232</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31822,11 +31822,11 @@
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>754</v>
+        <v>605</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>630</v>
+        <v>1130</v>
       </c>
       <c r="N394" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O394" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="P394" t="n">
-        <v>4278</v>
+        <v>6301</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>2500</v>
+        <v>1480</v>
       </c>
       <c r="N395" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O395" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P395" t="n">
-        <v>7270</v>
+        <v>5277</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1039</v>
+        <v>754</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="N396" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O396" t="n">
         <v>4500</v>
       </c>
-      <c r="O396" t="n">
-        <v>5000</v>
-      </c>
       <c r="P396" t="n">
-        <v>4808</v>
+        <v>4278</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>687</v>
+        <v>611</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>80</v>
+        <v>2500</v>
       </c>
       <c r="N397" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="O397" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P397" t="n">
-        <v>10000</v>
+        <v>7270</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1429</v>
+        <v>1039</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44351</v>
+        <v>44237</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>490</v>
+        <v>650</v>
       </c>
       <c r="N398" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O398" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P398" t="n">
-        <v>13571</v>
+        <v>4808</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1939</v>
+        <v>687</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>750</v>
+        <v>80</v>
       </c>
       <c r="N399" t="n">
         <v>10000</v>
       </c>
       <c r="O399" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P399" t="n">
-        <v>10533</v>
+        <v>10000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1505</v>
+        <v>1429</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="N400" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O400" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P400" t="n">
-        <v>7591</v>
+        <v>13571</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1084</v>
+        <v>1939</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="N401" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O401" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P401" t="n">
-        <v>14556</v>
+        <v>10533</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>2079</v>
+        <v>1505</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="N402" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O402" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P402" t="n">
-        <v>12423</v>
+        <v>7591</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1775</v>
+        <v>1084</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="N403" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P403" t="n">
-        <v>9414</v>
+        <v>14556</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1345</v>
+        <v>2079</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="N404" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O404" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P404" t="n">
-        <v>7385</v>
+        <v>12423</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1055</v>
+        <v>1775</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>550</v>
+        <v>290</v>
       </c>
       <c r="N405" t="n">
         <v>9000</v>
       </c>
       <c r="O405" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>9000</v>
+        <v>9414</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1286</v>
+        <v>1345</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>590</v>
+        <v>260</v>
       </c>
       <c r="N406" t="n">
         <v>7000</v>
       </c>
       <c r="O406" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P406" t="n">
-        <v>7000</v>
+        <v>7385</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1000</v>
+        <v>1055</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="N407" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O407" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P407" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>571</v>
+        <v>1286</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>470</v>
+        <v>590</v>
       </c>
       <c r="N408" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O408" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P408" t="n">
-        <v>8372</v>
+        <v>7000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1196</v>
+        <v>1000</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>1020</v>
+        <v>220</v>
       </c>
       <c r="N409" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O409" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="P409" t="n">
-        <v>7284</v>
+        <v>4000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1041</v>
+        <v>571</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>630</v>
+        <v>470</v>
       </c>
       <c r="N410" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="P410" t="n">
-        <v>5278</v>
+        <v>8372</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>754</v>
+        <v>1196</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>300</v>
+        <v>1020</v>
       </c>
       <c r="N411" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O411" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P411" t="n">
-        <v>12000</v>
+        <v>7284</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1714</v>
+        <v>1041</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>480</v>
+        <v>630</v>
       </c>
       <c r="N412" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O412" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P412" t="n">
-        <v>9000</v>
+        <v>5278</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1286</v>
+        <v>754</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N413" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O413" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P413" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>1140</v>
+        <v>480</v>
       </c>
       <c r="N414" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O414" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P414" t="n">
-        <v>6781</v>
+        <v>9000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>969</v>
+        <v>1286</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>1420</v>
+        <v>220</v>
       </c>
       <c r="N415" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O415" t="n">
         <v>6000</v>
       </c>
       <c r="P415" t="n">
-        <v>5775</v>
+        <v>6000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>825</v>
+        <v>857</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>1040</v>
+        <v>1140</v>
       </c>
       <c r="N416" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="O416" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P416" t="n">
-        <v>3712</v>
+        <v>6781</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>530</v>
+        <v>969</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>300</v>
+        <v>1420</v>
       </c>
       <c r="N417" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="O417" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P417" t="n">
-        <v>17500</v>
+        <v>5775</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>2500</v>
+        <v>825</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>250</v>
+        <v>1040</v>
       </c>
       <c r="N418" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O418" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P418" t="n">
-        <v>15500</v>
+        <v>3712</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>2214</v>
+        <v>530</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N419" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P419" t="n">
-        <v>7500</v>
+        <v>17500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1071</v>
+        <v>2500</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="N420" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O420" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P420" t="n">
-        <v>7500</v>
+        <v>15500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1071</v>
+        <v>2214</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>1350</v>
+        <v>250</v>
       </c>
       <c r="N421" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O421" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P421" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>929</v>
+        <v>1071</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N422" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O422" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P422" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>643</v>
+        <v>1071</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>250</v>
+        <v>1350</v>
       </c>
       <c r="N423" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O423" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P423" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>429</v>
+        <v>929</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N424" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="O424" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P424" t="n">
-        <v>9722</v>
+        <v>4500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1389</v>
+        <v>643</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>830</v>
+        <v>250</v>
       </c>
       <c r="N425" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="O425" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P425" t="n">
-        <v>7729</v>
+        <v>3000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1104</v>
+        <v>429</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="N426" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="O426" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P426" t="n">
-        <v>4774</v>
+        <v>9722</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>682</v>
+        <v>1389</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>85</v>
+        <v>830</v>
       </c>
       <c r="N427" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O427" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P427" t="n">
-        <v>20000</v>
+        <v>7729</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>2857</v>
+        <v>1104</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="N428" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="O428" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P428" t="n">
-        <v>18000</v>
+        <v>4774</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>2571</v>
+        <v>682</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N429" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O429" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P429" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>2143</v>
+        <v>2857</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44411</v>
+        <v>44391</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="N430" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O430" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P430" t="n">
-        <v>20543</v>
+        <v>18000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>2935</v>
+        <v>2571</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44411</v>
+        <v>44391</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="N431" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O431" t="n">
         <v>15000</v>
       </c>
       <c r="P431" t="n">
-        <v>14525</v>
+        <v>15000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>2075</v>
+        <v>2143</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c r="N432" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P432" t="n">
-        <v>9469</v>
+        <v>20543</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1353</v>
+        <v>2935</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N433" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O433" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P433" t="n">
-        <v>9840</v>
+        <v>14525</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1406</v>
+        <v>2075</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>470</v>
+        <v>320</v>
       </c>
       <c r="N434" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O434" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P434" t="n">
-        <v>7766</v>
+        <v>9469</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1109</v>
+        <v>1353</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="N435" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="O435" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>4779</v>
+        <v>9840</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>683</v>
+        <v>1406</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>660</v>
+        <v>470</v>
       </c>
       <c r="N436" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P436" t="n">
-        <v>13576</v>
+        <v>7766</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1939</v>
+        <v>1109</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>680</v>
+        <v>430</v>
       </c>
       <c r="N437" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O437" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P437" t="n">
-        <v>10588</v>
+        <v>4779</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1513</v>
+        <v>683</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>390</v>
+        <v>660</v>
       </c>
       <c r="N438" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O438" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P438" t="n">
-        <v>6564</v>
+        <v>13576</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>938</v>
+        <v>1939</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>1550</v>
+        <v>680</v>
       </c>
       <c r="N439" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O439" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="P439" t="n">
-        <v>6242</v>
+        <v>10588</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>892</v>
+        <v>1513</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>2180</v>
+        <v>390</v>
       </c>
       <c r="N440" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O440" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P440" t="n">
-        <v>5225</v>
+        <v>6564</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>746</v>
+        <v>938</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>1780</v>
+        <v>1550</v>
       </c>
       <c r="N441" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O441" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="P441" t="n">
-        <v>4247</v>
+        <v>6242</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>607</v>
+        <v>892</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>470</v>
+        <v>2180</v>
       </c>
       <c r="N442" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O442" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P442" t="n">
-        <v>7809</v>
+        <v>5225</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1116</v>
+        <v>746</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>390</v>
+        <v>1780</v>
       </c>
       <c r="N443" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O443" t="n">
         <v>4500</v>
       </c>
-      <c r="O443" t="n">
-        <v>5000</v>
-      </c>
       <c r="P443" t="n">
-        <v>4782</v>
+        <v>4247</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>683</v>
+        <v>607</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="N444" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="O444" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="P444" t="n">
-        <v>24528</v>
+        <v>7809</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>3504</v>
+        <v>1116</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="N445" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="O445" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P445" t="n">
-        <v>16404</v>
+        <v>4782</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>2343</v>
+        <v>683</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>290</v>
+        <v>530</v>
       </c>
       <c r="N446" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="P446" t="n">
-        <v>9552</v>
+        <v>24528</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1365</v>
+        <v>3504</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>2180</v>
+        <v>235</v>
       </c>
       <c r="N447" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O447" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="P447" t="n">
-        <v>6275</v>
+        <v>16404</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>896</v>
+        <v>2343</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>1360</v>
+        <v>290</v>
       </c>
       <c r="N448" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O448" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>5206</v>
+        <v>9552</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>744</v>
+        <v>1365</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>860</v>
+        <v>2180</v>
       </c>
       <c r="N449" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O449" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="P449" t="n">
-        <v>4267</v>
+        <v>6275</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>610</v>
+        <v>896</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>240</v>
+        <v>1360</v>
       </c>
       <c r="N450" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O450" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P450" t="n">
-        <v>18000</v>
+        <v>5206</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>2571</v>
+        <v>744</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>380</v>
+        <v>860</v>
       </c>
       <c r="N451" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O451" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P451" t="n">
-        <v>15000</v>
+        <v>4267</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>2143</v>
+        <v>610</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N452" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O452" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P452" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1571</v>
+        <v>2571</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="N453" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O453" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P453" t="n">
-        <v>8333</v>
+        <v>15000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1190</v>
+        <v>2143</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N454" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O454" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="P454" t="n">
-        <v>7280</v>
+        <v>11000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1040</v>
+        <v>1571</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="N455" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="P455" t="n">
-        <v>5281</v>
+        <v>8333</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>754</v>
+        <v>1190</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="N456" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O456" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="P456" t="n">
-        <v>20545</v>
+        <v>7280</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>2935</v>
+        <v>1040</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="N457" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O457" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P457" t="n">
-        <v>14600</v>
+        <v>5281</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>2086</v>
+        <v>754</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="N458" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O458" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P458" t="n">
-        <v>9571</v>
+        <v>20545</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1367</v>
+        <v>2935</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="N459" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O459" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P459" t="n">
-        <v>8729</v>
+        <v>14600</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1247</v>
+        <v>2086</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>1810</v>
+        <v>245</v>
       </c>
       <c r="N460" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O460" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>7265</v>
+        <v>9571</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1038</v>
+        <v>1367</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>1430</v>
+        <v>830</v>
       </c>
       <c r="N461" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="O461" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P461" t="n">
-        <v>5273</v>
+        <v>8729</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>753</v>
+        <v>1247</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>980</v>
+        <v>1810</v>
       </c>
       <c r="N462" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O462" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="P462" t="n">
-        <v>3260</v>
+        <v>7265</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>466</v>
+        <v>1038</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>210</v>
+        <v>1430</v>
       </c>
       <c r="N463" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="O463" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P463" t="n">
-        <v>9786</v>
+        <v>5273</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1398</v>
+        <v>753</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>400</v>
+        <v>980</v>
       </c>
       <c r="N464" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="O464" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P464" t="n">
-        <v>7775</v>
+        <v>3260</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1111</v>
+        <v>466</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N465" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="O465" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P465" t="n">
-        <v>4732</v>
+        <v>9786</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>676</v>
+        <v>1398</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>1160</v>
+        <v>400</v>
       </c>
       <c r="N466" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O466" t="n">
         <v>8000</v>
       </c>
       <c r="P466" t="n">
-        <v>7517</v>
+        <v>7775</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1074</v>
+        <v>1111</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>1030</v>
+        <v>205</v>
       </c>
       <c r="N467" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O467" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P467" t="n">
-        <v>6282</v>
+        <v>4732</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>897</v>
+        <v>676</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>820</v>
+        <v>1160</v>
       </c>
       <c r="N468" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O468" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P468" t="n">
-        <v>4732</v>
+        <v>7517</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>676</v>
+        <v>1074</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1400</v>
+        <v>1030</v>
       </c>
       <c r="N469" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O469" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P469" t="n">
-        <v>9286</v>
+        <v>6282</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1327</v>
+        <v>897</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>1600</v>
+        <v>820</v>
       </c>
       <c r="N470" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O470" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P470" t="n">
-        <v>7438</v>
+        <v>4732</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1063</v>
+        <v>676</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>850</v>
+        <v>1400</v>
       </c>
       <c r="N471" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O471" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P471" t="n">
-        <v>4647</v>
+        <v>9286</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>664</v>
+        <v>1327</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="N472" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O472" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P472" t="n">
-        <v>20400</v>
+        <v>7438</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>2914</v>
+        <v>1063</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>315</v>
+        <v>850</v>
       </c>
       <c r="N473" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O473" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P473" t="n">
-        <v>15556</v>
+        <v>4647</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>2222</v>
+        <v>664</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="N474" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O474" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P474" t="n">
-        <v>12000</v>
+        <v>20400</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1714</v>
+        <v>2914</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="N475" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O475" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P475" t="n">
-        <v>7000</v>
+        <v>15556</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1000</v>
+        <v>2222</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="N476" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O476" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>2857</v>
+        <v>1714</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M477" t="n">
         <v>220</v>
       </c>
       <c r="N477" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O477" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P477" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>2286</v>
+        <v>1000</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="N478" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O478" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P478" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1714</v>
+        <v>2857</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38680,35 +38680,195 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M479" t="n">
+        <v>220</v>
+      </c>
+      <c r="N479" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O479" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P479" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S479" t="n">
+        <v>2286</v>
+      </c>
+      <c r="T479" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>9</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D480" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E480" t="n">
+        <v>13</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I480" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M480" t="n">
+        <v>280</v>
+      </c>
+      <c r="N480" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O480" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P480" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S480" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T480" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>9</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E481" t="n">
+        <v>13</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I481" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M479" t="n">
+      <c r="M481" t="n">
         <v>95</v>
       </c>
-      <c r="N479" t="n">
+      <c r="N481" t="n">
         <v>7000</v>
       </c>
-      <c r="O479" t="n">
+      <c r="O481" t="n">
         <v>7000</v>
       </c>
-      <c r="P479" t="n">
+      <c r="P481" t="n">
         <v>7000</v>
       </c>
-      <c r="Q479" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R479" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S479" t="n">
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S481" t="n">
         <v>1000</v>
       </c>
-      <c r="T479" t="n">
+      <c r="T481" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T481"/>
+  <dimension ref="A1:T484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>1160</v>
+        <v>65</v>
       </c>
       <c r="N468" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P468" t="n">
-        <v>7517</v>
+        <v>21077</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1074</v>
+        <v>3011</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1030</v>
+        <v>50</v>
       </c>
       <c r="N469" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O469" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="P469" t="n">
-        <v>6282</v>
+        <v>15600</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>897</v>
+        <v>2229</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>820</v>
+        <v>50</v>
       </c>
       <c r="N470" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O470" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>4732</v>
+        <v>9000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>676</v>
+        <v>1286</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="N471" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O471" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P471" t="n">
-        <v>9286</v>
+        <v>7517</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1327</v>
+        <v>1074</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>1600</v>
+        <v>1030</v>
       </c>
       <c r="N472" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O472" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P472" t="n">
-        <v>7438</v>
+        <v>6282</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1063</v>
+        <v>897</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,7 +38204,7 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="N473" t="n">
         <v>4500</v>
@@ -38213,7 +38213,7 @@
         <v>5000</v>
       </c>
       <c r="P473" t="n">
-        <v>4647</v>
+        <v>4732</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>75</v>
+        <v>1400</v>
       </c>
       <c r="N474" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O474" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>20400</v>
+        <v>9286</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>2914</v>
+        <v>1327</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>315</v>
+        <v>1600</v>
       </c>
       <c r="N475" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O475" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P475" t="n">
-        <v>15556</v>
+        <v>7438</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>2222</v>
+        <v>1063</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>280</v>
+        <v>850</v>
       </c>
       <c r="N476" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O476" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P476" t="n">
-        <v>12000</v>
+        <v>4647</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1714</v>
+        <v>664</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N477" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O477" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="P477" t="n">
-        <v>7000</v>
+        <v>20400</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1000</v>
+        <v>2914</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="N478" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O478" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P478" t="n">
-        <v>20000</v>
+        <v>15556</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>2857</v>
+        <v>2222</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N479" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O479" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P479" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>2286</v>
+        <v>1714</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N480" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O480" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P480" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38840,35 +38840,275 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M481" t="n">
+        <v>140</v>
+      </c>
+      <c r="N481" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O481" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P481" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S481" t="n">
+        <v>2857</v>
+      </c>
+      <c r="T481" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>9</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D482" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E482" t="n">
+        <v>13</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I482" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M482" t="n">
+        <v>220</v>
+      </c>
+      <c r="N482" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O482" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P482" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S482" t="n">
+        <v>2286</v>
+      </c>
+      <c r="T482" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>9</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D483" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E483" t="n">
+        <v>13</v>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G483" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I483" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M483" t="n">
+        <v>280</v>
+      </c>
+      <c r="N483" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O483" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P483" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q483" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S483" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T483" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>9</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D484" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E484" t="n">
+        <v>13</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G484" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I484" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M481" t="n">
+      <c r="M484" t="n">
         <v>95</v>
       </c>
-      <c r="N481" t="n">
+      <c r="N484" t="n">
         <v>7000</v>
       </c>
-      <c r="O481" t="n">
+      <c r="O484" t="n">
         <v>7000</v>
       </c>
-      <c r="P481" t="n">
+      <c r="P484" t="n">
         <v>7000</v>
       </c>
-      <c r="Q481" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R481" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S481" t="n">
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S484" t="n">
         <v>1000</v>
       </c>
-      <c r="T481" t="n">
+      <c r="T484" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T484"/>
+  <dimension ref="A1:T487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>1550</v>
+        <v>660</v>
       </c>
       <c r="N441" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O441" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="P441" t="n">
-        <v>6242</v>
+        <v>19152</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>892</v>
+        <v>2736</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>2180</v>
+        <v>590</v>
       </c>
       <c r="N442" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O442" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="P442" t="n">
-        <v>5225</v>
+        <v>14576</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>746</v>
+        <v>2082</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>1780</v>
+        <v>400</v>
       </c>
       <c r="N443" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O443" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P443" t="n">
-        <v>4247</v>
+        <v>8900</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>607</v>
+        <v>1271</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>470</v>
+        <v>1550</v>
       </c>
       <c r="N444" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O444" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P444" t="n">
-        <v>7809</v>
+        <v>6242</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1116</v>
+        <v>892</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>390</v>
+        <v>2180</v>
       </c>
       <c r="N445" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O445" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P445" t="n">
-        <v>4782</v>
+        <v>5225</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>683</v>
+        <v>746</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44435</v>
+        <v>44161</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>530</v>
+        <v>1780</v>
       </c>
       <c r="N446" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="O446" t="n">
-        <v>26000</v>
+        <v>4500</v>
       </c>
       <c r="P446" t="n">
-        <v>24528</v>
+        <v>4247</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>3504</v>
+        <v>607</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>235</v>
+        <v>470</v>
       </c>
       <c r="N447" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O447" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P447" t="n">
-        <v>16404</v>
+        <v>7809</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>2343</v>
+        <v>1116</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="N448" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P448" t="n">
-        <v>9552</v>
+        <v>4782</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1365</v>
+        <v>683</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>2180</v>
+        <v>530</v>
       </c>
       <c r="N449" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="O449" t="n">
-        <v>6500</v>
+        <v>26000</v>
       </c>
       <c r="P449" t="n">
-        <v>6275</v>
+        <v>24528</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>896</v>
+        <v>3504</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>1360</v>
+        <v>235</v>
       </c>
       <c r="N450" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O450" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="P450" t="n">
-        <v>5206</v>
+        <v>16404</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>744</v>
+        <v>2343</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>860</v>
+        <v>290</v>
       </c>
       <c r="N451" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O451" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P451" t="n">
-        <v>4267</v>
+        <v>9552</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>610</v>
+        <v>1365</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>240</v>
+        <v>2180</v>
       </c>
       <c r="N452" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O452" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="P452" t="n">
-        <v>18000</v>
+        <v>6275</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>2571</v>
+        <v>896</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>380</v>
+        <v>1360</v>
       </c>
       <c r="N453" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O453" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P453" t="n">
-        <v>15000</v>
+        <v>5206</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>2143</v>
+        <v>744</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>350</v>
+        <v>860</v>
       </c>
       <c r="N454" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O454" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="P454" t="n">
-        <v>11000</v>
+        <v>4267</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1571</v>
+        <v>610</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N455" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O455" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="P455" t="n">
-        <v>8333</v>
+        <v>18000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1190</v>
+        <v>2571</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N456" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O456" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P456" t="n">
-        <v>7280</v>
+        <v>15000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1040</v>
+        <v>2143</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36924,16 +36924,16 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="N457" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O457" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="P457" t="n">
-        <v>5281</v>
+        <v>11000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>754</v>
+        <v>1571</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="N458" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O458" t="n">
-        <v>21000</v>
+        <v>8500</v>
       </c>
       <c r="P458" t="n">
-        <v>20545</v>
+        <v>8333</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>2935</v>
+        <v>1190</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37084,16 +37084,16 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N459" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O459" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P459" t="n">
-        <v>14600</v>
+        <v>7280</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>2086</v>
+        <v>1040</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="N460" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O460" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P460" t="n">
-        <v>9571</v>
+        <v>5281</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1367</v>
+        <v>754</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>830</v>
+        <v>220</v>
       </c>
       <c r="N461" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="O461" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P461" t="n">
-        <v>8729</v>
+        <v>20545</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1247</v>
+        <v>2935</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>1810</v>
+        <v>750</v>
       </c>
       <c r="N462" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O462" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P462" t="n">
-        <v>7265</v>
+        <v>14600</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1038</v>
+        <v>2086</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>1430</v>
+        <v>245</v>
       </c>
       <c r="N463" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O463" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P463" t="n">
-        <v>5273</v>
+        <v>9571</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>753</v>
+        <v>1367</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>980</v>
+        <v>830</v>
       </c>
       <c r="N464" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="O464" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P464" t="n">
-        <v>3260</v>
+        <v>8729</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>466</v>
+        <v>1247</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>210</v>
+        <v>1810</v>
       </c>
       <c r="N465" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O465" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P465" t="n">
-        <v>9786</v>
+        <v>7265</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1398</v>
+        <v>1038</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>400</v>
+        <v>1430</v>
       </c>
       <c r="N466" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O466" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P466" t="n">
-        <v>7775</v>
+        <v>5273</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1111</v>
+        <v>753</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>205</v>
+        <v>980</v>
       </c>
       <c r="N467" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O467" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P467" t="n">
-        <v>4732</v>
+        <v>3260</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>676</v>
+        <v>466</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="N468" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O468" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P468" t="n">
-        <v>21077</v>
+        <v>9786</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>3011</v>
+        <v>1398</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N469" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O469" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P469" t="n">
-        <v>15600</v>
+        <v>7775</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>2229</v>
+        <v>1111</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="N470" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O470" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P470" t="n">
-        <v>9000</v>
+        <v>4732</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1286</v>
+        <v>676</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>1160</v>
+        <v>65</v>
       </c>
       <c r="N471" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O471" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P471" t="n">
-        <v>7517</v>
+        <v>21077</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1074</v>
+        <v>3011</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>1030</v>
+        <v>50</v>
       </c>
       <c r="N472" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O472" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="P472" t="n">
-        <v>6282</v>
+        <v>15600</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>897</v>
+        <v>2229</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>820</v>
+        <v>50</v>
       </c>
       <c r="N473" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O473" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P473" t="n">
-        <v>4732</v>
+        <v>9000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>676</v>
+        <v>1286</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="N474" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P474" t="n">
-        <v>9286</v>
+        <v>7517</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1327</v>
+        <v>1074</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>1600</v>
+        <v>1030</v>
       </c>
       <c r="N475" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O475" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P475" t="n">
-        <v>7438</v>
+        <v>6282</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1063</v>
+        <v>897</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,7 +38444,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="N476" t="n">
         <v>4500</v>
@@ -38453,7 +38453,7 @@
         <v>5000</v>
       </c>
       <c r="P476" t="n">
-        <v>4647</v>
+        <v>4732</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>75</v>
+        <v>1400</v>
       </c>
       <c r="N477" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O477" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P477" t="n">
-        <v>20400</v>
+        <v>9286</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>2914</v>
+        <v>1327</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>315</v>
+        <v>1600</v>
       </c>
       <c r="N478" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O478" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P478" t="n">
-        <v>15556</v>
+        <v>7438</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>2222</v>
+        <v>1063</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>280</v>
+        <v>850</v>
       </c>
       <c r="N479" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O479" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P479" t="n">
-        <v>12000</v>
+        <v>4647</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1714</v>
+        <v>664</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N480" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O480" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="P480" t="n">
-        <v>7000</v>
+        <v>20400</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1000</v>
+        <v>2914</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="N481" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O481" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P481" t="n">
-        <v>20000</v>
+        <v>15556</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>2857</v>
+        <v>2222</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N482" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O482" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P482" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>2286</v>
+        <v>1714</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N483" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O483" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P483" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39080,35 +39080,275 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M484" t="n">
+        <v>140</v>
+      </c>
+      <c r="N484" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O484" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P484" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S484" t="n">
+        <v>2857</v>
+      </c>
+      <c r="T484" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>9</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D485" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E485" t="n">
+        <v>13</v>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G485" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I485" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M485" t="n">
+        <v>220</v>
+      </c>
+      <c r="N485" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O485" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P485" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q485" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R485" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S485" t="n">
+        <v>2286</v>
+      </c>
+      <c r="T485" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>9</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D486" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E486" t="n">
+        <v>13</v>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G486" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I486" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M486" t="n">
+        <v>280</v>
+      </c>
+      <c r="N486" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O486" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P486" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q486" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R486" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S486" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T486" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>9</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D487" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E487" t="n">
+        <v>13</v>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G487" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I487" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M484" t="n">
+      <c r="M487" t="n">
         <v>95</v>
       </c>
-      <c r="N484" t="n">
+      <c r="N487" t="n">
         <v>7000</v>
       </c>
-      <c r="O484" t="n">
+      <c r="O487" t="n">
         <v>7000</v>
       </c>
-      <c r="P484" t="n">
+      <c r="P487" t="n">
         <v>7000</v>
       </c>
-      <c r="Q484" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R484" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S484" t="n">
+      <c r="Q487" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S487" t="n">
         <v>1000</v>
       </c>
-      <c r="T484" t="n">
+      <c r="T487" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T496"/>
+  <dimension ref="A1:T499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N323" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O323" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P323" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>3286</v>
+        <v>3571</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26284,7 +26284,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="N324" t="n">
         <v>20000</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="N325" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O325" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P325" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>2571</v>
+        <v>2143</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N326" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P326" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1714</v>
+        <v>3286</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N327" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O327" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P327" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>3143</v>
+        <v>2857</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="N328" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O328" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P328" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>2286</v>
+        <v>2571</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>410</v>
+        <v>85</v>
       </c>
       <c r="N329" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O329" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P329" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N330" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O330" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P330" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1286</v>
+        <v>3143</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="N331" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O331" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P331" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1143</v>
+        <v>2286</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>70</v>
+        <v>410</v>
       </c>
       <c r="N332" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O332" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P332" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>3571</v>
+        <v>1429</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N333" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O333" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P333" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>2857</v>
+        <v>1286</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44265</v>
+        <v>44165</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27080,11 +27080,11 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N334" t="n">
         <v>8000</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>590</v>
+        <v>70</v>
       </c>
       <c r="N335" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="O335" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="P335" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1000</v>
+        <v>3571</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>440</v>
+        <v>105</v>
       </c>
       <c r="N336" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O336" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P336" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>714</v>
+        <v>2857</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="N337" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O337" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P337" t="n">
-        <v>12571</v>
+        <v>8000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1796</v>
+        <v>1143</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="N338" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O338" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P338" t="n">
-        <v>9436</v>
+        <v>7000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1348</v>
+        <v>1000</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>325</v>
+        <v>440</v>
       </c>
       <c r="N339" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O339" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P339" t="n">
-        <v>6554</v>
+        <v>5000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>936</v>
+        <v>714</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>1230</v>
+        <v>490</v>
       </c>
       <c r="N340" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O340" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P340" t="n">
-        <v>8236</v>
+        <v>12571</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1177</v>
+        <v>1796</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>1750</v>
+        <v>550</v>
       </c>
       <c r="N341" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O341" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P341" t="n">
-        <v>6771</v>
+        <v>9436</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>967</v>
+        <v>1348</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>770</v>
+        <v>325</v>
       </c>
       <c r="N342" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O342" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P342" t="n">
-        <v>5240</v>
+        <v>6554</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>749</v>
+        <v>936</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27804,7 +27804,7 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>780</v>
+        <v>1230</v>
       </c>
       <c r="N343" t="n">
         <v>8000</v>
@@ -27813,7 +27813,7 @@
         <v>8500</v>
       </c>
       <c r="P343" t="n">
-        <v>8244</v>
+        <v>8236</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>920</v>
+        <v>1750</v>
       </c>
       <c r="N344" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O344" t="n">
         <v>7000</v>
       </c>
-      <c r="O344" t="n">
-        <v>7500</v>
-      </c>
       <c r="P344" t="n">
-        <v>7272</v>
+        <v>6771</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1039</v>
+        <v>967</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>450</v>
+        <v>770</v>
       </c>
       <c r="N345" t="n">
         <v>5000</v>
@@ -27973,7 +27973,7 @@
         <v>5500</v>
       </c>
       <c r="P345" t="n">
-        <v>5222</v>
+        <v>5240</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>230</v>
+        <v>780</v>
       </c>
       <c r="N346" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O346" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="P346" t="n">
-        <v>18000</v>
+        <v>8244</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>2571</v>
+        <v>1178</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>180</v>
+        <v>920</v>
       </c>
       <c r="N347" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O347" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P347" t="n">
-        <v>14000</v>
+        <v>7272</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>2000</v>
+        <v>1039</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="N348" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O348" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P348" t="n">
-        <v>9000</v>
+        <v>5222</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1286</v>
+        <v>746</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>620</v>
+        <v>230</v>
       </c>
       <c r="N349" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O349" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P349" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1000</v>
+        <v>2571</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N350" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O350" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P350" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>857</v>
+        <v>2000</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N351" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O351" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P351" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>643</v>
+        <v>1286</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>820</v>
+        <v>620</v>
       </c>
       <c r="N352" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O352" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P352" t="n">
-        <v>8268</v>
+        <v>7000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1181</v>
+        <v>1000</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N353" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O353" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P353" t="n">
-        <v>7280</v>
+        <v>6000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1040</v>
+        <v>857</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>830</v>
+        <v>120</v>
       </c>
       <c r="N354" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O354" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P354" t="n">
-        <v>5271</v>
+        <v>4500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>753</v>
+        <v>643</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>920</v>
+        <v>820</v>
       </c>
       <c r="N355" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="O355" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P355" t="n">
-        <v>10783</v>
+        <v>8268</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1540</v>
+        <v>1181</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>1430</v>
+        <v>1000</v>
       </c>
       <c r="N356" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O356" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="P356" t="n">
-        <v>9273</v>
+        <v>7280</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1325</v>
+        <v>1040</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28924,7 +28924,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="N357" t="n">
         <v>5000</v>
@@ -28933,7 +28933,7 @@
         <v>5500</v>
       </c>
       <c r="P357" t="n">
-        <v>5262</v>
+        <v>5271</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>630</v>
+        <v>920</v>
       </c>
       <c r="N358" t="n">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="O358" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="P358" t="n">
-        <v>4222</v>
+        <v>10783</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>603</v>
+        <v>1540</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>100</v>
+        <v>1430</v>
       </c>
       <c r="N359" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O359" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="P359" t="n">
-        <v>20000</v>
+        <v>9273</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2857</v>
+        <v>1325</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="N360" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O360" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P360" t="n">
-        <v>18000</v>
+        <v>5262</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>2571</v>
+        <v>752</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>75</v>
+        <v>630</v>
       </c>
       <c r="N361" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O361" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P361" t="n">
-        <v>15000</v>
+        <v>4222</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>2143</v>
+        <v>603</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N362" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O362" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P362" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>3429</v>
+        <v>2857</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N363" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O363" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P363" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>2857</v>
+        <v>2571</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N364" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O364" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P364" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2000</v>
+        <v>2143</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="N365" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O365" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="P365" t="n">
-        <v>8273</v>
+        <v>24000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1182</v>
+        <v>3429</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="N366" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O366" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P366" t="n">
-        <v>7231</v>
+        <v>20000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1033</v>
+        <v>2857</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>490</v>
+        <v>55</v>
       </c>
       <c r="N367" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="O367" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P367" t="n">
-        <v>4776</v>
+        <v>14000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>682</v>
+        <v>2000</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29810,10 +29810,10 @@
         <v>8000</v>
       </c>
       <c r="O368" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P368" t="n">
-        <v>8000</v>
+        <v>8273</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1143</v>
+        <v>1182</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="N369" t="n">
         <v>7000</v>
       </c>
       <c r="O369" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P369" t="n">
-        <v>7000</v>
+        <v>7231</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="N370" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O370" t="n">
         <v>5000</v>
       </c>
       <c r="P370" t="n">
-        <v>5000</v>
+        <v>4776</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>714</v>
+        <v>682</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>1180</v>
+        <v>550</v>
       </c>
       <c r="N371" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O371" t="n">
         <v>8000</v>
       </c>
       <c r="P371" t="n">
-        <v>7788</v>
+        <v>8000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1113</v>
+        <v>1143</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>1480</v>
+        <v>680</v>
       </c>
       <c r="N372" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O372" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P372" t="n">
-        <v>6230</v>
+        <v>7000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>890</v>
+        <v>1000</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>1040</v>
+        <v>450</v>
       </c>
       <c r="N373" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O373" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P373" t="n">
-        <v>4260</v>
+        <v>5000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>609</v>
+        <v>714</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>700</v>
+        <v>1180</v>
       </c>
       <c r="N374" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O374" t="n">
         <v>8000</v>
       </c>
       <c r="P374" t="n">
-        <v>7500</v>
+        <v>7788</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1071</v>
+        <v>1113</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>800</v>
+        <v>1480</v>
       </c>
       <c r="N375" t="n">
         <v>6000</v>
@@ -30373,7 +30373,7 @@
         <v>6500</v>
       </c>
       <c r="P375" t="n">
-        <v>6250</v>
+        <v>6230</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>360</v>
+        <v>1040</v>
       </c>
       <c r="N376" t="n">
         <v>4000</v>
       </c>
       <c r="O376" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P376" t="n">
-        <v>4500</v>
+        <v>4260</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N377" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O377" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P377" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>464</v>
+        <v>1071</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>470</v>
+        <v>800</v>
       </c>
       <c r="N378" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O378" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P378" t="n">
-        <v>7809</v>
+        <v>6250</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1116</v>
+        <v>893</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="N379" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O379" t="n">
         <v>5000</v>
       </c>
       <c r="P379" t="n">
-        <v>4782</v>
+        <v>4500</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>683</v>
+        <v>643</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="N380" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="O380" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P380" t="n">
-        <v>9571</v>
+        <v>3250</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1367</v>
+        <v>464</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="N381" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O381" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P381" t="n">
-        <v>9566</v>
+        <v>7809</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30862,11 +30862,11 @@
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1367</v>
+        <v>1116</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>800</v>
+        <v>390</v>
       </c>
       <c r="N382" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O382" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P382" t="n">
-        <v>7562</v>
+        <v>4782</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1080</v>
+        <v>683</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="N383" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O383" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P383" t="n">
-        <v>7547</v>
+        <v>9571</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31022,11 +31022,11 @@
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1078</v>
+        <v>1367</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="N384" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O384" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P384" t="n">
-        <v>4760</v>
+        <v>9566</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31102,11 +31102,11 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>680</v>
+        <v>1367</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="N385" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O385" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P385" t="n">
-        <v>5000</v>
+        <v>7562</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31182,11 +31182,11 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>714</v>
+        <v>1080</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>690</v>
+        <v>640</v>
       </c>
       <c r="N386" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O386" t="n">
         <v>8000</v>
       </c>
       <c r="P386" t="n">
-        <v>7797</v>
+        <v>7547</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31262,11 +31262,11 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1114</v>
+        <v>1078</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N387" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O387" t="n">
         <v>5000</v>
       </c>
-      <c r="O387" t="n">
-        <v>5500</v>
-      </c>
       <c r="P387" t="n">
-        <v>5342</v>
+        <v>4760</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>763</v>
+        <v>680</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="N388" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O388" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P388" t="n">
-        <v>7550</v>
+        <v>5000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31422,11 +31422,11 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1079</v>
+        <v>714</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>1050</v>
+        <v>690</v>
       </c>
       <c r="N389" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O389" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P389" t="n">
-        <v>6500</v>
+        <v>7797</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>929</v>
+        <v>1114</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="N390" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O390" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P390" t="n">
-        <v>4750</v>
+        <v>5342</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>679</v>
+        <v>763</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>1430</v>
+        <v>3000</v>
       </c>
       <c r="N391" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O391" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P391" t="n">
-        <v>8762</v>
+        <v>7550</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1252</v>
+        <v>1079</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>1500</v>
+        <v>1050</v>
       </c>
       <c r="N392" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O392" t="n">
         <v>7000</v>
       </c>
       <c r="P392" t="n">
-        <v>6773</v>
+        <v>6500</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>968</v>
+        <v>929</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>1340</v>
+        <v>600</v>
       </c>
       <c r="N393" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O393" t="n">
         <v>5000</v>
       </c>
-      <c r="O393" t="n">
-        <v>5500</v>
-      </c>
       <c r="P393" t="n">
-        <v>5291</v>
+        <v>4750</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>756</v>
+        <v>679</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>450</v>
+        <v>1430</v>
       </c>
       <c r="N394" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O394" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P394" t="n">
-        <v>14556</v>
+        <v>8762</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>2079</v>
+        <v>1252</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>520</v>
+        <v>1500</v>
       </c>
       <c r="N395" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O395" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P395" t="n">
-        <v>12423</v>
+        <v>6773</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1775</v>
+        <v>968</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>290</v>
+        <v>1340</v>
       </c>
       <c r="N396" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O396" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P396" t="n">
-        <v>9414</v>
+        <v>5291</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1345</v>
+        <v>756</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="N397" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O397" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P397" t="n">
-        <v>7385</v>
+        <v>14556</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1055</v>
+        <v>2079</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="N398" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O398" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P398" t="n">
-        <v>26000</v>
+        <v>12423</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>3714</v>
+        <v>1775</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="N399" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O399" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P399" t="n">
-        <v>17000</v>
+        <v>9414</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>2429</v>
+        <v>1345</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="N400" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O400" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P400" t="n">
-        <v>15000</v>
+        <v>7385</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>2143</v>
+        <v>1055</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N401" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="O401" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="P401" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1857</v>
+        <v>3714</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="N402" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O402" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P402" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1571</v>
+        <v>2429</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N403" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O403" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P403" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="N404" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O404" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P404" t="n">
-        <v>10316</v>
+        <v>13000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1474</v>
+        <v>1857</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N405" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O405" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P405" t="n">
-        <v>8220</v>
+        <v>11000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1174</v>
+        <v>1571</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N406" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O406" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P406" t="n">
-        <v>4783</v>
+        <v>8000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>683</v>
+        <v>1143</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="N407" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O407" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="P407" t="n">
-        <v>8333</v>
+        <v>10316</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1190</v>
+        <v>1474</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N408" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O408" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P408" t="n">
-        <v>7280</v>
+        <v>8220</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1040</v>
+        <v>1174</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="N409" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O409" t="n">
         <v>5000</v>
       </c>
-      <c r="O409" t="n">
-        <v>5500</v>
-      </c>
       <c r="P409" t="n">
-        <v>5281</v>
+        <v>4783</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>754</v>
+        <v>683</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="N410" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="P410" t="n">
-        <v>20000</v>
+        <v>8333</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>2857</v>
+        <v>1190</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="N411" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O411" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P411" t="n">
-        <v>15000</v>
+        <v>7280</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>2143</v>
+        <v>1040</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P412" t="n">
-        <v>12000</v>
+        <v>5281</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1714</v>
+        <v>754</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="N413" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O413" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P413" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1143</v>
+        <v>2857</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="N414" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O414" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P414" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1500</v>
+        <v>2143</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N415" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O415" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1214</v>
+        <v>1714</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N416" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O416" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P416" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N417" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O417" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P417" t="n">
-        <v>3750</v>
+        <v>10500</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>536</v>
+        <v>1500</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33800,21 +33800,21 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="N418" t="n">
         <v>8000</v>
       </c>
       <c r="O418" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P418" t="n">
         <v>8500</v>
       </c>
-      <c r="P418" t="n">
-        <v>8372</v>
-      </c>
       <c r="Q418" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1196</v>
+        <v>1214</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>1020</v>
+        <v>300</v>
       </c>
       <c r="N419" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O419" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P419" t="n">
-        <v>7284</v>
+        <v>5500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1041</v>
+        <v>786</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>630</v>
+        <v>240</v>
       </c>
       <c r="N420" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O420" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="P420" t="n">
-        <v>5278</v>
+        <v>3750</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>754</v>
+        <v>536</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="N421" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O421" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="P421" t="n">
-        <v>17000</v>
+        <v>8372</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>2429</v>
+        <v>1196</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>350</v>
+        <v>1020</v>
       </c>
       <c r="N422" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O422" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P422" t="n">
-        <v>14000</v>
+        <v>7284</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>2000</v>
+        <v>1041</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>5278</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1714</v>
+        <v>754</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="N424" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O424" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P424" t="n">
-        <v>7759</v>
+        <v>17000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1108</v>
+        <v>2429</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>780</v>
+        <v>350</v>
       </c>
       <c r="N425" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="O425" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P425" t="n">
-        <v>5744</v>
+        <v>14000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>821</v>
+        <v>2000</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>520</v>
+        <v>180</v>
       </c>
       <c r="N426" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>4288</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>613</v>
+        <v>1714</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>770</v>
+        <v>580</v>
       </c>
       <c r="N427" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="O427" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P427" t="n">
-        <v>8773</v>
+        <v>7759</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1253</v>
+        <v>1108</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>1020</v>
+        <v>780</v>
       </c>
       <c r="N428" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O428" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P428" t="n">
-        <v>7284</v>
+        <v>5744</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1041</v>
+        <v>821</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="N429" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O429" t="n">
         <v>4500</v>
       </c>
-      <c r="O429" t="n">
-        <v>5000</v>
-      </c>
       <c r="P429" t="n">
-        <v>4706</v>
+        <v>4288</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>600</v>
+        <v>770</v>
       </c>
       <c r="N430" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O430" t="n">
         <v>9000</v>
       </c>
-      <c r="O430" t="n">
-        <v>10000</v>
-      </c>
       <c r="P430" t="n">
-        <v>9500</v>
+        <v>8773</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1357</v>
+        <v>1253</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="N431" t="n">
         <v>7000</v>
       </c>
       <c r="O431" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P431" t="n">
-        <v>7500</v>
+        <v>7284</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="N432" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O432" t="n">
         <v>5000</v>
       </c>
       <c r="P432" t="n">
-        <v>4500</v>
+        <v>4706</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="N433" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O433" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P433" t="n">
-        <v>7266</v>
+        <v>9500</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1038</v>
+        <v>1357</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>1190</v>
+        <v>900</v>
       </c>
       <c r="N434" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O434" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P434" t="n">
-        <v>6244</v>
+        <v>7500</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>892</v>
+        <v>1071</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>1020</v>
+        <v>400</v>
       </c>
       <c r="N435" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O435" t="n">
         <v>5000</v>
       </c>
-      <c r="O435" t="n">
-        <v>5500</v>
-      </c>
       <c r="P435" t="n">
-        <v>5284</v>
+        <v>4500</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>755</v>
+        <v>643</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>490</v>
+        <v>960</v>
       </c>
       <c r="N436" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P436" t="n">
-        <v>13571</v>
+        <v>7266</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1939</v>
+        <v>1038</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>750</v>
+        <v>1190</v>
       </c>
       <c r="N437" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O437" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="P437" t="n">
-        <v>10533</v>
+        <v>6244</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1505</v>
+        <v>892</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>440</v>
+        <v>1020</v>
       </c>
       <c r="N438" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O438" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P438" t="n">
-        <v>7591</v>
+        <v>5284</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>1084</v>
+        <v>755</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>700</v>
+        <v>490</v>
       </c>
       <c r="N439" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O439" t="n">
         <v>14000</v>
       </c>
-      <c r="O439" t="n">
-        <v>15000</v>
-      </c>
       <c r="P439" t="n">
-        <v>14500</v>
+        <v>13571</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>2071</v>
+        <v>1939</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N440" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O440" t="n">
         <v>11000</v>
       </c>
-      <c r="O440" t="n">
-        <v>12000</v>
-      </c>
       <c r="P440" t="n">
-        <v>11500</v>
+        <v>10533</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>1643</v>
+        <v>1505</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35644,7 +35644,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="N441" t="n">
         <v>7000</v>
@@ -35653,7 +35653,7 @@
         <v>8000</v>
       </c>
       <c r="P441" t="n">
-        <v>7500</v>
+        <v>7591</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1071</v>
+        <v>1084</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N442" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O442" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P442" t="n">
-        <v>5000</v>
+        <v>14500</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>714</v>
+        <v>2071</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="N443" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O443" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P443" t="n">
-        <v>7708</v>
+        <v>11500</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>1101</v>
+        <v>1643</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>1240</v>
+        <v>360</v>
       </c>
       <c r="N444" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O444" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P444" t="n">
-        <v>6774</v>
+        <v>7500</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>968</v>
+        <v>1071</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>1010</v>
+        <v>200</v>
       </c>
       <c r="N445" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O445" t="n">
         <v>5000</v>
       </c>
       <c r="P445" t="n">
-        <v>4728</v>
+        <v>5000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>780</v>
+        <v>960</v>
       </c>
       <c r="N446" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="O446" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P446" t="n">
-        <v>2756</v>
+        <v>7708</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>394</v>
+        <v>1101</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>500</v>
+        <v>1240</v>
       </c>
       <c r="N447" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="O447" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P447" t="n">
-        <v>8620</v>
+        <v>6774</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1231</v>
+        <v>968</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>1540</v>
+        <v>1010</v>
       </c>
       <c r="N448" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="O448" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P448" t="n">
-        <v>7779</v>
+        <v>4728</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1111</v>
+        <v>675</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="N449" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="O449" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P449" t="n">
-        <v>4797</v>
+        <v>2756</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>685</v>
+        <v>394</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>2180</v>
+        <v>500</v>
       </c>
       <c r="N450" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O450" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P450" t="n">
-        <v>6275</v>
+        <v>8620</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>896</v>
+        <v>1231</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>1360</v>
+        <v>1540</v>
       </c>
       <c r="N451" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O451" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P451" t="n">
-        <v>5206</v>
+        <v>7779</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>744</v>
+        <v>1111</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="N452" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O452" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P452" t="n">
-        <v>4267</v>
+        <v>4797</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>500</v>
+        <v>2180</v>
       </c>
       <c r="N453" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O453" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="P453" t="n">
-        <v>13500</v>
+        <v>6275</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1929</v>
+        <v>896</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>400</v>
+        <v>1360</v>
       </c>
       <c r="N454" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O454" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P454" t="n">
-        <v>11000</v>
+        <v>5206</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1571</v>
+        <v>744</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>300</v>
+        <v>860</v>
       </c>
       <c r="N455" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O455" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P455" t="n">
-        <v>7000</v>
+        <v>4267</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N456" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O456" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P456" t="n">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>643</v>
+        <v>1929</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N457" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O457" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P457" t="n">
-        <v>8238</v>
+        <v>11000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1177</v>
+        <v>1571</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,21 +37000,21 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>840</v>
+        <v>300</v>
       </c>
       <c r="N458" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O458" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P458" t="n">
         <v>7000</v>
       </c>
-      <c r="P458" t="n">
-        <v>6738</v>
-      </c>
       <c r="Q458" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>963</v>
+        <v>1000</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="N459" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O459" t="n">
         <v>5000</v>
       </c>
-      <c r="O459" t="n">
-        <v>5500</v>
-      </c>
       <c r="P459" t="n">
-        <v>5263</v>
+        <v>4500</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>752</v>
+        <v>643</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>1230</v>
+        <v>800</v>
       </c>
       <c r="N460" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O460" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="P460" t="n">
-        <v>6276</v>
+        <v>8238</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>897</v>
+        <v>1177</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>1600</v>
+        <v>840</v>
       </c>
       <c r="N461" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O461" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P461" t="n">
-        <v>5234</v>
+        <v>6738</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>748</v>
+        <v>963</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>1250</v>
+        <v>590</v>
       </c>
       <c r="N462" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O462" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P462" t="n">
-        <v>4200</v>
+        <v>5263</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>600</v>
+        <v>752</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>175</v>
+        <v>1230</v>
       </c>
       <c r="N463" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O463" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="P463" t="n">
-        <v>20543</v>
+        <v>6276</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>2935</v>
+        <v>897</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="N464" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O464" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P464" t="n">
-        <v>14525</v>
+        <v>5234</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>2075</v>
+        <v>748</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>320</v>
+        <v>1250</v>
       </c>
       <c r="N465" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O465" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P465" t="n">
-        <v>9469</v>
+        <v>4200</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1353</v>
+        <v>600</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>550</v>
+        <v>175</v>
       </c>
       <c r="N466" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O466" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P466" t="n">
-        <v>9000</v>
+        <v>20543</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1286</v>
+        <v>2935</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>590</v>
+        <v>800</v>
       </c>
       <c r="N467" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O467" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P467" t="n">
-        <v>7000</v>
+        <v>14525</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1000</v>
+        <v>2075</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="N468" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O468" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P468" t="n">
-        <v>4000</v>
+        <v>9469</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>571</v>
+        <v>1353</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1130</v>
+        <v>550</v>
       </c>
       <c r="N469" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O469" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P469" t="n">
-        <v>7788</v>
+        <v>9000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37902,11 +37902,11 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1113</v>
+        <v>1286</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>1250</v>
+        <v>590</v>
       </c>
       <c r="N470" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O470" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P470" t="n">
-        <v>5740</v>
+        <v>7000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37982,11 +37982,11 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S470" t="n">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>820</v>
+        <v>220</v>
       </c>
       <c r="N471" t="n">
         <v>4000</v>
       </c>
       <c r="O471" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P471" t="n">
-        <v>4232</v>
+        <v>4000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38127,13 +38127,13 @@
         <v>1130</v>
       </c>
       <c r="N472" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O472" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P472" t="n">
-        <v>6301</v>
+        <v>7788</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>900</v>
+        <v>1113</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>1480</v>
+        <v>1250</v>
       </c>
       <c r="N473" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O473" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="P473" t="n">
-        <v>5277</v>
+        <v>5740</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>754</v>
+        <v>820</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,7 +38284,7 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="N474" t="n">
         <v>4000</v>
@@ -38293,7 +38293,7 @@
         <v>4500</v>
       </c>
       <c r="P474" t="n">
-        <v>4278</v>
+        <v>4232</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>1400</v>
+        <v>1130</v>
       </c>
       <c r="N475" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O475" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P475" t="n">
-        <v>9321</v>
+        <v>6301</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1332</v>
+        <v>900</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>1300</v>
+        <v>1480</v>
       </c>
       <c r="N476" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O476" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P476" t="n">
-        <v>7423</v>
+        <v>5277</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1060</v>
+        <v>754</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>900</v>
+        <v>630</v>
       </c>
       <c r="N477" t="n">
         <v>4000</v>
       </c>
       <c r="O477" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P477" t="n">
-        <v>4667</v>
+        <v>4278</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="N478" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O478" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P478" t="n">
-        <v>3000</v>
+        <v>9321</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>429</v>
+        <v>1332</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>240</v>
+        <v>1300</v>
       </c>
       <c r="N479" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O479" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P479" t="n">
-        <v>18000</v>
+        <v>7423</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>2571</v>
+        <v>1060</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>380</v>
+        <v>900</v>
       </c>
       <c r="N480" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O480" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P480" t="n">
-        <v>15000</v>
+        <v>4667</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>2143</v>
+        <v>667</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N481" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O481" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="P481" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1571</v>
+        <v>429</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>1180</v>
+        <v>240</v>
       </c>
       <c r="N482" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="O482" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P482" t="n">
-        <v>6746</v>
+        <v>18000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>964</v>
+        <v>2571</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>1550</v>
+        <v>380</v>
       </c>
       <c r="N483" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="O483" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P483" t="n">
-        <v>5758</v>
+        <v>15000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>823</v>
+        <v>2143</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N484" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="O484" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P484" t="n">
-        <v>3767</v>
+        <v>11000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>538</v>
+        <v>1571</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>600</v>
+        <v>1180</v>
       </c>
       <c r="N485" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="O485" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P485" t="n">
-        <v>11500</v>
+        <v>6746</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1643</v>
+        <v>964</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>500</v>
+        <v>1550</v>
       </c>
       <c r="N486" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P486" t="n">
-        <v>9500</v>
+        <v>5758</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1357</v>
+        <v>823</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N487" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O487" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P487" t="n">
-        <v>5500</v>
+        <v>3767</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>786</v>
+        <v>538</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N488" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O488" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P488" t="n">
-        <v>8780</v>
+        <v>11500</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1254</v>
+        <v>1643</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>1040</v>
+        <v>500</v>
       </c>
       <c r="N489" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O489" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>7288</v>
+        <v>9500</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1041</v>
+        <v>1357</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N490" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O490" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P490" t="n">
-        <v>4789</v>
+        <v>5500</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>684</v>
+        <v>786</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="N491" t="n">
-        <v>25000</v>
+        <v>8500</v>
       </c>
       <c r="O491" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P491" t="n">
-        <v>25000</v>
+        <v>8780</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>3571</v>
+        <v>1254</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>280</v>
+        <v>1040</v>
       </c>
       <c r="N492" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O492" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P492" t="n">
-        <v>20000</v>
+        <v>7288</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>2857</v>
+        <v>1041</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="N493" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O493" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P493" t="n">
-        <v>10000</v>
+        <v>4789</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1429</v>
+        <v>684</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N494" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O494" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P494" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1714</v>
+        <v>3571</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N495" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O495" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P495" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1429</v>
+        <v>2857</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,68 +40007,308 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E496" t="n">
+        <v>13</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I496" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M496" t="n">
+        <v>110</v>
+      </c>
+      <c r="N496" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O496" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P496" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q496" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>Provincia de Santiago</t>
+        </is>
+      </c>
+      <c r="S496" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T496" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>9</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D497" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E496" t="n">
-        <v>13</v>
-      </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G496" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I496" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L496" t="inlineStr">
+      <c r="E497" t="n">
+        <v>13</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I497" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M497" t="n">
+        <v>250</v>
+      </c>
+      <c r="N497" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O497" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P497" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q497" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S497" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T497" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>9</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E498" t="n">
+        <v>13</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I498" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M498" t="n">
+        <v>340</v>
+      </c>
+      <c r="N498" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O498" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P498" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q498" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S498" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T498" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>9</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D499" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E499" t="n">
+        <v>13</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I499" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M496" t="n">
+      <c r="M499" t="n">
         <v>180</v>
       </c>
-      <c r="N496" t="n">
+      <c r="N499" t="n">
         <v>7000</v>
       </c>
-      <c r="O496" t="n">
+      <c r="O499" t="n">
         <v>7000</v>
       </c>
-      <c r="P496" t="n">
+      <c r="P499" t="n">
         <v>7000</v>
       </c>
-      <c r="Q496" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R496" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S496" t="n">
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S499" t="n">
         <v>1000</v>
       </c>
-      <c r="T496" t="n">
+      <c r="T499" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T499"/>
+  <dimension ref="A1:T503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="N330" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O330" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P330" t="n">
-        <v>22000</v>
+        <v>13405</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>3143</v>
+        <v>1915</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="N331" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O331" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P331" t="n">
-        <v>16000</v>
+        <v>11538</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>2286</v>
+        <v>1648</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>410</v>
+        <v>550</v>
       </c>
       <c r="N332" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O332" t="n">
         <v>10000</v>
       </c>
       <c r="P332" t="n">
-        <v>10000</v>
+        <v>9545</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1429</v>
+        <v>1364</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="N333" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O333" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P333" t="n">
-        <v>9000</v>
+        <v>6417</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1286</v>
+        <v>917</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N334" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O334" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P334" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1143</v>
+        <v>3143</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="N335" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O335" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P335" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>3571</v>
+        <v>2286</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>105</v>
+        <v>410</v>
       </c>
       <c r="N336" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O336" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P336" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44265</v>
+        <v>44165</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="N337" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O337" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P337" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1143</v>
+        <v>1286</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44265</v>
+        <v>44165</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>590</v>
+        <v>120</v>
       </c>
       <c r="N338" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O338" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P338" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>440</v>
+        <v>70</v>
       </c>
       <c r="N339" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O339" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="P339" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>714</v>
+        <v>3571</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="N340" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O340" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P340" t="n">
-        <v>12571</v>
+        <v>20000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1796</v>
+        <v>2857</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="N341" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O341" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P341" t="n">
-        <v>9436</v>
+        <v>8000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1348</v>
+        <v>1143</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>325</v>
+        <v>590</v>
       </c>
       <c r="N342" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O342" t="n">
         <v>7000</v>
       </c>
       <c r="P342" t="n">
-        <v>6554</v>
+        <v>7000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>936</v>
+        <v>1000</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>1230</v>
+        <v>440</v>
       </c>
       <c r="N343" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O343" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="P343" t="n">
-        <v>8236</v>
+        <v>5000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1177</v>
+        <v>714</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>1750</v>
+        <v>490</v>
       </c>
       <c r="N344" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="O344" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P344" t="n">
-        <v>6771</v>
+        <v>12571</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>967</v>
+        <v>1796</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>770</v>
+        <v>550</v>
       </c>
       <c r="N345" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O345" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P345" t="n">
-        <v>5240</v>
+        <v>9436</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>749</v>
+        <v>1348</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>780</v>
+        <v>325</v>
       </c>
       <c r="N346" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O346" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P346" t="n">
-        <v>8244</v>
+        <v>6554</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1178</v>
+        <v>936</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>920</v>
+        <v>1230</v>
       </c>
       <c r="N347" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O347" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P347" t="n">
-        <v>7272</v>
+        <v>8236</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1039</v>
+        <v>1177</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>450</v>
+        <v>1750</v>
       </c>
       <c r="N348" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O348" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P348" t="n">
-        <v>5222</v>
+        <v>6771</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>746</v>
+        <v>967</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>230</v>
+        <v>770</v>
       </c>
       <c r="N349" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O349" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P349" t="n">
-        <v>18000</v>
+        <v>5240</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>2571</v>
+        <v>749</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>180</v>
+        <v>780</v>
       </c>
       <c r="N350" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O350" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P350" t="n">
-        <v>14000</v>
+        <v>8244</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2000</v>
+        <v>1178</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="N351" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O351" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P351" t="n">
-        <v>9000</v>
+        <v>7272</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1286</v>
+        <v>1039</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>620</v>
+        <v>450</v>
       </c>
       <c r="N352" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O352" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P352" t="n">
-        <v>7000</v>
+        <v>5222</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1000</v>
+        <v>746</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="N353" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O353" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P353" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>857</v>
+        <v>2571</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N354" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="O354" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P354" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>643</v>
+        <v>2000</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>820</v>
+        <v>280</v>
       </c>
       <c r="N355" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O355" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P355" t="n">
-        <v>8268</v>
+        <v>9000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1181</v>
+        <v>1286</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="N356" t="n">
         <v>7000</v>
       </c>
       <c r="O356" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P356" t="n">
-        <v>7280</v>
+        <v>7000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>830</v>
+        <v>500</v>
       </c>
       <c r="N357" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O357" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="P357" t="n">
-        <v>5271</v>
+        <v>6000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>920</v>
+        <v>120</v>
       </c>
       <c r="N358" t="n">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="O358" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="P358" t="n">
-        <v>10783</v>
+        <v>4500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1540</v>
+        <v>643</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>1430</v>
+        <v>820</v>
       </c>
       <c r="N359" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O359" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="P359" t="n">
-        <v>9273</v>
+        <v>8268</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1325</v>
+        <v>1181</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N360" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O360" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="P360" t="n">
-        <v>5262</v>
+        <v>7280</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>752</v>
+        <v>1040</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>630</v>
+        <v>830</v>
       </c>
       <c r="N361" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O361" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P361" t="n">
-        <v>4222</v>
+        <v>5271</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>603</v>
+        <v>753</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>100</v>
+        <v>920</v>
       </c>
       <c r="N362" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O362" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P362" t="n">
-        <v>20000</v>
+        <v>10783</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>2857</v>
+        <v>1540</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>160</v>
+        <v>1430</v>
       </c>
       <c r="N363" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O363" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="P363" t="n">
-        <v>18000</v>
+        <v>9273</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>2571</v>
+        <v>1325</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>75</v>
+        <v>800</v>
       </c>
       <c r="N364" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O364" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P364" t="n">
-        <v>15000</v>
+        <v>5262</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2143</v>
+        <v>752</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>70</v>
+        <v>630</v>
       </c>
       <c r="N365" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="O365" t="n">
-        <v>24000</v>
+        <v>4500</v>
       </c>
       <c r="P365" t="n">
-        <v>24000</v>
+        <v>4222</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>3429</v>
+        <v>603</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29640,11 +29640,11 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N366" t="n">
         <v>20000</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="N367" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O367" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P367" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>2000</v>
+        <v>2571</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>550</v>
+        <v>75</v>
       </c>
       <c r="N368" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O368" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P368" t="n">
-        <v>8273</v>
+        <v>15000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1182</v>
+        <v>2143</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>650</v>
+        <v>70</v>
       </c>
       <c r="N369" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O369" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="P369" t="n">
-        <v>7231</v>
+        <v>24000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1033</v>
+        <v>3429</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>490</v>
+        <v>140</v>
       </c>
       <c r="N370" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O370" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P370" t="n">
-        <v>4776</v>
+        <v>20000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>682</v>
+        <v>2857</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>550</v>
+        <v>55</v>
       </c>
       <c r="N371" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O371" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P371" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1143</v>
+        <v>2000</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="N372" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O372" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P372" t="n">
-        <v>7000</v>
+        <v>8273</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1000</v>
+        <v>1182</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N373" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O373" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P373" t="n">
-        <v>5000</v>
+        <v>7231</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>714</v>
+        <v>1033</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>1180</v>
+        <v>490</v>
       </c>
       <c r="N374" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="O374" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P374" t="n">
-        <v>7788</v>
+        <v>4776</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1113</v>
+        <v>682</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>1480</v>
+        <v>550</v>
       </c>
       <c r="N375" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O375" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P375" t="n">
-        <v>6230</v>
+        <v>8000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>890</v>
+        <v>1143</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>1040</v>
+        <v>680</v>
       </c>
       <c r="N376" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O376" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P376" t="n">
-        <v>4260</v>
+        <v>7000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>609</v>
+        <v>1000</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N377" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O377" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P377" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>800</v>
+        <v>1180</v>
       </c>
       <c r="N378" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O378" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P378" t="n">
-        <v>6250</v>
+        <v>7788</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>893</v>
+        <v>1113</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>360</v>
+        <v>1480</v>
       </c>
       <c r="N379" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O379" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P379" t="n">
-        <v>4500</v>
+        <v>6230</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>643</v>
+        <v>890</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>300</v>
+        <v>1040</v>
       </c>
       <c r="N380" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O380" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P380" t="n">
-        <v>3250</v>
+        <v>4260</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>464</v>
+        <v>609</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="N381" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O381" t="n">
         <v>8000</v>
       </c>
       <c r="P381" t="n">
-        <v>7809</v>
+        <v>7500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1116</v>
+        <v>1071</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>390</v>
+        <v>800</v>
       </c>
       <c r="N382" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O382" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P382" t="n">
-        <v>4782</v>
+        <v>6250</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>683</v>
+        <v>893</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>630</v>
+        <v>360</v>
       </c>
       <c r="N383" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O383" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P383" t="n">
-        <v>9571</v>
+        <v>4500</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1367</v>
+        <v>643</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="N384" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="O384" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P384" t="n">
-        <v>9566</v>
+        <v>3250</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31102,11 +31102,11 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1367</v>
+        <v>464</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>800</v>
+        <v>470</v>
       </c>
       <c r="N385" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O385" t="n">
         <v>8000</v>
       </c>
       <c r="P385" t="n">
-        <v>7562</v>
+        <v>7809</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1080</v>
+        <v>1116</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>640</v>
+        <v>390</v>
       </c>
       <c r="N386" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O386" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P386" t="n">
-        <v>7547</v>
+        <v>4782</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31262,11 +31262,11 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1078</v>
+        <v>683</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="N387" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O387" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P387" t="n">
-        <v>4760</v>
+        <v>9571</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>680</v>
+        <v>1367</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="N388" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O388" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P388" t="n">
-        <v>5000</v>
+        <v>9566</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>714</v>
+        <v>1367</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>690</v>
+        <v>800</v>
       </c>
       <c r="N389" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O389" t="n">
         <v>8000</v>
       </c>
       <c r="P389" t="n">
-        <v>7797</v>
+        <v>7562</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1114</v>
+        <v>1080</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>380</v>
+        <v>640</v>
       </c>
       <c r="N390" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O390" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P390" t="n">
-        <v>5342</v>
+        <v>7547</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31582,11 +31582,11 @@
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>763</v>
+        <v>1078</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="N391" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O391" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P391" t="n">
-        <v>7550</v>
+        <v>4760</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1079</v>
+        <v>680</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>1050</v>
+        <v>240</v>
       </c>
       <c r="N392" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O392" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P392" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31742,11 +31742,11 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>929</v>
+        <v>714</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="N393" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="O393" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P393" t="n">
-        <v>4750</v>
+        <v>7797</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>679</v>
+        <v>1114</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>1430</v>
+        <v>380</v>
       </c>
       <c r="N394" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="O394" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P394" t="n">
-        <v>8762</v>
+        <v>5342</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1252</v>
+        <v>763</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N395" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O395" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P395" t="n">
-        <v>6773</v>
+        <v>7550</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>968</v>
+        <v>1079</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>1340</v>
+        <v>1050</v>
       </c>
       <c r="N396" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O396" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P396" t="n">
-        <v>5291</v>
+        <v>6500</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>756</v>
+        <v>929</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N397" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O397" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P397" t="n">
-        <v>14556</v>
+        <v>4750</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>2079</v>
+        <v>679</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>520</v>
+        <v>1430</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O398" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P398" t="n">
-        <v>12423</v>
+        <v>8762</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1775</v>
+        <v>1252</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>290</v>
+        <v>1500</v>
       </c>
       <c r="N399" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P399" t="n">
-        <v>9414</v>
+        <v>6773</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1345</v>
+        <v>968</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>260</v>
+        <v>1340</v>
       </c>
       <c r="N400" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O400" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P400" t="n">
-        <v>7385</v>
+        <v>5291</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1055</v>
+        <v>756</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="N401" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="O401" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P401" t="n">
-        <v>26000</v>
+        <v>14556</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>3714</v>
+        <v>2079</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>95</v>
+        <v>520</v>
       </c>
       <c r="N402" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O402" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P402" t="n">
-        <v>17000</v>
+        <v>12423</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>2429</v>
+        <v>1775</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
         <v>290</v>
       </c>
       <c r="N403" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O403" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P403" t="n">
-        <v>15000</v>
+        <v>9414</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>2143</v>
+        <v>1345</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N404" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O404" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P404" t="n">
-        <v>13000</v>
+        <v>7385</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1857</v>
+        <v>1055</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N405" t="n">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="O405" t="n">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="P405" t="n">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1571</v>
+        <v>3714</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N406" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O406" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P406" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1143</v>
+        <v>2429</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="N407" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O407" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P407" t="n">
-        <v>10316</v>
+        <v>15000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1474</v>
+        <v>2143</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N408" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O408" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P408" t="n">
-        <v>8220</v>
+        <v>13000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1174</v>
+        <v>1857</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="N409" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="O409" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P409" t="n">
-        <v>4783</v>
+        <v>11000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>683</v>
+        <v>1571</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="N410" t="n">
         <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P410" t="n">
-        <v>8333</v>
+        <v>8000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1190</v>
+        <v>1143</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="N411" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O411" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P411" t="n">
-        <v>7280</v>
+        <v>10316</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1040</v>
+        <v>1474</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="N412" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O412" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="P412" t="n">
-        <v>5281</v>
+        <v>8220</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>754</v>
+        <v>1174</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="N413" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O413" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P413" t="n">
-        <v>20000</v>
+        <v>4783</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>2857</v>
+        <v>683</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="N414" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O414" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P414" t="n">
-        <v>15000</v>
+        <v>8333</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>2143</v>
+        <v>1190</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="N415" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P415" t="n">
-        <v>12000</v>
+        <v>7280</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1714</v>
+        <v>1040</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="N416" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O416" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P416" t="n">
-        <v>8000</v>
+        <v>5281</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1143</v>
+        <v>754</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="N417" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O417" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P417" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1500</v>
+        <v>2857</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="N418" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O418" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P418" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1214</v>
+        <v>2143</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N419" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O419" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P419" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>786</v>
+        <v>1714</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33967,13 +33967,13 @@
         <v>240</v>
       </c>
       <c r="N420" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O420" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P420" t="n">
-        <v>3750</v>
+        <v>8000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>536</v>
+        <v>1143</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O421" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P421" t="n">
-        <v>8372</v>
+        <v>10500</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1196</v>
+        <v>1500</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>1020</v>
+        <v>400</v>
       </c>
       <c r="N422" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O422" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P422" t="n">
-        <v>7284</v>
+        <v>8500</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1041</v>
+        <v>1214</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,17 +34204,17 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="N423" t="n">
         <v>5000</v>
       </c>
       <c r="O423" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P423" t="n">
         <v>5500</v>
       </c>
-      <c r="P423" t="n">
-        <v>5278</v>
-      </c>
       <c r="Q423" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="N424" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O424" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="P424" t="n">
-        <v>17000</v>
+        <v>3750</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>2429</v>
+        <v>536</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="N425" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O425" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P425" t="n">
-        <v>14000</v>
+        <v>8372</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>180</v>
+        <v>1020</v>
       </c>
       <c r="N426" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O426" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P426" t="n">
-        <v>12000</v>
+        <v>7284</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1714</v>
+        <v>1041</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="N427" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O427" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P427" t="n">
-        <v>7759</v>
+        <v>5278</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1108</v>
+        <v>754</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>780</v>
+        <v>110</v>
       </c>
       <c r="N428" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="O428" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="P428" t="n">
-        <v>5744</v>
+        <v>17000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>821</v>
+        <v>2429</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="N429" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O429" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P429" t="n">
-        <v>4288</v>
+        <v>14000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>613</v>
+        <v>2000</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>770</v>
+        <v>180</v>
       </c>
       <c r="N430" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O430" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>8773</v>
+        <v>12000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1253</v>
+        <v>1714</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>1020</v>
+        <v>580</v>
       </c>
       <c r="N431" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O431" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P431" t="n">
-        <v>7284</v>
+        <v>7759</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1041</v>
+        <v>1108</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="N432" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O432" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P432" t="n">
-        <v>4706</v>
+        <v>5744</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>672</v>
+        <v>821</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N433" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O433" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P433" t="n">
-        <v>9500</v>
+        <v>4288</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1357</v>
+        <v>613</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>900</v>
+        <v>770</v>
       </c>
       <c r="N434" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O434" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P434" t="n">
-        <v>7500</v>
+        <v>8773</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1071</v>
+        <v>1253</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>400</v>
+        <v>1020</v>
       </c>
       <c r="N435" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O435" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P435" t="n">
-        <v>4500</v>
+        <v>7284</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>643</v>
+        <v>1041</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="N436" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O436" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P436" t="n">
-        <v>7266</v>
+        <v>4706</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1038</v>
+        <v>672</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>1190</v>
+        <v>600</v>
       </c>
       <c r="N437" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O437" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P437" t="n">
-        <v>6244</v>
+        <v>9500</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>892</v>
+        <v>1357</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="N438" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O438" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P438" t="n">
-        <v>5284</v>
+        <v>7500</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>755</v>
+        <v>1071</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="N439" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O439" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P439" t="n">
-        <v>13571</v>
+        <v>4500</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>1939</v>
+        <v>643</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>750</v>
+        <v>960</v>
       </c>
       <c r="N440" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O440" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P440" t="n">
-        <v>10533</v>
+        <v>7266</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>1505</v>
+        <v>1038</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>440</v>
+        <v>1190</v>
       </c>
       <c r="N441" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O441" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P441" t="n">
-        <v>7591</v>
+        <v>6244</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1084</v>
+        <v>892</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>700</v>
+        <v>1020</v>
       </c>
       <c r="N442" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O442" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P442" t="n">
-        <v>14500</v>
+        <v>5284</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>2071</v>
+        <v>755</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="N443" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O443" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P443" t="n">
-        <v>11500</v>
+        <v>13571</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>1643</v>
+        <v>1939</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="N444" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O444" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P444" t="n">
-        <v>7500</v>
+        <v>10533</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1071</v>
+        <v>1505</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N445" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O445" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P445" t="n">
-        <v>5000</v>
+        <v>7591</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>714</v>
+        <v>1084</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="N446" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O446" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P446" t="n">
-        <v>7708</v>
+        <v>14500</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1101</v>
+        <v>2071</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>1240</v>
+        <v>500</v>
       </c>
       <c r="N447" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="O447" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>6774</v>
+        <v>11500</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>968</v>
+        <v>1643</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>1010</v>
+        <v>360</v>
       </c>
       <c r="N448" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O448" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P448" t="n">
-        <v>4728</v>
+        <v>7500</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>675</v>
+        <v>1071</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>780</v>
+        <v>200</v>
       </c>
       <c r="N449" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O449" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P449" t="n">
-        <v>2756</v>
+        <v>5000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>394</v>
+        <v>714</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="N450" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="O450" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P450" t="n">
-        <v>8620</v>
+        <v>7708</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1231</v>
+        <v>1101</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>1540</v>
+        <v>1240</v>
       </c>
       <c r="N451" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O451" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P451" t="n">
-        <v>7779</v>
+        <v>6774</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1111</v>
+        <v>968</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,7 +36524,7 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>740</v>
+        <v>1010</v>
       </c>
       <c r="N452" t="n">
         <v>4500</v>
@@ -36533,7 +36533,7 @@
         <v>5000</v>
       </c>
       <c r="P452" t="n">
-        <v>4797</v>
+        <v>4728</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>2180</v>
+        <v>780</v>
       </c>
       <c r="N453" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O453" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P453" t="n">
-        <v>6275</v>
+        <v>2756</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>896</v>
+        <v>394</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>1360</v>
+        <v>500</v>
       </c>
       <c r="N454" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="O454" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P454" t="n">
-        <v>5206</v>
+        <v>8620</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>744</v>
+        <v>1231</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>860</v>
+        <v>1540</v>
       </c>
       <c r="N455" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O455" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>4267</v>
+        <v>7779</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>610</v>
+        <v>1111</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="N456" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O456" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P456" t="n">
-        <v>13500</v>
+        <v>4797</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1929</v>
+        <v>685</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>400</v>
+        <v>2180</v>
       </c>
       <c r="N457" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O457" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P457" t="n">
-        <v>11000</v>
+        <v>6275</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1571</v>
+        <v>896</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>300</v>
+        <v>1360</v>
       </c>
       <c r="N458" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O458" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P458" t="n">
-        <v>7000</v>
+        <v>5206</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1000</v>
+        <v>744</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>250</v>
+        <v>860</v>
       </c>
       <c r="N459" t="n">
         <v>4000</v>
       </c>
       <c r="O459" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P459" t="n">
-        <v>4500</v>
+        <v>4267</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N460" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O460" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P460" t="n">
-        <v>8238</v>
+        <v>13500</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1177</v>
+        <v>1929</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="N461" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O461" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P461" t="n">
-        <v>6738</v>
+        <v>11000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>963</v>
+        <v>1571</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="N462" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O462" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P462" t="n">
-        <v>5263</v>
+        <v>7000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>752</v>
+        <v>1000</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>1230</v>
+        <v>250</v>
       </c>
       <c r="N463" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O463" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P463" t="n">
-        <v>6276</v>
+        <v>4500</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>897</v>
+        <v>643</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="N464" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O464" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="P464" t="n">
-        <v>5234</v>
+        <v>8238</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>748</v>
+        <v>1177</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>1250</v>
+        <v>840</v>
       </c>
       <c r="N465" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O465" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P465" t="n">
-        <v>4200</v>
+        <v>6738</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>600</v>
+        <v>963</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>175</v>
+        <v>590</v>
       </c>
       <c r="N466" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O466" t="n">
-        <v>21000</v>
+        <v>5500</v>
       </c>
       <c r="P466" t="n">
-        <v>20543</v>
+        <v>5263</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>2935</v>
+        <v>752</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>800</v>
+        <v>1230</v>
       </c>
       <c r="N467" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O467" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="P467" t="n">
-        <v>14525</v>
+        <v>6276</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>2075</v>
+        <v>897</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>320</v>
+        <v>1600</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P468" t="n">
-        <v>9469</v>
+        <v>5234</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1353</v>
+        <v>748</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
       <c r="N469" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O469" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P469" t="n">
-        <v>9000</v>
+        <v>4200</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1286</v>
+        <v>600</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>590</v>
+        <v>175</v>
       </c>
       <c r="N470" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O470" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="P470" t="n">
-        <v>7000</v>
+        <v>20543</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1000</v>
+        <v>2935</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="N471" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O471" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P471" t="n">
-        <v>4000</v>
+        <v>14525</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>571</v>
+        <v>2075</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>1130</v>
+        <v>320</v>
       </c>
       <c r="N472" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O472" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P472" t="n">
-        <v>7788</v>
+        <v>9469</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1113</v>
+        <v>1353</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>1250</v>
+        <v>550</v>
       </c>
       <c r="N473" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O473" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P473" t="n">
-        <v>5740</v>
+        <v>9000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>820</v>
+        <v>1286</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>820</v>
+        <v>590</v>
       </c>
       <c r="N474" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O474" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P474" t="n">
-        <v>4232</v>
+        <v>7000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>605</v>
+        <v>1000</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>1130</v>
+        <v>220</v>
       </c>
       <c r="N475" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O475" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P475" t="n">
-        <v>6301</v>
+        <v>4000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>900</v>
+        <v>571</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>1480</v>
+        <v>1130</v>
       </c>
       <c r="N476" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O476" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P476" t="n">
-        <v>5277</v>
+        <v>7788</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38462,11 +38462,11 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>754</v>
+        <v>1113</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>630</v>
+        <v>1250</v>
       </c>
       <c r="N477" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O477" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P477" t="n">
-        <v>4278</v>
+        <v>5740</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38542,11 +38542,11 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>611</v>
+        <v>820</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>1400</v>
+        <v>820</v>
       </c>
       <c r="N478" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O478" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P478" t="n">
-        <v>9321</v>
+        <v>4232</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38622,11 +38622,11 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1332</v>
+        <v>605</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>1300</v>
+        <v>1130</v>
       </c>
       <c r="N479" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O479" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P479" t="n">
-        <v>7423</v>
+        <v>6301</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1060</v>
+        <v>900</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>900</v>
+        <v>1480</v>
       </c>
       <c r="N480" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O480" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P480" t="n">
-        <v>4667</v>
+        <v>5277</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="N481" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O481" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P481" t="n">
-        <v>3000</v>
+        <v>4278</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>429</v>
+        <v>611</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>240</v>
+        <v>1400</v>
       </c>
       <c r="N482" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O482" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P482" t="n">
-        <v>18000</v>
+        <v>9321</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>2571</v>
+        <v>1332</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>380</v>
+        <v>1300</v>
       </c>
       <c r="N483" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O483" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P483" t="n">
-        <v>15000</v>
+        <v>7423</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>2143</v>
+        <v>1060</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N484" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O484" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P484" t="n">
-        <v>11000</v>
+        <v>4667</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1571</v>
+        <v>667</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>1180</v>
+        <v>250</v>
       </c>
       <c r="N485" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O485" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P485" t="n">
-        <v>6746</v>
+        <v>3000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>964</v>
+        <v>429</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>1550</v>
+        <v>240</v>
       </c>
       <c r="N486" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="O486" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P486" t="n">
-        <v>5758</v>
+        <v>18000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>823</v>
+        <v>2571</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="N487" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O487" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P487" t="n">
-        <v>3767</v>
+        <v>15000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>538</v>
+        <v>2143</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N488" t="n">
         <v>11000</v>
       </c>
       <c r="O488" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P488" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1643</v>
+        <v>1571</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>500</v>
+        <v>1180</v>
       </c>
       <c r="N489" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O489" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P489" t="n">
-        <v>9500</v>
+        <v>6746</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1357</v>
+        <v>964</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>300</v>
+        <v>1550</v>
       </c>
       <c r="N490" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O490" t="n">
         <v>6000</v>
       </c>
       <c r="P490" t="n">
-        <v>5500</v>
+        <v>5758</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>786</v>
+        <v>823</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N491" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="O491" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P491" t="n">
-        <v>8780</v>
+        <v>3767</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1254</v>
+        <v>538</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>1040</v>
+        <v>600</v>
       </c>
       <c r="N492" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O492" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P492" t="n">
-        <v>7288</v>
+        <v>11500</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1041</v>
+        <v>1643</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N493" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O493" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P493" t="n">
-        <v>4789</v>
+        <v>9500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>684</v>
+        <v>1357</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N494" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="O494" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P494" t="n">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>3571</v>
+        <v>786</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="N495" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O495" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P495" t="n">
-        <v>20000</v>
+        <v>8780</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>2857</v>
+        <v>1254</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>110</v>
+        <v>1040</v>
       </c>
       <c r="N496" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O496" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P496" t="n">
-        <v>10000</v>
+        <v>7288</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40062,11 +40062,11 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1429</v>
+        <v>1041</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="N497" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O497" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P497" t="n">
-        <v>12000</v>
+        <v>4789</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1714</v>
+        <v>684</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="N498" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O498" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P498" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1429</v>
+        <v>3571</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,68 +40247,388 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E499" t="n">
+        <v>13</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I499" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M499" t="n">
+        <v>280</v>
+      </c>
+      <c r="N499" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O499" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P499" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>Provincia de Santiago</t>
+        </is>
+      </c>
+      <c r="S499" t="n">
+        <v>2857</v>
+      </c>
+      <c r="T499" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>9</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D500" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E500" t="n">
+        <v>13</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I500" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M500" t="n">
+        <v>110</v>
+      </c>
+      <c r="N500" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O500" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P500" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>Provincia de Santiago</t>
+        </is>
+      </c>
+      <c r="S500" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T500" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>9</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D501" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E499" t="n">
-        <v>13</v>
-      </c>
-      <c r="F499" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G499" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I499" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J499" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L499" t="inlineStr">
+      <c r="E501" t="n">
+        <v>13</v>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I501" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M501" t="n">
+        <v>250</v>
+      </c>
+      <c r="N501" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O501" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P501" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q501" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R501" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S501" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T501" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>9</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D502" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E502" t="n">
+        <v>13</v>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I502" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M502" t="n">
+        <v>340</v>
+      </c>
+      <c r="N502" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O502" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P502" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S502" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T502" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>9</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D503" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E503" t="n">
+        <v>13</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G503" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I503" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M499" t="n">
+      <c r="M503" t="n">
         <v>180</v>
       </c>
-      <c r="N499" t="n">
+      <c r="N503" t="n">
         <v>7000</v>
       </c>
-      <c r="O499" t="n">
+      <c r="O503" t="n">
         <v>7000</v>
       </c>
-      <c r="P499" t="n">
+      <c r="P503" t="n">
         <v>7000</v>
       </c>
-      <c r="Q499" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R499" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S499" t="n">
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S503" t="n">
         <v>1000</v>
       </c>
-      <c r="T499" t="n">
+      <c r="T503" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T503"/>
+  <dimension ref="A1:T505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,7 +37164,7 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="N460" t="n">
         <v>13000</v>
@@ -37173,7 +37173,7 @@
         <v>14000</v>
       </c>
       <c r="P460" t="n">
-        <v>13500</v>
+        <v>13517</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N461" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O461" t="n">
         <v>12000</v>
       </c>
       <c r="P461" t="n">
-        <v>11000</v>
+        <v>11462</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1571</v>
+        <v>1637</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N462" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O462" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P462" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1000</v>
+        <v>1929</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N463" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O463" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P463" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>643</v>
+        <v>1571</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N464" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O464" t="n">
         <v>8000</v>
       </c>
-      <c r="O464" t="n">
-        <v>8500</v>
-      </c>
       <c r="P464" t="n">
-        <v>8238</v>
+        <v>7000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1177</v>
+        <v>1000</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>840</v>
+        <v>250</v>
       </c>
       <c r="N465" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O465" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P465" t="n">
-        <v>6738</v>
+        <v>4500</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>963</v>
+        <v>643</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>590</v>
+        <v>800</v>
       </c>
       <c r="N466" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O466" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="P466" t="n">
-        <v>5263</v>
+        <v>8238</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>752</v>
+        <v>1177</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>1230</v>
+        <v>840</v>
       </c>
       <c r="N467" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O467" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P467" t="n">
-        <v>6276</v>
+        <v>6738</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>897</v>
+        <v>963</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,11 +37800,11 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="N468" t="n">
         <v>5000</v>
@@ -37813,7 +37813,7 @@
         <v>5500</v>
       </c>
       <c r="P468" t="n">
-        <v>5234</v>
+        <v>5263</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1250</v>
+        <v>1230</v>
       </c>
       <c r="N469" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O469" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="P469" t="n">
-        <v>4200</v>
+        <v>6276</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>600</v>
+        <v>897</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>175</v>
+        <v>1600</v>
       </c>
       <c r="N470" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O470" t="n">
-        <v>21000</v>
+        <v>5500</v>
       </c>
       <c r="P470" t="n">
-        <v>20543</v>
+        <v>5234</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>2935</v>
+        <v>748</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="N471" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O471" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P471" t="n">
-        <v>14525</v>
+        <v>4200</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>2075</v>
+        <v>600</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c r="N472" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O472" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P472" t="n">
-        <v>9469</v>
+        <v>20543</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1353</v>
+        <v>2935</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N473" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O473" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P473" t="n">
-        <v>9000</v>
+        <v>14525</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1286</v>
+        <v>2075</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>590</v>
+        <v>320</v>
       </c>
       <c r="N474" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O474" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>7000</v>
+        <v>9469</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1000</v>
+        <v>1353</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="N475" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O475" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P475" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>571</v>
+        <v>1286</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>1130</v>
+        <v>590</v>
       </c>
       <c r="N476" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O476" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P476" t="n">
-        <v>7788</v>
+        <v>7000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38462,11 +38462,11 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1113</v>
+        <v>1000</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>1250</v>
+        <v>220</v>
       </c>
       <c r="N477" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="O477" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P477" t="n">
-        <v>5740</v>
+        <v>4000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38542,11 +38542,11 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>820</v>
+        <v>571</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>820</v>
+        <v>1130</v>
       </c>
       <c r="N478" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O478" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P478" t="n">
-        <v>4232</v>
+        <v>7788</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>605</v>
+        <v>1113</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>1130</v>
+        <v>1250</v>
       </c>
       <c r="N479" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O479" t="n">
         <v>6000</v>
       </c>
-      <c r="O479" t="n">
-        <v>6500</v>
-      </c>
       <c r="P479" t="n">
-        <v>6301</v>
+        <v>5740</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38702,11 +38702,11 @@
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>900</v>
+        <v>820</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>1480</v>
+        <v>820</v>
       </c>
       <c r="N480" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O480" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P480" t="n">
-        <v>5277</v>
+        <v>4232</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38782,11 +38782,11 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>754</v>
+        <v>605</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>630</v>
+        <v>1130</v>
       </c>
       <c r="N481" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O481" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="P481" t="n">
-        <v>4278</v>
+        <v>6301</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="N482" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O482" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P482" t="n">
-        <v>9321</v>
+        <v>5277</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1332</v>
+        <v>754</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>1300</v>
+        <v>630</v>
       </c>
       <c r="N483" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O483" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P483" t="n">
-        <v>7423</v>
+        <v>4278</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1060</v>
+        <v>611</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="N484" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O484" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P484" t="n">
-        <v>4667</v>
+        <v>9321</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>667</v>
+        <v>1332</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="N485" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O485" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P485" t="n">
-        <v>3000</v>
+        <v>7423</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>429</v>
+        <v>1060</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="N486" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O486" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P486" t="n">
-        <v>18000</v>
+        <v>4667</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>2571</v>
+        <v>667</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N487" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O487" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="P487" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>2143</v>
+        <v>429</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N488" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O488" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P488" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1571</v>
+        <v>2571</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>1180</v>
+        <v>380</v>
       </c>
       <c r="N489" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="O489" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P489" t="n">
-        <v>6746</v>
+        <v>15000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>964</v>
+        <v>2143</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>1550</v>
+        <v>350</v>
       </c>
       <c r="N490" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="O490" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P490" t="n">
-        <v>5758</v>
+        <v>11000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>823</v>
+        <v>1571</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>600</v>
+        <v>1180</v>
       </c>
       <c r="N491" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="O491" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P491" t="n">
-        <v>3767</v>
+        <v>6746</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>538</v>
+        <v>964</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>600</v>
+        <v>1550</v>
       </c>
       <c r="N492" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O492" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P492" t="n">
-        <v>11500</v>
+        <v>5758</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1643</v>
+        <v>823</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N493" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="O493" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P493" t="n">
-        <v>9500</v>
+        <v>3767</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1357</v>
+        <v>538</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N494" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O494" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P494" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>786</v>
+        <v>1643</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N495" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O495" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P495" t="n">
-        <v>8780</v>
+        <v>9500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1254</v>
+        <v>1357</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>1040</v>
+        <v>300</v>
       </c>
       <c r="N496" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O496" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P496" t="n">
-        <v>7288</v>
+        <v>5500</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1041</v>
+        <v>786</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N497" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="O497" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P497" t="n">
-        <v>4789</v>
+        <v>8780</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>684</v>
+        <v>1254</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>60</v>
+        <v>1040</v>
       </c>
       <c r="N498" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O498" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="P498" t="n">
-        <v>25000</v>
+        <v>7288</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>3571</v>
+        <v>1041</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="N499" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O499" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P499" t="n">
-        <v>20000</v>
+        <v>4789</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40302,11 +40302,11 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>2857</v>
+        <v>684</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N500" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O500" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P500" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>1429</v>
+        <v>3571</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N501" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O501" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P501" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1714</v>
+        <v>2857</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,11 +40520,11 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="N502" t="n">
         <v>10000</v>
@@ -40542,7 +40542,7 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S502" t="n">
@@ -40600,35 +40600,195 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M503" t="n">
+        <v>250</v>
+      </c>
+      <c r="N503" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O503" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P503" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S503" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T503" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>9</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D504" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E504" t="n">
+        <v>13</v>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G504" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I504" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M504" t="n">
+        <v>340</v>
+      </c>
+      <c r="N504" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O504" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P504" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S504" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T504" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>9</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D505" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E505" t="n">
+        <v>13</v>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G505" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I505" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M503" t="n">
+      <c r="M505" t="n">
         <v>180</v>
       </c>
-      <c r="N503" t="n">
+      <c r="N505" t="n">
         <v>7000</v>
       </c>
-      <c r="O503" t="n">
+      <c r="O505" t="n">
         <v>7000</v>
       </c>
-      <c r="P503" t="n">
+      <c r="P505" t="n">
         <v>7000</v>
       </c>
-      <c r="Q503" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R503" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S503" t="n">
+      <c r="Q505" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R505" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S505" t="n">
         <v>1000</v>
       </c>
-      <c r="T503" t="n">
+      <c r="T505" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T509"/>
+  <dimension ref="A1:T512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>1180</v>
+        <v>400</v>
       </c>
       <c r="N382" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O382" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P382" t="n">
-        <v>7788</v>
+        <v>14000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1113</v>
+        <v>2000</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>1480</v>
+        <v>410</v>
       </c>
       <c r="N383" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O383" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="P383" t="n">
-        <v>6230</v>
+        <v>12000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>890</v>
+        <v>1714</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>1040</v>
+        <v>350</v>
       </c>
       <c r="N384" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O384" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P384" t="n">
-        <v>4260</v>
+        <v>10000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>609</v>
+        <v>1429</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>700</v>
+        <v>1180</v>
       </c>
       <c r="N385" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O385" t="n">
         <v>8000</v>
       </c>
       <c r="P385" t="n">
-        <v>7500</v>
+        <v>7788</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1071</v>
+        <v>1113</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31244,7 +31244,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>800</v>
+        <v>1480</v>
       </c>
       <c r="N386" t="n">
         <v>6000</v>
@@ -31253,7 +31253,7 @@
         <v>6500</v>
       </c>
       <c r="P386" t="n">
-        <v>6250</v>
+        <v>6230</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>360</v>
+        <v>1040</v>
       </c>
       <c r="N387" t="n">
         <v>4000</v>
       </c>
       <c r="O387" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P387" t="n">
-        <v>4500</v>
+        <v>4260</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N388" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O388" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P388" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>464</v>
+        <v>1071</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>470</v>
+        <v>800</v>
       </c>
       <c r="N389" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O389" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P389" t="n">
-        <v>7809</v>
+        <v>6250</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1116</v>
+        <v>893</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="N390" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O390" t="n">
         <v>5000</v>
       </c>
       <c r="P390" t="n">
-        <v>4782</v>
+        <v>4500</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>683</v>
+        <v>643</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="N391" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="O391" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P391" t="n">
-        <v>9571</v>
+        <v>3250</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1367</v>
+        <v>464</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="N392" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O392" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P392" t="n">
-        <v>9566</v>
+        <v>7809</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31742,11 +31742,11 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1367</v>
+        <v>1116</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>800</v>
+        <v>390</v>
       </c>
       <c r="N393" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O393" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P393" t="n">
-        <v>7562</v>
+        <v>4782</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1080</v>
+        <v>683</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="N394" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O394" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P394" t="n">
-        <v>7547</v>
+        <v>9571</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31902,11 +31902,11 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1078</v>
+        <v>1367</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="N395" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O395" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P395" t="n">
-        <v>4760</v>
+        <v>9566</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31982,11 +31982,11 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>680</v>
+        <v>1367</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="N396" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O396" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P396" t="n">
-        <v>5000</v>
+        <v>7562</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32062,11 +32062,11 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>714</v>
+        <v>1080</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>690</v>
+        <v>640</v>
       </c>
       <c r="N397" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O397" t="n">
         <v>8000</v>
       </c>
       <c r="P397" t="n">
-        <v>7797</v>
+        <v>7547</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32142,11 +32142,11 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1114</v>
+        <v>1078</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N398" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O398" t="n">
         <v>5000</v>
       </c>
-      <c r="O398" t="n">
-        <v>5500</v>
-      </c>
       <c r="P398" t="n">
-        <v>5342</v>
+        <v>4760</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>763</v>
+        <v>680</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="N399" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O399" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P399" t="n">
-        <v>7550</v>
+        <v>5000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32302,11 +32302,11 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1079</v>
+        <v>714</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>1050</v>
+        <v>690</v>
       </c>
       <c r="N400" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O400" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P400" t="n">
-        <v>6500</v>
+        <v>7797</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>929</v>
+        <v>1114</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="N401" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O401" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P401" t="n">
-        <v>4750</v>
+        <v>5342</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>679</v>
+        <v>763</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>1430</v>
+        <v>3000</v>
       </c>
       <c r="N402" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O402" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P402" t="n">
-        <v>8762</v>
+        <v>7550</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1252</v>
+        <v>1079</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>1500</v>
+        <v>1050</v>
       </c>
       <c r="N403" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O403" t="n">
         <v>7000</v>
       </c>
       <c r="P403" t="n">
-        <v>6773</v>
+        <v>6500</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>968</v>
+        <v>929</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>1340</v>
+        <v>600</v>
       </c>
       <c r="N404" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O404" t="n">
         <v>5000</v>
       </c>
-      <c r="O404" t="n">
-        <v>5500</v>
-      </c>
       <c r="P404" t="n">
-        <v>5291</v>
+        <v>4750</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>756</v>
+        <v>679</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>450</v>
+        <v>1430</v>
       </c>
       <c r="N405" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O405" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P405" t="n">
-        <v>14556</v>
+        <v>8762</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>2079</v>
+        <v>1252</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>520</v>
+        <v>1500</v>
       </c>
       <c r="N406" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O406" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P406" t="n">
-        <v>12423</v>
+        <v>6773</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1775</v>
+        <v>968</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>290</v>
+        <v>1340</v>
       </c>
       <c r="N407" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O407" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P407" t="n">
-        <v>9414</v>
+        <v>5291</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1345</v>
+        <v>756</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="N408" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O408" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P408" t="n">
-        <v>7385</v>
+        <v>14556</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1055</v>
+        <v>2079</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="N409" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O409" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P409" t="n">
-        <v>26000</v>
+        <v>12423</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>3714</v>
+        <v>1775</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="N410" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O410" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P410" t="n">
-        <v>17000</v>
+        <v>9414</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>2429</v>
+        <v>1345</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="N411" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O411" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P411" t="n">
-        <v>15000</v>
+        <v>7385</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>2143</v>
+        <v>1055</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N412" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="O412" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="P412" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1857</v>
+        <v>3714</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="N413" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O413" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P413" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1571</v>
+        <v>2429</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N414" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O414" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P414" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="N415" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O415" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P415" t="n">
-        <v>10316</v>
+        <v>13000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1474</v>
+        <v>1857</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N416" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O416" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P416" t="n">
-        <v>8220</v>
+        <v>11000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1174</v>
+        <v>1571</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N417" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O417" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P417" t="n">
-        <v>4783</v>
+        <v>8000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>683</v>
+        <v>1143</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="N418" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="P418" t="n">
-        <v>8333</v>
+        <v>10316</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1190</v>
+        <v>1474</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N419" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O419" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P419" t="n">
-        <v>7280</v>
+        <v>8220</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1040</v>
+        <v>1174</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="N420" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O420" t="n">
         <v>5000</v>
       </c>
-      <c r="O420" t="n">
-        <v>5500</v>
-      </c>
       <c r="P420" t="n">
-        <v>5281</v>
+        <v>4783</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>754</v>
+        <v>683</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="N421" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O421" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="P421" t="n">
-        <v>20000</v>
+        <v>8333</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>2857</v>
+        <v>1190</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="N422" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O422" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P422" t="n">
-        <v>15000</v>
+        <v>7280</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>2143</v>
+        <v>1040</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>5281</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1714</v>
+        <v>754</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="N424" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O424" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P424" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1143</v>
+        <v>2857</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="N425" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O425" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P425" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1500</v>
+        <v>2143</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N426" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1214</v>
+        <v>1714</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N427" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O427" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P427" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N428" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O428" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P428" t="n">
-        <v>3750</v>
+        <v>10500</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>536</v>
+        <v>1500</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,21 +34680,21 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="N429" t="n">
         <v>8000</v>
       </c>
       <c r="O429" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P429" t="n">
         <v>8500</v>
       </c>
-      <c r="P429" t="n">
-        <v>8372</v>
-      </c>
       <c r="Q429" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1196</v>
+        <v>1214</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>1020</v>
+        <v>300</v>
       </c>
       <c r="N430" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O430" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P430" t="n">
-        <v>7284</v>
+        <v>5500</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1041</v>
+        <v>786</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>630</v>
+        <v>240</v>
       </c>
       <c r="N431" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O431" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="P431" t="n">
-        <v>5278</v>
+        <v>3750</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>754</v>
+        <v>536</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="N432" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O432" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="P432" t="n">
-        <v>17000</v>
+        <v>8372</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>2429</v>
+        <v>1196</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>350</v>
+        <v>1020</v>
       </c>
       <c r="N433" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O433" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P433" t="n">
-        <v>14000</v>
+        <v>7284</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>2000</v>
+        <v>1041</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="N434" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O434" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P434" t="n">
-        <v>12000</v>
+        <v>5278</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1714</v>
+        <v>754</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="N435" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O435" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P435" t="n">
-        <v>7759</v>
+        <v>17000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1108</v>
+        <v>2429</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>780</v>
+        <v>350</v>
       </c>
       <c r="N436" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="O436" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P436" t="n">
-        <v>5744</v>
+        <v>14000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>821</v>
+        <v>2000</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>520</v>
+        <v>180</v>
       </c>
       <c r="N437" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O437" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P437" t="n">
-        <v>4288</v>
+        <v>12000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>613</v>
+        <v>1714</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>770</v>
+        <v>580</v>
       </c>
       <c r="N438" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="O438" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P438" t="n">
-        <v>8773</v>
+        <v>7759</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>1253</v>
+        <v>1108</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>1020</v>
+        <v>780</v>
       </c>
       <c r="N439" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O439" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P439" t="n">
-        <v>7284</v>
+        <v>5744</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>1041</v>
+        <v>821</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="N440" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O440" t="n">
         <v>4500</v>
       </c>
-      <c r="O440" t="n">
-        <v>5000</v>
-      </c>
       <c r="P440" t="n">
-        <v>4706</v>
+        <v>4288</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>600</v>
+        <v>770</v>
       </c>
       <c r="N441" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O441" t="n">
         <v>9000</v>
       </c>
-      <c r="O441" t="n">
-        <v>10000</v>
-      </c>
       <c r="P441" t="n">
-        <v>9500</v>
+        <v>8773</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1357</v>
+        <v>1253</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="N442" t="n">
         <v>7000</v>
       </c>
       <c r="O442" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P442" t="n">
-        <v>7500</v>
+        <v>7284</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="N443" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O443" t="n">
         <v>5000</v>
       </c>
       <c r="P443" t="n">
-        <v>4500</v>
+        <v>4706</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="N444" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O444" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P444" t="n">
-        <v>7266</v>
+        <v>9500</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1038</v>
+        <v>1357</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>1190</v>
+        <v>900</v>
       </c>
       <c r="N445" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O445" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P445" t="n">
-        <v>6244</v>
+        <v>7500</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>892</v>
+        <v>1071</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>1020</v>
+        <v>400</v>
       </c>
       <c r="N446" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O446" t="n">
         <v>5000</v>
       </c>
-      <c r="O446" t="n">
-        <v>5500</v>
-      </c>
       <c r="P446" t="n">
-        <v>5284</v>
+        <v>4500</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>755</v>
+        <v>643</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>490</v>
+        <v>960</v>
       </c>
       <c r="N447" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O447" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P447" t="n">
-        <v>13571</v>
+        <v>7266</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1939</v>
+        <v>1038</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>750</v>
+        <v>1190</v>
       </c>
       <c r="N448" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O448" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="P448" t="n">
-        <v>10533</v>
+        <v>6244</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1505</v>
+        <v>892</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>440</v>
+        <v>1020</v>
       </c>
       <c r="N449" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O449" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P449" t="n">
-        <v>7591</v>
+        <v>5284</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1084</v>
+        <v>755</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>700</v>
+        <v>490</v>
       </c>
       <c r="N450" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O450" t="n">
         <v>14000</v>
       </c>
-      <c r="O450" t="n">
-        <v>15000</v>
-      </c>
       <c r="P450" t="n">
-        <v>14500</v>
+        <v>13571</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>2071</v>
+        <v>1939</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N451" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O451" t="n">
         <v>11000</v>
       </c>
-      <c r="O451" t="n">
-        <v>12000</v>
-      </c>
       <c r="P451" t="n">
-        <v>11500</v>
+        <v>10533</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1643</v>
+        <v>1505</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,7 +36524,7 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="N452" t="n">
         <v>7000</v>
@@ -36533,7 +36533,7 @@
         <v>8000</v>
       </c>
       <c r="P452" t="n">
-        <v>7500</v>
+        <v>7591</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1071</v>
+        <v>1084</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N453" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O453" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P453" t="n">
-        <v>5000</v>
+        <v>14500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>714</v>
+        <v>2071</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="N454" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O454" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>7708</v>
+        <v>11500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1101</v>
+        <v>1643</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>1240</v>
+        <v>360</v>
       </c>
       <c r="N455" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O455" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>6774</v>
+        <v>7500</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>968</v>
+        <v>1071</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>1010</v>
+        <v>200</v>
       </c>
       <c r="N456" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O456" t="n">
         <v>5000</v>
       </c>
       <c r="P456" t="n">
-        <v>4728</v>
+        <v>5000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>780</v>
+        <v>960</v>
       </c>
       <c r="N457" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="O457" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P457" t="n">
-        <v>2756</v>
+        <v>7708</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>394</v>
+        <v>1101</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>500</v>
+        <v>1240</v>
       </c>
       <c r="N458" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="O458" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P458" t="n">
-        <v>8620</v>
+        <v>6774</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1231</v>
+        <v>968</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>1540</v>
+        <v>1010</v>
       </c>
       <c r="N459" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="O459" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P459" t="n">
-        <v>7779</v>
+        <v>4728</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1111</v>
+        <v>675</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="N460" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="O460" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P460" t="n">
-        <v>4797</v>
+        <v>2756</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>685</v>
+        <v>394</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>2180</v>
+        <v>500</v>
       </c>
       <c r="N461" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O461" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P461" t="n">
-        <v>6275</v>
+        <v>8620</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>896</v>
+        <v>1231</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>1360</v>
+        <v>1540</v>
       </c>
       <c r="N462" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O462" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P462" t="n">
-        <v>5206</v>
+        <v>7779</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>744</v>
+        <v>1111</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="N463" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O463" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P463" t="n">
-        <v>4267</v>
+        <v>4797</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>580</v>
+        <v>2180</v>
       </c>
       <c r="N464" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O464" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="P464" t="n">
-        <v>13517</v>
+        <v>6275</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1931</v>
+        <v>896</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>650</v>
+        <v>1360</v>
       </c>
       <c r="N465" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O465" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P465" t="n">
-        <v>11462</v>
+        <v>5206</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1637</v>
+        <v>744</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="N466" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O466" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P466" t="n">
-        <v>13500</v>
+        <v>4267</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1929</v>
+        <v>610</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="N467" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O467" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P467" t="n">
-        <v>11000</v>
+        <v>13517</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1571</v>
+        <v>1931</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N468" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P468" t="n">
-        <v>7000</v>
+        <v>11462</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1000</v>
+        <v>1637</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N469" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O469" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P469" t="n">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>643</v>
+        <v>1929</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N470" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P470" t="n">
-        <v>8238</v>
+        <v>11000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1177</v>
+        <v>1571</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,21 +38040,21 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>840</v>
+        <v>300</v>
       </c>
       <c r="N471" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O471" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P471" t="n">
         <v>7000</v>
       </c>
-      <c r="P471" t="n">
-        <v>6738</v>
-      </c>
       <c r="Q471" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>963</v>
+        <v>1000</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="N472" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O472" t="n">
         <v>5000</v>
       </c>
-      <c r="O472" t="n">
-        <v>5500</v>
-      </c>
       <c r="P472" t="n">
-        <v>5263</v>
+        <v>4500</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>752</v>
+        <v>643</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>1230</v>
+        <v>800</v>
       </c>
       <c r="N473" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O473" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="P473" t="n">
-        <v>6276</v>
+        <v>8238</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>897</v>
+        <v>1177</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>1600</v>
+        <v>840</v>
       </c>
       <c r="N474" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O474" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P474" t="n">
-        <v>5234</v>
+        <v>6738</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>748</v>
+        <v>963</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>1250</v>
+        <v>590</v>
       </c>
       <c r="N475" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O475" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P475" t="n">
-        <v>4200</v>
+        <v>5263</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>600</v>
+        <v>752</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>175</v>
+        <v>1230</v>
       </c>
       <c r="N476" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O476" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="P476" t="n">
-        <v>20543</v>
+        <v>6276</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>2935</v>
+        <v>897</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="N477" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O477" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P477" t="n">
-        <v>14525</v>
+        <v>5234</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>2075</v>
+        <v>748</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>320</v>
+        <v>1250</v>
       </c>
       <c r="N478" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O478" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P478" t="n">
-        <v>9469</v>
+        <v>4200</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1353</v>
+        <v>600</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>550</v>
+        <v>175</v>
       </c>
       <c r="N479" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O479" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P479" t="n">
-        <v>9000</v>
+        <v>20543</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1286</v>
+        <v>2935</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>590</v>
+        <v>800</v>
       </c>
       <c r="N480" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O480" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P480" t="n">
-        <v>7000</v>
+        <v>14525</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1000</v>
+        <v>2075</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="N481" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O481" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P481" t="n">
-        <v>4000</v>
+        <v>9469</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>571</v>
+        <v>1353</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>1130</v>
+        <v>550</v>
       </c>
       <c r="N482" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O482" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P482" t="n">
-        <v>7788</v>
+        <v>9000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38942,11 +38942,11 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1113</v>
+        <v>1286</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>1250</v>
+        <v>590</v>
       </c>
       <c r="N483" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O483" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P483" t="n">
-        <v>5740</v>
+        <v>7000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39022,11 +39022,11 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>820</v>
+        <v>220</v>
       </c>
       <c r="N484" t="n">
         <v>4000</v>
       </c>
       <c r="O484" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P484" t="n">
-        <v>4232</v>
+        <v>4000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39102,11 +39102,11 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39167,13 +39167,13 @@
         <v>1130</v>
       </c>
       <c r="N485" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O485" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P485" t="n">
-        <v>6301</v>
+        <v>7788</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>900</v>
+        <v>1113</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>1480</v>
+        <v>1250</v>
       </c>
       <c r="N486" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O486" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="P486" t="n">
-        <v>5277</v>
+        <v>5740</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>754</v>
+        <v>820</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,7 +39324,7 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="N487" t="n">
         <v>4000</v>
@@ -39333,7 +39333,7 @@
         <v>4500</v>
       </c>
       <c r="P487" t="n">
-        <v>4278</v>
+        <v>4232</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>1400</v>
+        <v>1130</v>
       </c>
       <c r="N488" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O488" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P488" t="n">
-        <v>9321</v>
+        <v>6301</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1332</v>
+        <v>900</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>1300</v>
+        <v>1480</v>
       </c>
       <c r="N489" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O489" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P489" t="n">
-        <v>7423</v>
+        <v>5277</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1060</v>
+        <v>754</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>900</v>
+        <v>630</v>
       </c>
       <c r="N490" t="n">
         <v>4000</v>
       </c>
       <c r="O490" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P490" t="n">
-        <v>4667</v>
+        <v>4278</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="N491" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O491" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>3000</v>
+        <v>9321</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>429</v>
+        <v>1332</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>240</v>
+        <v>1300</v>
       </c>
       <c r="N492" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O492" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P492" t="n">
-        <v>18000</v>
+        <v>7423</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>2571</v>
+        <v>1060</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>380</v>
+        <v>900</v>
       </c>
       <c r="N493" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O493" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P493" t="n">
-        <v>15000</v>
+        <v>4667</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>2143</v>
+        <v>667</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N494" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O494" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="P494" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1571</v>
+        <v>429</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>1180</v>
+        <v>240</v>
       </c>
       <c r="N495" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="O495" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P495" t="n">
-        <v>6746</v>
+        <v>18000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>964</v>
+        <v>2571</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>1550</v>
+        <v>380</v>
       </c>
       <c r="N496" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="O496" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P496" t="n">
-        <v>5758</v>
+        <v>15000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>823</v>
+        <v>2143</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N497" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="O497" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P497" t="n">
-        <v>3767</v>
+        <v>11000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>538</v>
+        <v>1571</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>600</v>
+        <v>1180</v>
       </c>
       <c r="N498" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="O498" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P498" t="n">
-        <v>11500</v>
+        <v>6746</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1643</v>
+        <v>964</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>500</v>
+        <v>1550</v>
       </c>
       <c r="N499" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O499" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P499" t="n">
-        <v>9500</v>
+        <v>5758</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>1357</v>
+        <v>823</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N500" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O500" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P500" t="n">
-        <v>5500</v>
+        <v>3767</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>786</v>
+        <v>538</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N501" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O501" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P501" t="n">
-        <v>8780</v>
+        <v>11500</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1254</v>
+        <v>1643</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>1040</v>
+        <v>500</v>
       </c>
       <c r="N502" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O502" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P502" t="n">
-        <v>7288</v>
+        <v>9500</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1041</v>
+        <v>1357</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N503" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O503" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P503" t="n">
-        <v>4789</v>
+        <v>5500</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>684</v>
+        <v>786</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="N504" t="n">
-        <v>25000</v>
+        <v>8500</v>
       </c>
       <c r="O504" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P504" t="n">
-        <v>25000</v>
+        <v>8780</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>3571</v>
+        <v>1254</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>280</v>
+        <v>1040</v>
       </c>
       <c r="N505" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O505" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P505" t="n">
-        <v>20000</v>
+        <v>7288</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>2857</v>
+        <v>1041</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="N506" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O506" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P506" t="n">
-        <v>10000</v>
+        <v>4789</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1429</v>
+        <v>684</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N507" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O507" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P507" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1714</v>
+        <v>3571</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N508" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O508" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P508" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41022,11 +41022,11 @@
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1429</v>
+        <v>2857</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,68 +41047,308 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E509" t="n">
+        <v>13</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G509" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I509" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M509" t="n">
+        <v>110</v>
+      </c>
+      <c r="N509" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O509" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P509" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q509" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>Provincia de Santiago</t>
+        </is>
+      </c>
+      <c r="S509" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T509" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>9</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D510" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E509" t="n">
-        <v>13</v>
-      </c>
-      <c r="F509" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G509" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I509" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J509" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L509" t="inlineStr">
+      <c r="E510" t="n">
+        <v>13</v>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G510" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I510" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M510" t="n">
+        <v>250</v>
+      </c>
+      <c r="N510" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O510" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P510" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q510" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R510" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S510" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T510" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>9</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D511" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E511" t="n">
+        <v>13</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G511" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I511" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M511" t="n">
+        <v>340</v>
+      </c>
+      <c r="N511" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O511" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P511" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R511" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S511" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T511" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>9</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D512" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E512" t="n">
+        <v>13</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G512" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I512" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M509" t="n">
+      <c r="M512" t="n">
         <v>180</v>
       </c>
-      <c r="N509" t="n">
+      <c r="N512" t="n">
         <v>7000</v>
       </c>
-      <c r="O509" t="n">
+      <c r="O512" t="n">
         <v>7000</v>
       </c>
-      <c r="P509" t="n">
+      <c r="P512" t="n">
         <v>7000</v>
       </c>
-      <c r="Q509" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R509" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S509" t="n">
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R512" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S512" t="n">
         <v>1000</v>
       </c>
-      <c r="T509" t="n">
+      <c r="T512" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T516"/>
+  <dimension ref="A1:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>920</v>
+        <v>330</v>
       </c>
       <c r="N370" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O370" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P370" t="n">
-        <v>10783</v>
+        <v>14000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29982,11 +29982,11 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1540</v>
+        <v>2000</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>1430</v>
+        <v>380</v>
       </c>
       <c r="N371" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O371" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P371" t="n">
-        <v>9273</v>
+        <v>12000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30062,11 +30062,11 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1325</v>
+        <v>1714</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N372" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O372" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P372" t="n">
-        <v>5262</v>
+        <v>8000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30142,11 +30142,11 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>752</v>
+        <v>1143</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="N373" t="n">
         <v>4000</v>
       </c>
       <c r="O373" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P373" t="n">
-        <v>4222</v>
+        <v>4000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30222,11 +30222,11 @@
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>100</v>
+        <v>920</v>
       </c>
       <c r="N374" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O374" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P374" t="n">
-        <v>20000</v>
+        <v>10783</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>2857</v>
+        <v>1540</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>160</v>
+        <v>1430</v>
       </c>
       <c r="N375" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O375" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="P375" t="n">
-        <v>18000</v>
+        <v>9273</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>2571</v>
+        <v>1325</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>75</v>
+        <v>800</v>
       </c>
       <c r="N376" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O376" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P376" t="n">
-        <v>15000</v>
+        <v>5262</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2143</v>
+        <v>752</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>70</v>
+        <v>630</v>
       </c>
       <c r="N377" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="O377" t="n">
-        <v>24000</v>
+        <v>4500</v>
       </c>
       <c r="P377" t="n">
-        <v>24000</v>
+        <v>4222</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>3429</v>
+        <v>603</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30600,11 +30600,11 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N378" t="n">
         <v>20000</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="N379" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O379" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P379" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>2000</v>
+        <v>2571</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>550</v>
+        <v>75</v>
       </c>
       <c r="N380" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O380" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P380" t="n">
-        <v>8273</v>
+        <v>15000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1182</v>
+        <v>2143</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>650</v>
+        <v>70</v>
       </c>
       <c r="N381" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O381" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="P381" t="n">
-        <v>7231</v>
+        <v>24000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1033</v>
+        <v>3429</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>490</v>
+        <v>140</v>
       </c>
       <c r="N382" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O382" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P382" t="n">
-        <v>4776</v>
+        <v>20000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>682</v>
+        <v>2857</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>550</v>
+        <v>55</v>
       </c>
       <c r="N383" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O383" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P383" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1143</v>
+        <v>2000</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="N384" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O384" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P384" t="n">
-        <v>7000</v>
+        <v>8273</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1000</v>
+        <v>1182</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N385" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O385" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P385" t="n">
-        <v>5000</v>
+        <v>7231</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>714</v>
+        <v>1033</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="N386" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O386" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P386" t="n">
-        <v>14000</v>
+        <v>4776</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>2000</v>
+        <v>682</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>410</v>
+        <v>550</v>
       </c>
       <c r="N387" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O387" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P387" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1714</v>
+        <v>1143</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>350</v>
+        <v>680</v>
       </c>
       <c r="N388" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O388" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P388" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>1180</v>
+        <v>450</v>
       </c>
       <c r="N389" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O389" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P389" t="n">
-        <v>7788</v>
+        <v>5000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1113</v>
+        <v>714</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>1480</v>
+        <v>400</v>
       </c>
       <c r="N390" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O390" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="P390" t="n">
-        <v>6230</v>
+        <v>14000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>890</v>
+        <v>2000</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>1040</v>
+        <v>410</v>
       </c>
       <c r="N391" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O391" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>4260</v>
+        <v>12000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>609</v>
+        <v>1714</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N392" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O392" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P392" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>800</v>
+        <v>1180</v>
       </c>
       <c r="N393" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O393" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P393" t="n">
-        <v>6250</v>
+        <v>7788</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>893</v>
+        <v>1113</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>360</v>
+        <v>1480</v>
       </c>
       <c r="N394" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O394" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P394" t="n">
-        <v>4500</v>
+        <v>6230</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>643</v>
+        <v>890</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>300</v>
+        <v>1040</v>
       </c>
       <c r="N395" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O395" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P395" t="n">
-        <v>3250</v>
+        <v>4260</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>464</v>
+        <v>609</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="N396" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O396" t="n">
         <v>8000</v>
       </c>
       <c r="P396" t="n">
-        <v>7809</v>
+        <v>7500</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1116</v>
+        <v>1071</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>390</v>
+        <v>800</v>
       </c>
       <c r="N397" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O397" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P397" t="n">
-        <v>4782</v>
+        <v>6250</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>683</v>
+        <v>893</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>630</v>
+        <v>360</v>
       </c>
       <c r="N398" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O398" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P398" t="n">
-        <v>9571</v>
+        <v>4500</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1367</v>
+        <v>643</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="N399" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P399" t="n">
-        <v>9566</v>
+        <v>3250</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32302,11 +32302,11 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1367</v>
+        <v>464</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>800</v>
+        <v>470</v>
       </c>
       <c r="N400" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O400" t="n">
         <v>8000</v>
       </c>
       <c r="P400" t="n">
-        <v>7562</v>
+        <v>7809</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1080</v>
+        <v>1116</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>640</v>
+        <v>390</v>
       </c>
       <c r="N401" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O401" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P401" t="n">
-        <v>7547</v>
+        <v>4782</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32462,11 +32462,11 @@
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1078</v>
+        <v>683</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="N402" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O402" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P402" t="n">
-        <v>4760</v>
+        <v>9571</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>680</v>
+        <v>1367</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="N403" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O403" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P403" t="n">
-        <v>5000</v>
+        <v>9566</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>714</v>
+        <v>1367</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>690</v>
+        <v>800</v>
       </c>
       <c r="N404" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O404" t="n">
         <v>8000</v>
       </c>
       <c r="P404" t="n">
-        <v>7797</v>
+        <v>7562</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1114</v>
+        <v>1080</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>380</v>
+        <v>640</v>
       </c>
       <c r="N405" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O405" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P405" t="n">
-        <v>5342</v>
+        <v>7547</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>763</v>
+        <v>1078</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="N406" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O406" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P406" t="n">
-        <v>7550</v>
+        <v>4760</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1079</v>
+        <v>680</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>1050</v>
+        <v>240</v>
       </c>
       <c r="N407" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O407" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P407" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32942,11 +32942,11 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>929</v>
+        <v>714</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="N408" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="O408" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P408" t="n">
-        <v>4750</v>
+        <v>7797</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>679</v>
+        <v>1114</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>1430</v>
+        <v>380</v>
       </c>
       <c r="N409" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="O409" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P409" t="n">
-        <v>8762</v>
+        <v>5342</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1252</v>
+        <v>763</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N410" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O410" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P410" t="n">
-        <v>6773</v>
+        <v>7550</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>968</v>
+        <v>1079</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>1340</v>
+        <v>1050</v>
       </c>
       <c r="N411" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O411" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P411" t="n">
-        <v>5291</v>
+        <v>6500</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>756</v>
+        <v>929</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N412" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O412" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P412" t="n">
-        <v>14556</v>
+        <v>4750</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>2079</v>
+        <v>679</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>520</v>
+        <v>1430</v>
       </c>
       <c r="N413" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O413" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P413" t="n">
-        <v>12423</v>
+        <v>8762</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1775</v>
+        <v>1252</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>290</v>
+        <v>1500</v>
       </c>
       <c r="N414" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O414" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P414" t="n">
-        <v>9414</v>
+        <v>6773</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1345</v>
+        <v>968</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>260</v>
+        <v>1340</v>
       </c>
       <c r="N415" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O415" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P415" t="n">
-        <v>7385</v>
+        <v>5291</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1055</v>
+        <v>756</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="N416" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="O416" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P416" t="n">
-        <v>26000</v>
+        <v>14556</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>3714</v>
+        <v>2079</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>95</v>
+        <v>520</v>
       </c>
       <c r="N417" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O417" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P417" t="n">
-        <v>17000</v>
+        <v>12423</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>2429</v>
+        <v>1775</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
         <v>290</v>
       </c>
       <c r="N418" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O418" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>15000</v>
+        <v>9414</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>2143</v>
+        <v>1345</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N419" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O419" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>13000</v>
+        <v>7385</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1857</v>
+        <v>1055</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N420" t="n">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="O420" t="n">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="P420" t="n">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1571</v>
+        <v>3714</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O421" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P421" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1143</v>
+        <v>2429</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="N422" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O422" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P422" t="n">
-        <v>10316</v>
+        <v>15000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1474</v>
+        <v>2143</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N423" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O423" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P423" t="n">
-        <v>8220</v>
+        <v>13000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1174</v>
+        <v>1857</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="N424" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="O424" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P424" t="n">
-        <v>4783</v>
+        <v>11000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>683</v>
+        <v>1571</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="N425" t="n">
         <v>8000</v>
       </c>
       <c r="O425" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P425" t="n">
-        <v>8333</v>
+        <v>8000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1190</v>
+        <v>1143</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="N426" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O426" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P426" t="n">
-        <v>7280</v>
+        <v>10316</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1040</v>
+        <v>1474</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="N427" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O427" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="P427" t="n">
-        <v>5281</v>
+        <v>8220</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>754</v>
+        <v>1174</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="N428" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O428" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P428" t="n">
-        <v>20000</v>
+        <v>4783</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>2857</v>
+        <v>683</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="N429" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O429" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P429" t="n">
-        <v>15000</v>
+        <v>8333</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>2143</v>
+        <v>1190</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="N430" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P430" t="n">
-        <v>12000</v>
+        <v>7280</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1714</v>
+        <v>1040</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="N431" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O431" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P431" t="n">
-        <v>8000</v>
+        <v>5281</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1143</v>
+        <v>754</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="N432" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O432" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P432" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1500</v>
+        <v>2857</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="N433" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O433" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P433" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1214</v>
+        <v>2143</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N434" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O434" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>786</v>
+        <v>1714</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35167,13 +35167,13 @@
         <v>240</v>
       </c>
       <c r="N435" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O435" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P435" t="n">
-        <v>3750</v>
+        <v>8000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>536</v>
+        <v>1143</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="N436" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O436" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P436" t="n">
-        <v>8372</v>
+        <v>10500</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1196</v>
+        <v>1500</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>1020</v>
+        <v>400</v>
       </c>
       <c r="N437" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O437" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P437" t="n">
-        <v>7284</v>
+        <v>8500</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1041</v>
+        <v>1214</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,17 +35404,17 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="N438" t="n">
         <v>5000</v>
       </c>
       <c r="O438" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P438" t="n">
         <v>5500</v>
       </c>
-      <c r="P438" t="n">
-        <v>5278</v>
-      </c>
       <c r="Q438" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="N439" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O439" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="P439" t="n">
-        <v>17000</v>
+        <v>3750</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>2429</v>
+        <v>536</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="N440" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O440" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P440" t="n">
-        <v>14000</v>
+        <v>8372</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>180</v>
+        <v>1020</v>
       </c>
       <c r="N441" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O441" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P441" t="n">
-        <v>12000</v>
+        <v>7284</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1714</v>
+        <v>1041</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="N442" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O442" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P442" t="n">
-        <v>7759</v>
+        <v>5278</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1108</v>
+        <v>754</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>780</v>
+        <v>110</v>
       </c>
       <c r="N443" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="O443" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="P443" t="n">
-        <v>5744</v>
+        <v>17000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>821</v>
+        <v>2429</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="N444" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O444" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P444" t="n">
-        <v>4288</v>
+        <v>14000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>613</v>
+        <v>2000</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>770</v>
+        <v>180</v>
       </c>
       <c r="N445" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O445" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P445" t="n">
-        <v>8773</v>
+        <v>12000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1253</v>
+        <v>1714</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>1020</v>
+        <v>580</v>
       </c>
       <c r="N446" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O446" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P446" t="n">
-        <v>7284</v>
+        <v>7759</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1041</v>
+        <v>1108</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="N447" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O447" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P447" t="n">
-        <v>4706</v>
+        <v>5744</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>672</v>
+        <v>821</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N448" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P448" t="n">
-        <v>9500</v>
+        <v>4288</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1357</v>
+        <v>613</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>900</v>
+        <v>770</v>
       </c>
       <c r="N449" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O449" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P449" t="n">
-        <v>7500</v>
+        <v>8773</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1071</v>
+        <v>1253</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>400</v>
+        <v>1020</v>
       </c>
       <c r="N450" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O450" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P450" t="n">
-        <v>4500</v>
+        <v>7284</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>643</v>
+        <v>1041</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="N451" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O451" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P451" t="n">
-        <v>7266</v>
+        <v>4706</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1038</v>
+        <v>672</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>1190</v>
+        <v>600</v>
       </c>
       <c r="N452" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O452" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P452" t="n">
-        <v>6244</v>
+        <v>9500</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>892</v>
+        <v>1357</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="N453" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O453" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P453" t="n">
-        <v>5284</v>
+        <v>7500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>755</v>
+        <v>1071</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="N454" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O454" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P454" t="n">
-        <v>13571</v>
+        <v>4500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1939</v>
+        <v>643</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>750</v>
+        <v>960</v>
       </c>
       <c r="N455" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O455" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P455" t="n">
-        <v>10533</v>
+        <v>7266</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1505</v>
+        <v>1038</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>440</v>
+        <v>1190</v>
       </c>
       <c r="N456" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O456" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P456" t="n">
-        <v>7591</v>
+        <v>6244</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1084</v>
+        <v>892</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>700</v>
+        <v>1020</v>
       </c>
       <c r="N457" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O457" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P457" t="n">
-        <v>14500</v>
+        <v>5284</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>2071</v>
+        <v>755</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="N458" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O458" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P458" t="n">
-        <v>11500</v>
+        <v>13571</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1643</v>
+        <v>1939</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="N459" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O459" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P459" t="n">
-        <v>7500</v>
+        <v>10533</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1071</v>
+        <v>1505</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N460" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O460" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P460" t="n">
-        <v>5000</v>
+        <v>7591</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>714</v>
+        <v>1084</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="N461" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O461" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P461" t="n">
-        <v>7708</v>
+        <v>14500</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1101</v>
+        <v>2071</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>1240</v>
+        <v>500</v>
       </c>
       <c r="N462" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="O462" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P462" t="n">
-        <v>6774</v>
+        <v>11500</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>968</v>
+        <v>1643</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>1010</v>
+        <v>360</v>
       </c>
       <c r="N463" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O463" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P463" t="n">
-        <v>4728</v>
+        <v>7500</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>675</v>
+        <v>1071</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>780</v>
+        <v>200</v>
       </c>
       <c r="N464" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O464" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P464" t="n">
-        <v>2756</v>
+        <v>5000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>394</v>
+        <v>714</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="N465" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="O465" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P465" t="n">
-        <v>8620</v>
+        <v>7708</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1231</v>
+        <v>1101</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>1540</v>
+        <v>1240</v>
       </c>
       <c r="N466" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O466" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P466" t="n">
-        <v>7779</v>
+        <v>6774</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1111</v>
+        <v>968</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,7 +37724,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>740</v>
+        <v>1010</v>
       </c>
       <c r="N467" t="n">
         <v>4500</v>
@@ -37733,7 +37733,7 @@
         <v>5000</v>
       </c>
       <c r="P467" t="n">
-        <v>4797</v>
+        <v>4728</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>2180</v>
+        <v>780</v>
       </c>
       <c r="N468" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O468" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P468" t="n">
-        <v>6275</v>
+        <v>2756</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>896</v>
+        <v>394</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1360</v>
+        <v>500</v>
       </c>
       <c r="N469" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="O469" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P469" t="n">
-        <v>5206</v>
+        <v>8620</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>744</v>
+        <v>1231</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>860</v>
+        <v>1540</v>
       </c>
       <c r="N470" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O470" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P470" t="n">
-        <v>4267</v>
+        <v>7779</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>610</v>
+        <v>1111</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>580</v>
+        <v>740</v>
       </c>
       <c r="N471" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O471" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P471" t="n">
-        <v>13517</v>
+        <v>4797</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1931</v>
+        <v>685</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>650</v>
+        <v>2180</v>
       </c>
       <c r="N472" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P472" t="n">
-        <v>11462</v>
+        <v>6275</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1637</v>
+        <v>896</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>500</v>
+        <v>1360</v>
       </c>
       <c r="N473" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O473" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="P473" t="n">
-        <v>13500</v>
+        <v>5206</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1929</v>
+        <v>744</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>400</v>
+        <v>860</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O474" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P474" t="n">
-        <v>11000</v>
+        <v>4267</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1571</v>
+        <v>610</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="N475" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O475" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P475" t="n">
-        <v>7000</v>
+        <v>13517</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1000</v>
+        <v>1931</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="N476" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O476" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>4500</v>
+        <v>11462</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>643</v>
+        <v>1637</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N477" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O477" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P477" t="n">
-        <v>8238</v>
+        <v>13500</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1177</v>
+        <v>1929</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="N478" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O478" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P478" t="n">
-        <v>6738</v>
+        <v>11000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>963</v>
+        <v>1571</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="N479" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O479" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P479" t="n">
-        <v>5263</v>
+        <v>7000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>752</v>
+        <v>1000</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>1230</v>
+        <v>250</v>
       </c>
       <c r="N480" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O480" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P480" t="n">
-        <v>6276</v>
+        <v>4500</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>897</v>
+        <v>643</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="N481" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O481" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="P481" t="n">
-        <v>5234</v>
+        <v>8238</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>748</v>
+        <v>1177</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>1250</v>
+        <v>840</v>
       </c>
       <c r="N482" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O482" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P482" t="n">
-        <v>4200</v>
+        <v>6738</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>600</v>
+        <v>963</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>175</v>
+        <v>590</v>
       </c>
       <c r="N483" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O483" t="n">
-        <v>21000</v>
+        <v>5500</v>
       </c>
       <c r="P483" t="n">
-        <v>20543</v>
+        <v>5263</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>2935</v>
+        <v>752</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>800</v>
+        <v>1230</v>
       </c>
       <c r="N484" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O484" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="P484" t="n">
-        <v>14525</v>
+        <v>6276</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>2075</v>
+        <v>897</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>320</v>
+        <v>1600</v>
       </c>
       <c r="N485" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O485" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P485" t="n">
-        <v>9469</v>
+        <v>5234</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1353</v>
+        <v>748</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
       <c r="N486" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O486" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P486" t="n">
-        <v>9000</v>
+        <v>4200</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1286</v>
+        <v>600</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>590</v>
+        <v>175</v>
       </c>
       <c r="N487" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O487" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="P487" t="n">
-        <v>7000</v>
+        <v>20543</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>1000</v>
+        <v>2935</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="N488" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O488" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P488" t="n">
-        <v>4000</v>
+        <v>14525</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>571</v>
+        <v>2075</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>1130</v>
+        <v>320</v>
       </c>
       <c r="N489" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O489" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>7788</v>
+        <v>9469</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39502,11 +39502,11 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1113</v>
+        <v>1353</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>1250</v>
+        <v>550</v>
       </c>
       <c r="N490" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O490" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P490" t="n">
-        <v>5740</v>
+        <v>9000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39582,11 +39582,11 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>820</v>
+        <v>1286</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>820</v>
+        <v>590</v>
       </c>
       <c r="N491" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O491" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P491" t="n">
-        <v>4232</v>
+        <v>7000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>605</v>
+        <v>1000</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>1130</v>
+        <v>220</v>
       </c>
       <c r="N492" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O492" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P492" t="n">
-        <v>6301</v>
+        <v>4000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>900</v>
+        <v>571</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>1480</v>
+        <v>1130</v>
       </c>
       <c r="N493" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O493" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P493" t="n">
-        <v>5277</v>
+        <v>7788</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>754</v>
+        <v>1113</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>630</v>
+        <v>1250</v>
       </c>
       <c r="N494" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O494" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P494" t="n">
-        <v>4278</v>
+        <v>5740</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>611</v>
+        <v>820</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>1400</v>
+        <v>820</v>
       </c>
       <c r="N495" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O495" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P495" t="n">
-        <v>9321</v>
+        <v>4232</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1332</v>
+        <v>605</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>1300</v>
+        <v>1130</v>
       </c>
       <c r="N496" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O496" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P496" t="n">
-        <v>7423</v>
+        <v>6301</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1060</v>
+        <v>900</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>900</v>
+        <v>1480</v>
       </c>
       <c r="N497" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O497" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P497" t="n">
-        <v>4667</v>
+        <v>5277</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="N498" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O498" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P498" t="n">
-        <v>3000</v>
+        <v>4278</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>429</v>
+        <v>611</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>240</v>
+        <v>1400</v>
       </c>
       <c r="N499" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O499" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P499" t="n">
-        <v>18000</v>
+        <v>9321</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>2571</v>
+        <v>1332</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>380</v>
+        <v>1300</v>
       </c>
       <c r="N500" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O500" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P500" t="n">
-        <v>15000</v>
+        <v>7423</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>2143</v>
+        <v>1060</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N501" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O501" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P501" t="n">
-        <v>11000</v>
+        <v>4667</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1571</v>
+        <v>667</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>1180</v>
+        <v>250</v>
       </c>
       <c r="N502" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O502" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P502" t="n">
-        <v>6746</v>
+        <v>3000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>964</v>
+        <v>429</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>1550</v>
+        <v>240</v>
       </c>
       <c r="N503" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="O503" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P503" t="n">
-        <v>5758</v>
+        <v>18000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>823</v>
+        <v>2571</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="N504" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O504" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P504" t="n">
-        <v>3767</v>
+        <v>15000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>538</v>
+        <v>2143</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N505" t="n">
         <v>11000</v>
       </c>
       <c r="O505" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P505" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1643</v>
+        <v>1571</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>500</v>
+        <v>1180</v>
       </c>
       <c r="N506" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O506" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P506" t="n">
-        <v>9500</v>
+        <v>6746</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1357</v>
+        <v>964</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>300</v>
+        <v>1550</v>
       </c>
       <c r="N507" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O507" t="n">
         <v>6000</v>
       </c>
       <c r="P507" t="n">
-        <v>5500</v>
+        <v>5758</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>786</v>
+        <v>823</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N508" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="O508" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P508" t="n">
-        <v>8780</v>
+        <v>3767</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1254</v>
+        <v>538</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>1040</v>
+        <v>600</v>
       </c>
       <c r="N509" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O509" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P509" t="n">
-        <v>7288</v>
+        <v>11500</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1041</v>
+        <v>1643</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N510" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O510" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>4789</v>
+        <v>9500</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>684</v>
+        <v>1357</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N511" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="O511" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P511" t="n">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41262,11 +41262,11 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>3571</v>
+        <v>786</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="N512" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O512" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P512" t="n">
-        <v>20000</v>
+        <v>8780</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41342,11 +41342,11 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>2857</v>
+        <v>1254</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>110</v>
+        <v>1040</v>
       </c>
       <c r="N513" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O513" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P513" t="n">
-        <v>10000</v>
+        <v>7288</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41422,11 +41422,11 @@
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1429</v>
+        <v>1041</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="N514" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O514" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P514" t="n">
-        <v>12000</v>
+        <v>4789</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1714</v>
+        <v>684</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="N515" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O515" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P515" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41582,11 +41582,11 @@
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1429</v>
+        <v>3571</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,68 +41607,388 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E516" t="n">
+        <v>13</v>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G516" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I516" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M516" t="n">
+        <v>280</v>
+      </c>
+      <c r="N516" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O516" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P516" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q516" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R516" t="inlineStr">
+        <is>
+          <t>Provincia de Santiago</t>
+        </is>
+      </c>
+      <c r="S516" t="n">
+        <v>2857</v>
+      </c>
+      <c r="T516" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>9</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D517" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E517" t="n">
+        <v>13</v>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G517" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I517" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M517" t="n">
+        <v>110</v>
+      </c>
+      <c r="N517" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O517" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P517" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q517" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>Provincia de Santiago</t>
+        </is>
+      </c>
+      <c r="S517" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T517" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>9</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D518" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E516" t="n">
-        <v>13</v>
-      </c>
-      <c r="F516" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G516" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I516" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J516" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L516" t="inlineStr">
+      <c r="E518" t="n">
+        <v>13</v>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G518" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I518" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M518" t="n">
+        <v>250</v>
+      </c>
+      <c r="N518" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O518" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P518" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q518" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R518" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S518" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T518" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>9</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D519" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E519" t="n">
+        <v>13</v>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G519" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I519" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M519" t="n">
+        <v>340</v>
+      </c>
+      <c r="N519" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O519" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P519" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q519" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R519" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S519" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T519" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>9</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D520" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E520" t="n">
+        <v>13</v>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G520" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I520" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M516" t="n">
+      <c r="M520" t="n">
         <v>180</v>
       </c>
-      <c r="N516" t="n">
+      <c r="N520" t="n">
         <v>7000</v>
       </c>
-      <c r="O516" t="n">
+      <c r="O520" t="n">
         <v>7000</v>
       </c>
-      <c r="P516" t="n">
+      <c r="P520" t="n">
         <v>7000</v>
       </c>
-      <c r="Q516" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R516" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S516" t="n">
+      <c r="Q520" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S520" t="n">
         <v>1000</v>
       </c>
-      <c r="T516" t="n">
+      <c r="T520" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T523"/>
+  <dimension ref="A1:T527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>110</v>
+        <v>590</v>
       </c>
       <c r="N446" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O446" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P446" t="n">
-        <v>17000</v>
+        <v>11475</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>2429</v>
+        <v>1639</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="N447" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O447" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P447" t="n">
-        <v>14000</v>
+        <v>9462</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>2000</v>
+        <v>1352</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>180</v>
+        <v>530</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O448" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>7528</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1714</v>
+        <v>1075</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44286</v>
+        <v>44474</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="N449" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="O449" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P449" t="n">
-        <v>7759</v>
+        <v>3528</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1108</v>
+        <v>504</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>780</v>
+        <v>110</v>
       </c>
       <c r="N450" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="O450" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="P450" t="n">
-        <v>5744</v>
+        <v>17000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>821</v>
+        <v>2429</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="N451" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O451" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P451" t="n">
-        <v>4288</v>
+        <v>14000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>613</v>
+        <v>2000</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>770</v>
+        <v>180</v>
       </c>
       <c r="N452" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O452" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P452" t="n">
-        <v>8773</v>
+        <v>12000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1253</v>
+        <v>1714</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>1020</v>
+        <v>580</v>
       </c>
       <c r="N453" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O453" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P453" t="n">
-        <v>7284</v>
+        <v>7759</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1041</v>
+        <v>1108</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="N454" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O454" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P454" t="n">
-        <v>4706</v>
+        <v>5744</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>672</v>
+        <v>821</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N455" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O455" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P455" t="n">
-        <v>9500</v>
+        <v>4288</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1357</v>
+        <v>613</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>900</v>
+        <v>770</v>
       </c>
       <c r="N456" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O456" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P456" t="n">
-        <v>7500</v>
+        <v>8773</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1071</v>
+        <v>1253</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>400</v>
+        <v>1020</v>
       </c>
       <c r="N457" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O457" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P457" t="n">
-        <v>4500</v>
+        <v>7284</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>643</v>
+        <v>1041</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="N458" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O458" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P458" t="n">
-        <v>7266</v>
+        <v>4706</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1038</v>
+        <v>672</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>1190</v>
+        <v>600</v>
       </c>
       <c r="N459" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O459" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P459" t="n">
-        <v>6244</v>
+        <v>9500</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>892</v>
+        <v>1357</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="N460" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O460" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P460" t="n">
-        <v>5284</v>
+        <v>7500</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>755</v>
+        <v>1071</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="N461" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O461" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P461" t="n">
-        <v>13571</v>
+        <v>4500</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1939</v>
+        <v>643</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>750</v>
+        <v>960</v>
       </c>
       <c r="N462" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O462" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P462" t="n">
-        <v>10533</v>
+        <v>7266</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1505</v>
+        <v>1038</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>440</v>
+        <v>1190</v>
       </c>
       <c r="N463" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O463" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P463" t="n">
-        <v>7591</v>
+        <v>6244</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1084</v>
+        <v>892</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>700</v>
+        <v>1020</v>
       </c>
       <c r="N464" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O464" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P464" t="n">
-        <v>14500</v>
+        <v>5284</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>2071</v>
+        <v>755</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="N465" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O465" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P465" t="n">
-        <v>11500</v>
+        <v>13571</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1643</v>
+        <v>1939</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="N466" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O466" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P466" t="n">
-        <v>7500</v>
+        <v>10533</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1071</v>
+        <v>1505</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N467" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O467" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P467" t="n">
-        <v>5000</v>
+        <v>7591</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>714</v>
+        <v>1084</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="N468" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P468" t="n">
-        <v>7708</v>
+        <v>14500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1101</v>
+        <v>2071</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1240</v>
+        <v>500</v>
       </c>
       <c r="N469" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="O469" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P469" t="n">
-        <v>6774</v>
+        <v>11500</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>968</v>
+        <v>1643</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>1010</v>
+        <v>360</v>
       </c>
       <c r="N470" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O470" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P470" t="n">
-        <v>4728</v>
+        <v>7500</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>675</v>
+        <v>1071</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>780</v>
+        <v>200</v>
       </c>
       <c r="N471" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O471" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P471" t="n">
-        <v>2756</v>
+        <v>5000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>394</v>
+        <v>714</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="N472" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="O472" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P472" t="n">
-        <v>8620</v>
+        <v>7708</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1231</v>
+        <v>1101</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>1540</v>
+        <v>1240</v>
       </c>
       <c r="N473" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P473" t="n">
-        <v>7779</v>
+        <v>6774</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1111</v>
+        <v>968</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,7 +38284,7 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>740</v>
+        <v>1010</v>
       </c>
       <c r="N474" t="n">
         <v>4500</v>
@@ -38293,7 +38293,7 @@
         <v>5000</v>
       </c>
       <c r="P474" t="n">
-        <v>4797</v>
+        <v>4728</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>2180</v>
+        <v>780</v>
       </c>
       <c r="N475" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O475" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P475" t="n">
-        <v>6275</v>
+        <v>2756</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>896</v>
+        <v>394</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>1360</v>
+        <v>500</v>
       </c>
       <c r="N476" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="O476" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P476" t="n">
-        <v>5206</v>
+        <v>8620</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>744</v>
+        <v>1231</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>860</v>
+        <v>1540</v>
       </c>
       <c r="N477" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O477" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P477" t="n">
-        <v>4267</v>
+        <v>7779</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>610</v>
+        <v>1111</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>580</v>
+        <v>740</v>
       </c>
       <c r="N478" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O478" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P478" t="n">
-        <v>13517</v>
+        <v>4797</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1931</v>
+        <v>685</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>650</v>
+        <v>2180</v>
       </c>
       <c r="N479" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O479" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P479" t="n">
-        <v>11462</v>
+        <v>6275</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1637</v>
+        <v>896</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>500</v>
+        <v>1360</v>
       </c>
       <c r="N480" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O480" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="P480" t="n">
-        <v>13500</v>
+        <v>5206</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1929</v>
+        <v>744</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>400</v>
+        <v>860</v>
       </c>
       <c r="N481" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O481" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P481" t="n">
-        <v>11000</v>
+        <v>4267</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1571</v>
+        <v>610</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="N482" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O482" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P482" t="n">
-        <v>7000</v>
+        <v>13517</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1000</v>
+        <v>1931</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="N483" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O483" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P483" t="n">
-        <v>4500</v>
+        <v>11462</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>643</v>
+        <v>1637</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N484" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O484" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P484" t="n">
-        <v>8238</v>
+        <v>13500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1177</v>
+        <v>1929</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="N485" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O485" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P485" t="n">
-        <v>6738</v>
+        <v>11000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>963</v>
+        <v>1571</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="N486" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O486" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P486" t="n">
-        <v>5263</v>
+        <v>7000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>752</v>
+        <v>1000</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>1230</v>
+        <v>250</v>
       </c>
       <c r="N487" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O487" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P487" t="n">
-        <v>6276</v>
+        <v>4500</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>897</v>
+        <v>643</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="N488" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O488" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="P488" t="n">
-        <v>5234</v>
+        <v>8238</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>748</v>
+        <v>1177</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>1250</v>
+        <v>840</v>
       </c>
       <c r="N489" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O489" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P489" t="n">
-        <v>4200</v>
+        <v>6738</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>600</v>
+        <v>963</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>175</v>
+        <v>590</v>
       </c>
       <c r="N490" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O490" t="n">
-        <v>21000</v>
+        <v>5500</v>
       </c>
       <c r="P490" t="n">
-        <v>20543</v>
+        <v>5263</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>2935</v>
+        <v>752</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>800</v>
+        <v>1230</v>
       </c>
       <c r="N491" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O491" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="P491" t="n">
-        <v>14525</v>
+        <v>6276</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>2075</v>
+        <v>897</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>320</v>
+        <v>1600</v>
       </c>
       <c r="N492" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O492" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P492" t="n">
-        <v>9469</v>
+        <v>5234</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1353</v>
+        <v>748</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
       <c r="N493" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O493" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P493" t="n">
-        <v>9000</v>
+        <v>4200</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1286</v>
+        <v>600</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>590</v>
+        <v>175</v>
       </c>
       <c r="N494" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O494" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="P494" t="n">
-        <v>7000</v>
+        <v>20543</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1000</v>
+        <v>2935</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="N495" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O495" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P495" t="n">
-        <v>4000</v>
+        <v>14525</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>571</v>
+        <v>2075</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>1130</v>
+        <v>320</v>
       </c>
       <c r="N496" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O496" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>7788</v>
+        <v>9469</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40062,11 +40062,11 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1113</v>
+        <v>1353</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>1250</v>
+        <v>550</v>
       </c>
       <c r="N497" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O497" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P497" t="n">
-        <v>5740</v>
+        <v>9000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>820</v>
+        <v>1286</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>820</v>
+        <v>590</v>
       </c>
       <c r="N498" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O498" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P498" t="n">
-        <v>4232</v>
+        <v>7000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>605</v>
+        <v>1000</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>1130</v>
+        <v>220</v>
       </c>
       <c r="N499" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O499" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P499" t="n">
-        <v>6301</v>
+        <v>4000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>900</v>
+        <v>571</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>1480</v>
+        <v>1130</v>
       </c>
       <c r="N500" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O500" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P500" t="n">
-        <v>5277</v>
+        <v>7788</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40382,11 +40382,11 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>754</v>
+        <v>1113</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>630</v>
+        <v>1250</v>
       </c>
       <c r="N501" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O501" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P501" t="n">
-        <v>4278</v>
+        <v>5740</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>611</v>
+        <v>820</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>1400</v>
+        <v>820</v>
       </c>
       <c r="N502" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P502" t="n">
-        <v>9321</v>
+        <v>4232</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1332</v>
+        <v>605</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>1300</v>
+        <v>1130</v>
       </c>
       <c r="N503" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O503" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P503" t="n">
-        <v>7423</v>
+        <v>6301</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1060</v>
+        <v>900</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>900</v>
+        <v>1480</v>
       </c>
       <c r="N504" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O504" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P504" t="n">
-        <v>4667</v>
+        <v>5277</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="N505" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O505" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P505" t="n">
-        <v>3000</v>
+        <v>4278</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>429</v>
+        <v>611</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>240</v>
+        <v>1400</v>
       </c>
       <c r="N506" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O506" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P506" t="n">
-        <v>18000</v>
+        <v>9321</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>2571</v>
+        <v>1332</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>380</v>
+        <v>1300</v>
       </c>
       <c r="N507" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O507" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P507" t="n">
-        <v>15000</v>
+        <v>7423</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>2143</v>
+        <v>1060</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N508" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O508" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P508" t="n">
-        <v>11000</v>
+        <v>4667</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1571</v>
+        <v>667</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>1180</v>
+        <v>250</v>
       </c>
       <c r="N509" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O509" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P509" t="n">
-        <v>6746</v>
+        <v>3000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>964</v>
+        <v>429</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>1550</v>
+        <v>240</v>
       </c>
       <c r="N510" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="O510" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P510" t="n">
-        <v>5758</v>
+        <v>18000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>823</v>
+        <v>2571</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="N511" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O511" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P511" t="n">
-        <v>3767</v>
+        <v>15000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>538</v>
+        <v>2143</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N512" t="n">
         <v>11000</v>
       </c>
       <c r="O512" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P512" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>1643</v>
+        <v>1571</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>500</v>
+        <v>1180</v>
       </c>
       <c r="N513" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O513" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P513" t="n">
-        <v>9500</v>
+        <v>6746</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1357</v>
+        <v>964</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>300</v>
+        <v>1550</v>
       </c>
       <c r="N514" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O514" t="n">
         <v>6000</v>
       </c>
       <c r="P514" t="n">
-        <v>5500</v>
+        <v>5758</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>786</v>
+        <v>823</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N515" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="O515" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P515" t="n">
-        <v>8780</v>
+        <v>3767</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1254</v>
+        <v>538</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>1040</v>
+        <v>600</v>
       </c>
       <c r="N516" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O516" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P516" t="n">
-        <v>7288</v>
+        <v>11500</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1041</v>
+        <v>1643</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N517" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O517" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P517" t="n">
-        <v>4789</v>
+        <v>9500</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>684</v>
+        <v>1357</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N518" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="O518" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P518" t="n">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41822,11 +41822,11 @@
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>3571</v>
+        <v>786</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="N519" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O519" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P519" t="n">
-        <v>20000</v>
+        <v>8780</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41902,11 +41902,11 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>2857</v>
+        <v>1254</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>110</v>
+        <v>1040</v>
       </c>
       <c r="N520" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O520" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P520" t="n">
-        <v>10000</v>
+        <v>7288</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41982,11 +41982,11 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1429</v>
+        <v>1041</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="N521" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O521" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P521" t="n">
-        <v>12000</v>
+        <v>4789</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1714</v>
+        <v>684</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="N522" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O522" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P522" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1429</v>
+        <v>3571</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,68 +42167,388 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E523" t="n">
+        <v>13</v>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G523" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I523" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M523" t="n">
+        <v>280</v>
+      </c>
+      <c r="N523" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O523" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P523" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q523" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R523" t="inlineStr">
+        <is>
+          <t>Provincia de Santiago</t>
+        </is>
+      </c>
+      <c r="S523" t="n">
+        <v>2857</v>
+      </c>
+      <c r="T523" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>9</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D524" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E524" t="n">
+        <v>13</v>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G524" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I524" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M524" t="n">
+        <v>110</v>
+      </c>
+      <c r="N524" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O524" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P524" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q524" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R524" t="inlineStr">
+        <is>
+          <t>Provincia de Santiago</t>
+        </is>
+      </c>
+      <c r="S524" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T524" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>9</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D525" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E523" t="n">
-        <v>13</v>
-      </c>
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G523" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I523" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J523" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L523" t="inlineStr">
+      <c r="E525" t="n">
+        <v>13</v>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G525" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I525" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M525" t="n">
+        <v>250</v>
+      </c>
+      <c r="N525" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O525" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P525" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q525" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R525" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S525" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T525" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>9</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D526" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E526" t="n">
+        <v>13</v>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G526" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I526" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M526" t="n">
+        <v>340</v>
+      </c>
+      <c r="N526" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O526" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P526" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q526" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R526" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S526" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T526" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>9</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D527" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E527" t="n">
+        <v>13</v>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G527" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I527" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L527" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M523" t="n">
+      <c r="M527" t="n">
         <v>180</v>
       </c>
-      <c r="N523" t="n">
+      <c r="N527" t="n">
         <v>7000</v>
       </c>
-      <c r="O523" t="n">
+      <c r="O527" t="n">
         <v>7000</v>
       </c>
-      <c r="P523" t="n">
+      <c r="P527" t="n">
         <v>7000</v>
       </c>
-      <c r="Q523" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R523" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S523" t="n">
+      <c r="Q527" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R527" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S527" t="n">
         <v>1000</v>
       </c>
-      <c r="T523" t="n">
+      <c r="T527" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T529"/>
+  <dimension ref="A1:T533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N451" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O451" t="n">
         <v>14000</v>
       </c>
       <c r="P451" t="n">
-        <v>14000</v>
+        <v>13526</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>2000</v>
+        <v>1932</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="N452" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P452" t="n">
-        <v>12000</v>
+        <v>9556</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1714</v>
+        <v>1365</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="N453" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O453" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P453" t="n">
-        <v>8000</v>
+        <v>6474</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1143</v>
+        <v>925</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N454" t="n">
         <v>4000</v>
       </c>
       <c r="O454" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P454" t="n">
-        <v>4000</v>
+        <v>4273</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N455" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O455" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P455" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36782,11 +36782,11 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>3429</v>
+        <v>2000</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="N456" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O456" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36862,11 +36862,11 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>2857</v>
+        <v>1714</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36924,16 +36924,16 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>55</v>
+        <v>450</v>
       </c>
       <c r="N457" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O457" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P457" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36942,11 +36942,11 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>2000</v>
+        <v>1143</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N458" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="O458" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="P458" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>3429</v>
+        <v>571</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N459" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O459" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P459" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>2000</v>
+        <v>3429</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N460" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O460" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P460" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>857</v>
+        <v>2857</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N461" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O461" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="P461" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>429</v>
+        <v>2000</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N462" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O462" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P462" t="n">
-        <v>10500</v>
+        <v>24000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1500</v>
+        <v>3429</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N463" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O463" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P463" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1214</v>
+        <v>2000</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N464" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O464" t="n">
         <v>6000</v>
       </c>
       <c r="P464" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N465" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O465" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P465" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>536</v>
+        <v>429</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="N466" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O466" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P466" t="n">
-        <v>7708</v>
+        <v>10500</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1101</v>
+        <v>1500</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>1240</v>
+        <v>400</v>
       </c>
       <c r="N467" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O467" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P467" t="n">
-        <v>6774</v>
+        <v>8500</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>968</v>
+        <v>1214</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>1010</v>
+        <v>300</v>
       </c>
       <c r="N468" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O468" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P468" t="n">
-        <v>4728</v>
+        <v>5500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>675</v>
+        <v>786</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>780</v>
+        <v>240</v>
       </c>
       <c r="N469" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="O469" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P469" t="n">
-        <v>2756</v>
+        <v>3750</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>394</v>
+        <v>536</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>450</v>
+        <v>960</v>
       </c>
       <c r="N470" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O470" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P470" t="n">
-        <v>14556</v>
+        <v>7708</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>2079</v>
+        <v>1101</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>520</v>
+        <v>1240</v>
       </c>
       <c r="N471" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O471" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P471" t="n">
-        <v>12423</v>
+        <v>6774</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1775</v>
+        <v>968</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>290</v>
+        <v>1010</v>
       </c>
       <c r="N472" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O472" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P472" t="n">
-        <v>9414</v>
+        <v>4728</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1345</v>
+        <v>675</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>260</v>
+        <v>780</v>
       </c>
       <c r="N473" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P473" t="n">
-        <v>7385</v>
+        <v>2756</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1055</v>
+        <v>394</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N474" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O474" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P474" t="n">
-        <v>7500</v>
+        <v>14556</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1071</v>
+        <v>2079</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="N475" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O475" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="P475" t="n">
-        <v>6250</v>
+        <v>12423</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>893</v>
+        <v>1775</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="N476" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O476" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P476" t="n">
-        <v>4500</v>
+        <v>9414</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>643</v>
+        <v>1345</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N477" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O477" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P477" t="n">
-        <v>3250</v>
+        <v>7385</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>464</v>
+        <v>1055</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N478" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O478" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P478" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1929</v>
+        <v>1071</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N479" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O479" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P479" t="n">
-        <v>11000</v>
+        <v>6250</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1571</v>
+        <v>893</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N480" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O480" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P480" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N481" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O481" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P481" t="n">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>643</v>
+        <v>464</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="N482" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O482" t="n">
         <v>14000</v>
       </c>
       <c r="P482" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>2000</v>
+        <v>1929</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,13 +39004,13 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N483" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O483" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P483" t="n">
         <v>11000</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N484" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O484" t="n">
         <v>8000</v>
       </c>
       <c r="P484" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N485" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O485" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P485" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1714</v>
+        <v>643</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N486" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P486" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1429</v>
+        <v>2000</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="N487" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O487" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P487" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>1000</v>
+        <v>1571</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="N488" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O488" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P488" t="n">
-        <v>4776</v>
+        <v>8000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>682</v>
+        <v>1143</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>830</v>
+        <v>75</v>
       </c>
       <c r="N489" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O489" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P489" t="n">
-        <v>8729</v>
+        <v>12000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1247</v>
+        <v>1714</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>1810</v>
+        <v>80</v>
       </c>
       <c r="N490" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O490" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P490" t="n">
-        <v>7265</v>
+        <v>10000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1038</v>
+        <v>1429</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>1430</v>
+        <v>95</v>
       </c>
       <c r="N491" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O491" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P491" t="n">
-        <v>5273</v>
+        <v>7000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>980</v>
+        <v>145</v>
       </c>
       <c r="N492" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O492" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P492" t="n">
-        <v>3260</v>
+        <v>4776</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>40</v>
+        <v>830</v>
       </c>
       <c r="N493" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O493" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P493" t="n">
-        <v>8000</v>
+        <v>8729</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1143</v>
+        <v>1247</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>100</v>
+        <v>1810</v>
       </c>
       <c r="N494" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O494" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P494" t="n">
-        <v>6500</v>
+        <v>7265</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>929</v>
+        <v>1038</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>70</v>
+        <v>1430</v>
       </c>
       <c r="N495" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O495" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P495" t="n">
-        <v>4750</v>
+        <v>5273</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>679</v>
+        <v>753</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="N496" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O496" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="P496" t="n">
-        <v>20000</v>
+        <v>3260</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>2857</v>
+        <v>466</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="N497" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O497" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P497" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>2143</v>
+        <v>1143</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N498" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O498" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P498" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="N499" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O499" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P499" t="n">
-        <v>8000</v>
+        <v>4750</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>1143</v>
+        <v>679</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="N500" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O500" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P500" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>3143</v>
+        <v>2857</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="N501" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O501" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P501" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>2286</v>
+        <v>2143</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N502" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P502" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N503" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O503" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P503" t="n">
-        <v>9786</v>
+        <v>8000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1398</v>
+        <v>1143</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N504" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="O504" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P504" t="n">
-        <v>7775</v>
+        <v>22000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1111</v>
+        <v>3143</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>205</v>
+        <v>580</v>
       </c>
       <c r="N505" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O505" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P505" t="n">
-        <v>4732</v>
+        <v>16000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>676</v>
+        <v>2286</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="N506" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O506" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P506" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N507" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="O507" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P507" t="n">
-        <v>18000</v>
+        <v>9786</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>2571</v>
+        <v>1398</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="N508" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O508" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P508" t="n">
-        <v>15000</v>
+        <v>7775</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>2143</v>
+        <v>1111</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="N509" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="O509" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P509" t="n">
-        <v>25000</v>
+        <v>4732</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41102,11 +41102,11 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>3571</v>
+        <v>676</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,11 +41160,11 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N510" t="n">
         <v>20000</v>
@@ -41182,7 +41182,7 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S510" t="n">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N511" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O511" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P511" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41262,11 +41262,11 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N512" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O512" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P512" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>2857</v>
+        <v>2143</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N513" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O513" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P513" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41422,11 +41422,11 @@
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S513" t="n">
-        <v>2571</v>
+        <v>3571</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N514" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O514" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P514" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41502,11 +41502,11 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>2143</v>
+        <v>2857</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>920</v>
+        <v>110</v>
       </c>
       <c r="N515" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O515" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P515" t="n">
-        <v>10783</v>
+        <v>10000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41582,11 +41582,11 @@
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1540</v>
+        <v>1429</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>1430</v>
+        <v>100</v>
       </c>
       <c r="N516" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O516" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="P516" t="n">
-        <v>9273</v>
+        <v>20000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1325</v>
+        <v>2857</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="N517" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O517" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="P517" t="n">
-        <v>5262</v>
+        <v>18000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>752</v>
+        <v>2571</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>630</v>
+        <v>75</v>
       </c>
       <c r="N518" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O518" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P518" t="n">
-        <v>4222</v>
+        <v>15000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>603</v>
+        <v>2143</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>580</v>
+        <v>920</v>
       </c>
       <c r="N519" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O519" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P519" t="n">
-        <v>7759</v>
+        <v>10783</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1108</v>
+        <v>1540</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>380</v>
+        <v>1430</v>
       </c>
       <c r="N520" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O520" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="P520" t="n">
-        <v>4737</v>
+        <v>9273</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>677</v>
+        <v>1325</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>1230</v>
+        <v>800</v>
       </c>
       <c r="N521" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O521" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="P521" t="n">
-        <v>8236</v>
+        <v>5262</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1177</v>
+        <v>752</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>1750</v>
+        <v>630</v>
       </c>
       <c r="N522" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O522" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P522" t="n">
-        <v>6771</v>
+        <v>4222</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>967</v>
+        <v>603</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>770</v>
+        <v>580</v>
       </c>
       <c r="N523" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O523" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P523" t="n">
-        <v>5240</v>
+        <v>7759</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>749</v>
+        <v>1108</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="N524" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O524" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P524" t="n">
-        <v>13517</v>
+        <v>4737</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>1931</v>
+        <v>677</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>650</v>
+        <v>1230</v>
       </c>
       <c r="N525" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O525" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P525" t="n">
-        <v>11462</v>
+        <v>8236</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1637</v>
+        <v>1177</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>580</v>
+        <v>1750</v>
       </c>
       <c r="N526" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O526" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P526" t="n">
-        <v>7759</v>
+        <v>6771</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1108</v>
+        <v>967</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="N527" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O527" t="n">
         <v>5500</v>
       </c>
-      <c r="O527" t="n">
-        <v>6000</v>
-      </c>
       <c r="P527" t="n">
-        <v>5744</v>
+        <v>5240</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="N528" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O528" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P528" t="n">
-        <v>4288</v>
+        <v>13517</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>613</v>
+        <v>1931</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,68 +42647,388 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E529" t="n">
+        <v>13</v>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G529" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I529" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M529" t="n">
+        <v>650</v>
+      </c>
+      <c r="N529" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O529" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P529" t="n">
+        <v>11462</v>
+      </c>
+      <c r="Q529" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R529" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S529" t="n">
+        <v>1637</v>
+      </c>
+      <c r="T529" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>9</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D530" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E530" t="n">
+        <v>13</v>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G530" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I530" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M530" t="n">
+        <v>580</v>
+      </c>
+      <c r="N530" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O530" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P530" t="n">
+        <v>7759</v>
+      </c>
+      <c r="Q530" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R530" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S530" t="n">
+        <v>1108</v>
+      </c>
+      <c r="T530" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>9</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D531" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E531" t="n">
+        <v>13</v>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G531" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I531" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M531" t="n">
+        <v>780</v>
+      </c>
+      <c r="N531" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O531" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P531" t="n">
+        <v>5744</v>
+      </c>
+      <c r="Q531" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R531" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S531" t="n">
+        <v>821</v>
+      </c>
+      <c r="T531" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>9</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D532" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E532" t="n">
+        <v>13</v>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G532" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I532" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M532" t="n">
+        <v>520</v>
+      </c>
+      <c r="N532" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O532" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P532" t="n">
+        <v>4288</v>
+      </c>
+      <c r="Q532" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R532" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S532" t="n">
+        <v>613</v>
+      </c>
+      <c r="T532" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>9</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E529" t="n">
-        <v>13</v>
-      </c>
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G529" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I529" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J529" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L529" t="inlineStr">
+      <c r="E533" t="n">
+        <v>13</v>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G533" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I533" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M529" t="n">
+      <c r="M533" t="n">
         <v>80</v>
       </c>
-      <c r="N529" t="n">
+      <c r="N533" t="n">
         <v>10000</v>
       </c>
-      <c r="O529" t="n">
+      <c r="O533" t="n">
         <v>10000</v>
       </c>
-      <c r="P529" t="n">
+      <c r="P533" t="n">
         <v>10000</v>
       </c>
-      <c r="Q529" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R529" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S529" t="n">
+      <c r="Q533" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R533" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S533" t="n">
         <v>1429</v>
       </c>
-      <c r="T529" t="n">
+      <c r="T533" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T545"/>
+  <dimension ref="A1:T549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>1430</v>
+        <v>1100</v>
       </c>
       <c r="N342" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="O342" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P342" t="n">
-        <v>8762</v>
+        <v>6000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1252</v>
+        <v>857</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>1500</v>
+        <v>910</v>
       </c>
       <c r="N343" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O343" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P343" t="n">
-        <v>6773</v>
+        <v>5000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27822,11 +27822,11 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>968</v>
+        <v>714</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>1340</v>
+        <v>850</v>
       </c>
       <c r="N344" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O344" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="P344" t="n">
-        <v>5291</v>
+        <v>3500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27902,11 +27902,11 @@
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>756</v>
+        <v>500</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44434</v>
+        <v>44488</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>140</v>
+        <v>800</v>
       </c>
       <c r="N345" t="n">
-        <v>23000</v>
+        <v>2500</v>
       </c>
       <c r="O345" t="n">
-        <v>23000</v>
+        <v>2500</v>
       </c>
       <c r="P345" t="n">
-        <v>23000</v>
+        <v>2500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27982,11 +27982,11 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>3286</v>
+        <v>357</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>80</v>
+        <v>1430</v>
       </c>
       <c r="N346" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O346" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P346" t="n">
-        <v>10000</v>
+        <v>8762</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1429</v>
+        <v>1252</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28120,11 +28120,11 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>1180</v>
+        <v>1500</v>
       </c>
       <c r="N347" t="n">
         <v>6500</v>
@@ -28133,7 +28133,7 @@
         <v>7000</v>
       </c>
       <c r="P347" t="n">
-        <v>6746</v>
+        <v>6773</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>1550</v>
+        <v>1340</v>
       </c>
       <c r="N348" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O348" t="n">
         <v>5500</v>
       </c>
-      <c r="O348" t="n">
-        <v>6000</v>
-      </c>
       <c r="P348" t="n">
-        <v>5758</v>
+        <v>5291</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>823</v>
+        <v>756</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="N349" t="n">
-        <v>3500</v>
+        <v>23000</v>
       </c>
       <c r="O349" t="n">
-        <v>4000</v>
+        <v>23000</v>
       </c>
       <c r="P349" t="n">
-        <v>3767</v>
+        <v>23000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>538</v>
+        <v>3286</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>1550</v>
+        <v>80</v>
       </c>
       <c r="N350" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O350" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P350" t="n">
-        <v>6242</v>
+        <v>10000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>892</v>
+        <v>1429</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>2180</v>
+        <v>1180</v>
       </c>
       <c r="N351" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O351" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P351" t="n">
-        <v>5225</v>
+        <v>6746</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>746</v>
+        <v>964</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>1780</v>
+        <v>1550</v>
       </c>
       <c r="N352" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O352" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P352" t="n">
-        <v>4247</v>
+        <v>5758</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>607</v>
+        <v>823</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44351</v>
+        <v>44292</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>490</v>
+        <v>600</v>
       </c>
       <c r="N353" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="O353" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P353" t="n">
-        <v>13571</v>
+        <v>3767</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1939</v>
+        <v>538</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>750</v>
+        <v>1550</v>
       </c>
       <c r="N354" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O354" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="P354" t="n">
-        <v>10533</v>
+        <v>6242</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1505</v>
+        <v>892</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>440</v>
+        <v>2180</v>
       </c>
       <c r="N355" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O355" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P355" t="n">
-        <v>7591</v>
+        <v>5225</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1084</v>
+        <v>746</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>780</v>
+        <v>1780</v>
       </c>
       <c r="N356" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O356" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="P356" t="n">
-        <v>8244</v>
+        <v>4247</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1178</v>
+        <v>607</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>920</v>
+        <v>490</v>
       </c>
       <c r="N357" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O357" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="P357" t="n">
-        <v>7272</v>
+        <v>13571</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1039</v>
+        <v>1939</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="N358" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O358" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="P358" t="n">
-        <v>5222</v>
+        <v>10533</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>746</v>
+        <v>1505</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44274</v>
+        <v>44351</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="N359" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O359" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P359" t="n">
-        <v>8500</v>
+        <v>7591</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1214</v>
+        <v>1084</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>950</v>
+        <v>780</v>
       </c>
       <c r="N360" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O360" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P360" t="n">
-        <v>7000</v>
+        <v>8244</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1000</v>
+        <v>1178</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>580</v>
+        <v>920</v>
       </c>
       <c r="N361" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O361" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P361" t="n">
-        <v>5000</v>
+        <v>7272</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>714</v>
+        <v>1039</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N362" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O362" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P362" t="n">
-        <v>11000</v>
+        <v>5222</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1571</v>
+        <v>746</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="N363" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O363" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P363" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1071</v>
+        <v>1214</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="N364" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O364" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P364" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>643</v>
+        <v>1000</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="N365" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O365" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P365" t="n">
-        <v>3250</v>
+        <v>5000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>464</v>
+        <v>714</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="N366" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O366" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P366" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1857</v>
+        <v>1571</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="N367" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O367" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P367" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N368" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O368" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P368" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44407</v>
+        <v>44229</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N369" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O369" t="n">
-        <v>21000</v>
+        <v>3500</v>
       </c>
       <c r="P369" t="n">
-        <v>20476</v>
+        <v>3250</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2925</v>
+        <v>464</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>560</v>
+        <v>380</v>
       </c>
       <c r="N370" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O370" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P370" t="n">
-        <v>18571</v>
+        <v>13000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>2653</v>
+        <v>1857</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="N371" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O371" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P371" t="n">
-        <v>15526</v>
+        <v>10000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>2218</v>
+        <v>1429</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="N372" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O372" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P372" t="n">
-        <v>7776</v>
+        <v>7000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>600</v>
+        <v>210</v>
       </c>
       <c r="N373" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O373" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P373" t="n">
-        <v>11500</v>
+        <v>20476</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1643</v>
+        <v>2925</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="N374" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O374" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P374" t="n">
-        <v>9500</v>
+        <v>18571</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1357</v>
+        <v>2653</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N375" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O375" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P375" t="n">
-        <v>5500</v>
+        <v>15526</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>786</v>
+        <v>2218</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44391</v>
+        <v>44407</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="N376" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O376" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P376" t="n">
-        <v>20000</v>
+        <v>7776</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2857</v>
+        <v>1111</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N377" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O377" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P377" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>2571</v>
+        <v>1643</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="N378" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O378" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P378" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2143</v>
+        <v>1357</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N379" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O379" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P379" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>2000</v>
+        <v>786</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>550</v>
+        <v>85</v>
       </c>
       <c r="N380" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O380" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P380" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1571</v>
+        <v>2857</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="N381" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O381" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P381" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>857</v>
+        <v>2571</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N382" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O382" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P382" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1286</v>
+        <v>2143</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N383" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O383" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P383" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1143</v>
+        <v>2000</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N384" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O384" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P384" t="n">
-        <v>8750</v>
+        <v>11000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1250</v>
+        <v>1571</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>1050</v>
+        <v>420</v>
       </c>
       <c r="N385" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O385" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P385" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1071</v>
+        <v>857</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N386" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O386" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P386" t="n">
-        <v>4750</v>
+        <v>9000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>679</v>
+        <v>1286</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N387" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O387" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P387" t="n">
-        <v>3750</v>
+        <v>8000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>536</v>
+        <v>1143</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="N388" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O388" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P388" t="n">
-        <v>12000</v>
+        <v>8750</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1714</v>
+        <v>1250</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>55</v>
+        <v>1050</v>
       </c>
       <c r="N389" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O389" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P389" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N390" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O390" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P390" t="n">
-        <v>7000</v>
+        <v>4750</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>1000</v>
+        <v>679</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="N391" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O391" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P391" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>714</v>
+        <v>536</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N392" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O392" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P392" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1286</v>
+        <v>1714</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>440</v>
+        <v>55</v>
       </c>
       <c r="N393" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O393" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P393" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="N394" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O394" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P394" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>643</v>
+        <v>1000</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>790</v>
+        <v>90</v>
       </c>
       <c r="N395" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O395" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P395" t="n">
-        <v>11519</v>
+        <v>5000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31982,11 +31982,11 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1646</v>
+        <v>714</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N396" t="n">
         <v>9000</v>
       </c>
       <c r="O396" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P396" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32062,11 +32062,11 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1357</v>
+        <v>1286</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="N397" t="n">
         <v>7000</v>
       </c>
       <c r="O397" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P397" t="n">
-        <v>7429</v>
+        <v>7000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32142,11 +32142,11 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1061</v>
+        <v>1000</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>650</v>
+        <v>205</v>
       </c>
       <c r="N398" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O398" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P398" t="n">
-        <v>3538</v>
+        <v>4500</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32222,11 +32222,11 @@
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>505</v>
+        <v>643</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32284,7 +32284,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>590</v>
+        <v>790</v>
       </c>
       <c r="N399" t="n">
         <v>11000</v>
@@ -32293,7 +32293,7 @@
         <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>11475</v>
+        <v>11519</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32302,11 +32302,11 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1639</v>
+        <v>1646</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32364,7 +32364,7 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N400" t="n">
         <v>9000</v>
@@ -32373,7 +32373,7 @@
         <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>9462</v>
+        <v>9500</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32444,7 +32444,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="N401" t="n">
         <v>7000</v>
@@ -32453,7 +32453,7 @@
         <v>8000</v>
       </c>
       <c r="P401" t="n">
-        <v>7528</v>
+        <v>7429</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32462,11 +32462,11 @@
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>530</v>
+        <v>650</v>
       </c>
       <c r="N402" t="n">
         <v>3000</v>
@@ -32533,7 +32533,7 @@
         <v>4000</v>
       </c>
       <c r="P402" t="n">
-        <v>3528</v>
+        <v>3538</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32542,11 +32542,11 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>690</v>
+        <v>590</v>
       </c>
       <c r="N403" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O403" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P403" t="n">
-        <v>7797</v>
+        <v>11475</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1114</v>
+        <v>1639</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="N404" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O404" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>5342</v>
+        <v>9462</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>763</v>
+        <v>1352</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>900</v>
+        <v>530</v>
       </c>
       <c r="N405" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O405" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P405" t="n">
-        <v>10500</v>
+        <v>7528</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="N406" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O406" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P406" t="n">
-        <v>8500</v>
+        <v>3528</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1214</v>
+        <v>504</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>500</v>
+        <v>690</v>
       </c>
       <c r="N407" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O407" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P407" t="n">
-        <v>4500</v>
+        <v>7797</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>643</v>
+        <v>1114</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N408" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O408" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="P408" t="n">
-        <v>3750</v>
+        <v>5342</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>536</v>
+        <v>763</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N409" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P409" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N410" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P410" t="n">
-        <v>7159</v>
+        <v>8500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1023</v>
+        <v>1214</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N412" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O412" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P412" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="N413" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O413" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P413" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>480</v>
+        <v>1100</v>
       </c>
       <c r="N414" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O414" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P414" t="n">
-        <v>11000</v>
+        <v>7159</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1571</v>
+        <v>1023</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="N415" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O415" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P415" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1143</v>
+        <v>643</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N416" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O416" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P416" t="n">
-        <v>6000</v>
+        <v>3250</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>857</v>
+        <v>464</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>110</v>
+        <v>660</v>
       </c>
       <c r="N417" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O417" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P417" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>2429</v>
+        <v>1857</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N418" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O418" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P418" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>2000</v>
+        <v>1571</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="N419" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1714</v>
+        <v>1143</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>495</v>
+        <v>350</v>
       </c>
       <c r="N420" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O420" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P420" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>2000</v>
+        <v>857</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>518</v>
+        <v>110</v>
       </c>
       <c r="N421" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O421" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P421" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1714</v>
+        <v>2429</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N422" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O422" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P422" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1286</v>
+        <v>2000</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="N423" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O423" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P423" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>65</v>
+        <v>495</v>
       </c>
       <c r="N424" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O424" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P424" t="n">
-        <v>21077</v>
+        <v>14000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>3011</v>
+        <v>2000</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>50</v>
+        <v>518</v>
       </c>
       <c r="N425" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O425" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P425" t="n">
-        <v>15600</v>
+        <v>12000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>2229</v>
+        <v>1714</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34440,17 +34440,17 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="N426" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O426" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P426" t="n">
         <v>9000</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44243</v>
+        <v>44350</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>630</v>
+        <v>195</v>
       </c>
       <c r="N427" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O427" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P427" t="n">
-        <v>9571</v>
+        <v>6000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1367</v>
+        <v>857</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>530</v>
+        <v>65</v>
       </c>
       <c r="N428" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O428" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P428" t="n">
-        <v>9566</v>
+        <v>21077</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34622,11 +34622,11 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1367</v>
+        <v>3011</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N429" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O429" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P429" t="n">
-        <v>7562</v>
+        <v>15600</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1080</v>
+        <v>2229</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>640</v>
+        <v>50</v>
       </c>
       <c r="N430" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O430" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P430" t="n">
-        <v>7547</v>
+        <v>9000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1078</v>
+        <v>1286</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="N431" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O431" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>4760</v>
+        <v>9571</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>680</v>
+        <v>1367</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="N432" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O432" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P432" t="n">
-        <v>5000</v>
+        <v>9566</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>714</v>
+        <v>1367</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="N433" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O433" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P433" t="n">
-        <v>24000</v>
+        <v>7562</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>3429</v>
+        <v>1080</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>110</v>
+        <v>640</v>
       </c>
       <c r="N434" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O434" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P434" t="n">
-        <v>20000</v>
+        <v>7547</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>2857</v>
+        <v>1078</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N435" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O435" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P435" t="n">
-        <v>14000</v>
+        <v>4760</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="N436" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O436" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="P436" t="n">
-        <v>8264</v>
+        <v>5000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35262,11 +35262,11 @@
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1181</v>
+        <v>714</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>810</v>
+        <v>60</v>
       </c>
       <c r="N437" t="n">
-        <v>6500</v>
+        <v>24000</v>
       </c>
       <c r="O437" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="P437" t="n">
-        <v>6728</v>
+        <v>24000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>961</v>
+        <v>3429</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>780</v>
+        <v>110</v>
       </c>
       <c r="N438" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O438" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="P438" t="n">
-        <v>5256</v>
+        <v>20000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>751</v>
+        <v>2857</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N439" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O439" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P439" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>3571</v>
+        <v>2000</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="N440" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O440" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="P440" t="n">
-        <v>20000</v>
+        <v>8264</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>2857</v>
+        <v>1181</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="N441" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="O441" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P441" t="n">
-        <v>15000</v>
+        <v>6728</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>2143</v>
+        <v>961</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>220</v>
+        <v>780</v>
       </c>
       <c r="N442" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O442" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P442" t="n">
-        <v>10000</v>
+        <v>5256</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1429</v>
+        <v>751</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="N443" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O443" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="P443" t="n">
-        <v>24528</v>
+        <v>25000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>3504</v>
+        <v>3571</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N444" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O444" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P444" t="n">
-        <v>16404</v>
+        <v>20000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>2343</v>
+        <v>2857</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="N445" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O445" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P445" t="n">
-        <v>9552</v>
+        <v>15000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1365</v>
+        <v>2143</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44377</v>
+        <v>44453</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N446" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O446" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P446" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>2429</v>
+        <v>1429</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="N447" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O447" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="P447" t="n">
-        <v>15000</v>
+        <v>24528</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>2143</v>
+        <v>3504</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="N448" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P448" t="n">
-        <v>10000</v>
+        <v>16404</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1429</v>
+        <v>2343</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="N449" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O449" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P449" t="n">
-        <v>17000</v>
+        <v>9552</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>2429</v>
+        <v>1365</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="N450" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O450" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P450" t="n">
-        <v>7741</v>
+        <v>17000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1106</v>
+        <v>2429</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>940</v>
+        <v>450</v>
       </c>
       <c r="N451" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="O451" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P451" t="n">
-        <v>6787</v>
+        <v>15000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>970</v>
+        <v>2143</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>730</v>
+        <v>160</v>
       </c>
       <c r="N452" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O452" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P452" t="n">
-        <v>4774</v>
+        <v>10000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>682</v>
+        <v>1429</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>1630</v>
+        <v>95</v>
       </c>
       <c r="N453" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O453" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="P453" t="n">
-        <v>7291</v>
+        <v>17000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1042</v>
+        <v>2429</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>1650</v>
+        <v>580</v>
       </c>
       <c r="N454" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O454" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P454" t="n">
-        <v>6233</v>
+        <v>7741</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>890</v>
+        <v>1106</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>1140</v>
+        <v>940</v>
       </c>
       <c r="N455" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O455" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P455" t="n">
-        <v>5263</v>
+        <v>6787</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>752</v>
+        <v>970</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>3000</v>
+        <v>730</v>
       </c>
       <c r="N456" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O456" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P456" t="n">
-        <v>7550</v>
+        <v>4774</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1079</v>
+        <v>682</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>1050</v>
+        <v>1630</v>
       </c>
       <c r="N457" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O457" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P457" t="n">
-        <v>6500</v>
+        <v>7291</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>929</v>
+        <v>1042</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>600</v>
+        <v>1650</v>
       </c>
       <c r="N458" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O458" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P458" t="n">
-        <v>4750</v>
+        <v>6233</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>679</v>
+        <v>890</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>580</v>
+        <v>1140</v>
       </c>
       <c r="N459" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O459" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P459" t="n">
-        <v>14517</v>
+        <v>5263</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>2074</v>
+        <v>752</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>770</v>
+        <v>3000</v>
       </c>
       <c r="N460" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O460" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P460" t="n">
-        <v>11481</v>
+        <v>7550</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1640</v>
+        <v>1079</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37240,21 +37240,21 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>580</v>
+        <v>1050</v>
       </c>
       <c r="N461" t="n">
         <v>6000</v>
       </c>
       <c r="O461" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P461" t="n">
         <v>6500</v>
       </c>
-      <c r="P461" t="n">
-        <v>6259</v>
-      </c>
       <c r="Q461" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="N462" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O462" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P462" t="n">
-        <v>4273</v>
+        <v>4750</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="N463" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O463" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P463" t="n">
-        <v>13526</v>
+        <v>14517</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37422,11 +37422,11 @@
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1932</v>
+        <v>2074</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>450</v>
+        <v>770</v>
       </c>
       <c r="N464" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O464" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P464" t="n">
-        <v>9556</v>
+        <v>11481</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37502,11 +37502,11 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1365</v>
+        <v>1640</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="N465" t="n">
         <v>6000</v>
       </c>
       <c r="O465" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="P465" t="n">
-        <v>6474</v>
+        <v>6259</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37582,11 +37582,11 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>925</v>
+        <v>894</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,7 +37644,7 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="N466" t="n">
         <v>4000</v>
@@ -37662,7 +37662,7 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S466" t="n">
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N467" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O467" t="n">
         <v>14000</v>
       </c>
       <c r="P467" t="n">
-        <v>14000</v>
+        <v>13526</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>2000</v>
+        <v>1932</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="N468" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O468" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P468" t="n">
-        <v>12000</v>
+        <v>9556</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1714</v>
+        <v>1365</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="N469" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O469" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P469" t="n">
-        <v>8000</v>
+        <v>6474</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1143</v>
+        <v>925</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N470" t="n">
         <v>4000</v>
       </c>
       <c r="O470" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P470" t="n">
-        <v>4000</v>
+        <v>4273</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N471" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O471" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P471" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>3429</v>
+        <v>2000</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="N472" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O472" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P472" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>2857</v>
+        <v>1714</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>55</v>
+        <v>450</v>
       </c>
       <c r="N473" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O473" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P473" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>2000</v>
+        <v>1143</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N474" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="O474" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="P474" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>3429</v>
+        <v>571</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N475" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O475" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P475" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>2000</v>
+        <v>3429</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N476" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O476" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P476" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>857</v>
+        <v>2857</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N477" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O477" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="P477" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>429</v>
+        <v>2000</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N478" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O478" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P478" t="n">
-        <v>10500</v>
+        <v>24000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1500</v>
+        <v>3429</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N479" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O479" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P479" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1214</v>
+        <v>2000</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N480" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O480" t="n">
         <v>6000</v>
       </c>
       <c r="P480" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N481" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O481" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P481" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>536</v>
+        <v>429</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="N482" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O482" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P482" t="n">
-        <v>7708</v>
+        <v>10500</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1101</v>
+        <v>1500</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>1240</v>
+        <v>400</v>
       </c>
       <c r="N483" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O483" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P483" t="n">
-        <v>6774</v>
+        <v>8500</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>968</v>
+        <v>1214</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>1010</v>
+        <v>300</v>
       </c>
       <c r="N484" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O484" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P484" t="n">
-        <v>4728</v>
+        <v>5500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>675</v>
+        <v>786</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>780</v>
+        <v>240</v>
       </c>
       <c r="N485" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="O485" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P485" t="n">
-        <v>2756</v>
+        <v>3750</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>394</v>
+        <v>536</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>450</v>
+        <v>960</v>
       </c>
       <c r="N486" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O486" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P486" t="n">
-        <v>14556</v>
+        <v>7708</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>2079</v>
+        <v>1101</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>520</v>
+        <v>1240</v>
       </c>
       <c r="N487" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O487" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P487" t="n">
-        <v>12423</v>
+        <v>6774</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>1775</v>
+        <v>968</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>290</v>
+        <v>1010</v>
       </c>
       <c r="N488" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O488" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P488" t="n">
-        <v>9414</v>
+        <v>4728</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1345</v>
+        <v>675</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>260</v>
+        <v>780</v>
       </c>
       <c r="N489" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O489" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P489" t="n">
-        <v>7385</v>
+        <v>2756</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1055</v>
+        <v>394</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N490" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O490" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P490" t="n">
-        <v>7500</v>
+        <v>14556</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1071</v>
+        <v>2079</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="N491" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O491" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="P491" t="n">
-        <v>6250</v>
+        <v>12423</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>893</v>
+        <v>1775</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="N492" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O492" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>4500</v>
+        <v>9414</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>643</v>
+        <v>1345</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N493" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O493" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P493" t="n">
-        <v>3250</v>
+        <v>7385</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>464</v>
+        <v>1055</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N494" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O494" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P494" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1929</v>
+        <v>1071</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N495" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O495" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P495" t="n">
-        <v>11000</v>
+        <v>6250</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1571</v>
+        <v>893</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N496" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O496" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P496" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N497" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O497" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P497" t="n">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>643</v>
+        <v>464</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="N498" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O498" t="n">
         <v>14000</v>
       </c>
       <c r="P498" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>2000</v>
+        <v>1929</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,13 +40284,13 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N499" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P499" t="n">
         <v>11000</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N500" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O500" t="n">
         <v>8000</v>
       </c>
       <c r="P500" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N501" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O501" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P501" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1714</v>
+        <v>643</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N502" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P502" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1429</v>
+        <v>2000</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="N503" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O503" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P503" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1000</v>
+        <v>1571</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="N504" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O504" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P504" t="n">
-        <v>4776</v>
+        <v>8000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>682</v>
+        <v>1143</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>830</v>
+        <v>75</v>
       </c>
       <c r="N505" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O505" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P505" t="n">
-        <v>8729</v>
+        <v>12000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1247</v>
+        <v>1714</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>1810</v>
+        <v>80</v>
       </c>
       <c r="N506" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O506" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P506" t="n">
-        <v>7265</v>
+        <v>10000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1038</v>
+        <v>1429</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>1430</v>
+        <v>95</v>
       </c>
       <c r="N507" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O507" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P507" t="n">
-        <v>5273</v>
+        <v>7000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>980</v>
+        <v>145</v>
       </c>
       <c r="N508" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O508" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P508" t="n">
-        <v>3260</v>
+        <v>4776</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>40</v>
+        <v>830</v>
       </c>
       <c r="N509" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O509" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P509" t="n">
-        <v>8000</v>
+        <v>8729</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1143</v>
+        <v>1247</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>100</v>
+        <v>1810</v>
       </c>
       <c r="N510" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O510" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P510" t="n">
-        <v>6500</v>
+        <v>7265</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>929</v>
+        <v>1038</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>70</v>
+        <v>1430</v>
       </c>
       <c r="N511" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O511" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P511" t="n">
-        <v>4750</v>
+        <v>5273</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>679</v>
+        <v>753</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="N512" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O512" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="P512" t="n">
-        <v>20000</v>
+        <v>3260</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>2857</v>
+        <v>466</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="N513" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O513" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P513" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>2143</v>
+        <v>1143</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N514" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O514" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P514" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="N515" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O515" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P515" t="n">
-        <v>8000</v>
+        <v>4750</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1143</v>
+        <v>679</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="N516" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O516" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P516" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>3143</v>
+        <v>2857</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="N517" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O517" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P517" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>2286</v>
+        <v>2143</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N518" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O518" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P518" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N519" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O519" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P519" t="n">
-        <v>9786</v>
+        <v>8000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1398</v>
+        <v>1143</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N520" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="O520" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P520" t="n">
-        <v>7775</v>
+        <v>22000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1111</v>
+        <v>3143</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>205</v>
+        <v>580</v>
       </c>
       <c r="N521" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O521" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P521" t="n">
-        <v>4732</v>
+        <v>16000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>676</v>
+        <v>2286</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="N522" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O522" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P522" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N523" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="O523" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P523" t="n">
-        <v>18000</v>
+        <v>9786</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>2571</v>
+        <v>1398</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="N524" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O524" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P524" t="n">
-        <v>15000</v>
+        <v>7775</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>2143</v>
+        <v>1111</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="N525" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="O525" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P525" t="n">
-        <v>25000</v>
+        <v>4732</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42382,11 +42382,11 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>3571</v>
+        <v>676</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,11 +42440,11 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N526" t="n">
         <v>20000</v>
@@ -42462,7 +42462,7 @@
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S526" t="n">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N527" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O527" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P527" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42542,11 +42542,11 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N528" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O528" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P528" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>2857</v>
+        <v>2143</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N529" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O529" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P529" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42702,11 +42702,11 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>2571</v>
+        <v>3571</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N530" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O530" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P530" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42782,11 +42782,11 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>2143</v>
+        <v>2857</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>920</v>
+        <v>110</v>
       </c>
       <c r="N531" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O531" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P531" t="n">
-        <v>10783</v>
+        <v>10000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42862,11 +42862,11 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1540</v>
+        <v>1429</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>1430</v>
+        <v>100</v>
       </c>
       <c r="N532" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O532" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="P532" t="n">
-        <v>9273</v>
+        <v>20000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1325</v>
+        <v>2857</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="N533" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O533" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="P533" t="n">
-        <v>5262</v>
+        <v>18000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>752</v>
+        <v>2571</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>630</v>
+        <v>75</v>
       </c>
       <c r="N534" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O534" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P534" t="n">
-        <v>4222</v>
+        <v>15000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>603</v>
+        <v>2143</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>580</v>
+        <v>920</v>
       </c>
       <c r="N535" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O535" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P535" t="n">
-        <v>7759</v>
+        <v>10783</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1108</v>
+        <v>1540</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>380</v>
+        <v>1430</v>
       </c>
       <c r="N536" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O536" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="P536" t="n">
-        <v>4737</v>
+        <v>9273</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>677</v>
+        <v>1325</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>1230</v>
+        <v>800</v>
       </c>
       <c r="N537" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O537" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="P537" t="n">
-        <v>8236</v>
+        <v>5262</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1177</v>
+        <v>752</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>1750</v>
+        <v>630</v>
       </c>
       <c r="N538" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O538" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P538" t="n">
-        <v>6771</v>
+        <v>4222</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>967</v>
+        <v>603</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>770</v>
+        <v>580</v>
       </c>
       <c r="N539" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O539" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P539" t="n">
-        <v>5240</v>
+        <v>7759</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>749</v>
+        <v>1108</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="N540" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O540" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P540" t="n">
-        <v>13517</v>
+        <v>4737</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1931</v>
+        <v>677</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>650</v>
+        <v>1230</v>
       </c>
       <c r="N541" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O541" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P541" t="n">
-        <v>11462</v>
+        <v>8236</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1637</v>
+        <v>1177</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>580</v>
+        <v>1750</v>
       </c>
       <c r="N542" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O542" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P542" t="n">
-        <v>7759</v>
+        <v>6771</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1108</v>
+        <v>967</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="N543" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O543" t="n">
         <v>5500</v>
       </c>
-      <c r="O543" t="n">
-        <v>6000</v>
-      </c>
       <c r="P543" t="n">
-        <v>5744</v>
+        <v>5240</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="N544" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O544" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P544" t="n">
-        <v>4288</v>
+        <v>13517</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>613</v>
+        <v>1931</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,68 +43927,388 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E545" t="n">
+        <v>13</v>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G545" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I545" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M545" t="n">
+        <v>650</v>
+      </c>
+      <c r="N545" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O545" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P545" t="n">
+        <v>11462</v>
+      </c>
+      <c r="Q545" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S545" t="n">
+        <v>1637</v>
+      </c>
+      <c r="T545" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>9</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D546" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E546" t="n">
+        <v>13</v>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G546" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I546" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M546" t="n">
+        <v>580</v>
+      </c>
+      <c r="N546" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O546" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P546" t="n">
+        <v>7759</v>
+      </c>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S546" t="n">
+        <v>1108</v>
+      </c>
+      <c r="T546" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>9</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D547" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E547" t="n">
+        <v>13</v>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G547" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I547" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M547" t="n">
+        <v>780</v>
+      </c>
+      <c r="N547" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O547" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P547" t="n">
+        <v>5744</v>
+      </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S547" t="n">
+        <v>821</v>
+      </c>
+      <c r="T547" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>9</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D548" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E548" t="n">
+        <v>13</v>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G548" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I548" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M548" t="n">
+        <v>520</v>
+      </c>
+      <c r="N548" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O548" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P548" t="n">
+        <v>4288</v>
+      </c>
+      <c r="Q548" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R548" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S548" t="n">
+        <v>613</v>
+      </c>
+      <c r="T548" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>9</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D549" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E545" t="n">
-        <v>13</v>
-      </c>
-      <c r="F545" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G545" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I545" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J545" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L545" t="inlineStr">
+      <c r="E549" t="n">
+        <v>13</v>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G549" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I549" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M545" t="n">
+      <c r="M549" t="n">
         <v>80</v>
       </c>
-      <c r="N545" t="n">
+      <c r="N549" t="n">
         <v>10000</v>
       </c>
-      <c r="O545" t="n">
+      <c r="O549" t="n">
         <v>10000</v>
       </c>
-      <c r="P545" t="n">
+      <c r="P549" t="n">
         <v>10000</v>
       </c>
-      <c r="Q545" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R545" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S545" t="n">
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R549" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S549" t="n">
         <v>1429</v>
       </c>
-      <c r="T545" t="n">
+      <c r="T549" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T549"/>
+  <dimension ref="A1:T553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N377" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O377" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P377" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1643</v>
+        <v>786</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="N378" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O378" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P378" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1357</v>
+        <v>643</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N379" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O379" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P379" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>85</v>
+        <v>550</v>
       </c>
       <c r="N380" t="n">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="O380" t="n">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="P380" t="n">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>2857</v>
+        <v>357</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N381" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O381" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P381" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>2571</v>
+        <v>1643</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="N382" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O382" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P382" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>2143</v>
+        <v>1357</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N383" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O383" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P383" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>2000</v>
+        <v>786</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>550</v>
+        <v>85</v>
       </c>
       <c r="N384" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O384" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P384" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1571</v>
+        <v>2857</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="N385" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O385" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P385" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>857</v>
+        <v>2571</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N386" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O386" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P386" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1286</v>
+        <v>2143</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N387" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O387" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P387" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1143</v>
+        <v>2000</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N388" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O388" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P388" t="n">
-        <v>8750</v>
+        <v>11000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1250</v>
+        <v>1571</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>1050</v>
+        <v>420</v>
       </c>
       <c r="N389" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O389" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P389" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1071</v>
+        <v>857</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N390" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O390" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P390" t="n">
-        <v>4750</v>
+        <v>9000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>679</v>
+        <v>1286</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N391" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O391" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P391" t="n">
-        <v>3750</v>
+        <v>8000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>536</v>
+        <v>1143</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="N392" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O392" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P392" t="n">
-        <v>12000</v>
+        <v>8750</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1714</v>
+        <v>1250</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>55</v>
+        <v>1050</v>
       </c>
       <c r="N393" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O393" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P393" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N394" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O394" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P394" t="n">
-        <v>7000</v>
+        <v>4750</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1000</v>
+        <v>679</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="N395" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O395" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P395" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>714</v>
+        <v>536</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N396" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O396" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P396" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1286</v>
+        <v>1714</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>440</v>
+        <v>55</v>
       </c>
       <c r="N397" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O397" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P397" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="N398" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O398" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P398" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>643</v>
+        <v>1000</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>790</v>
+        <v>90</v>
       </c>
       <c r="N399" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O399" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P399" t="n">
-        <v>11519</v>
+        <v>5000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32302,11 +32302,11 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1646</v>
+        <v>714</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N400" t="n">
         <v>9000</v>
       </c>
       <c r="O400" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P400" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1357</v>
+        <v>1286</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="N401" t="n">
         <v>7000</v>
       </c>
       <c r="O401" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P401" t="n">
-        <v>7429</v>
+        <v>7000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32462,11 +32462,11 @@
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1061</v>
+        <v>1000</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>650</v>
+        <v>205</v>
       </c>
       <c r="N402" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O402" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P402" t="n">
-        <v>3538</v>
+        <v>4500</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32542,11 +32542,11 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>505</v>
+        <v>643</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32604,7 +32604,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>590</v>
+        <v>790</v>
       </c>
       <c r="N403" t="n">
         <v>11000</v>
@@ -32613,7 +32613,7 @@
         <v>12000</v>
       </c>
       <c r="P403" t="n">
-        <v>11475</v>
+        <v>11519</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1639</v>
+        <v>1646</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32684,7 +32684,7 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N404" t="n">
         <v>9000</v>
@@ -32693,7 +32693,7 @@
         <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>9462</v>
+        <v>9500</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32702,11 +32702,11 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="N405" t="n">
         <v>7000</v>
@@ -32773,7 +32773,7 @@
         <v>8000</v>
       </c>
       <c r="P405" t="n">
-        <v>7528</v>
+        <v>7429</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32844,7 +32844,7 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>530</v>
+        <v>650</v>
       </c>
       <c r="N406" t="n">
         <v>3000</v>
@@ -32853,7 +32853,7 @@
         <v>4000</v>
       </c>
       <c r="P406" t="n">
-        <v>3528</v>
+        <v>3538</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>690</v>
+        <v>590</v>
       </c>
       <c r="N407" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O407" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>7797</v>
+        <v>11475</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1114</v>
+        <v>1639</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="N408" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O408" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P408" t="n">
-        <v>5342</v>
+        <v>9462</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>763</v>
+        <v>1352</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>900</v>
+        <v>530</v>
       </c>
       <c r="N409" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O409" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P409" t="n">
-        <v>10500</v>
+        <v>7528</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="N410" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O410" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P410" t="n">
-        <v>8500</v>
+        <v>3528</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1214</v>
+        <v>504</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>500</v>
+        <v>690</v>
       </c>
       <c r="N411" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O411" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P411" t="n">
-        <v>4500</v>
+        <v>7797</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>643</v>
+        <v>1114</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N412" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O412" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="P412" t="n">
-        <v>3750</v>
+        <v>5342</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>536</v>
+        <v>763</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N413" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O413" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P413" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N414" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O414" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P414" t="n">
-        <v>7159</v>
+        <v>8500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1023</v>
+        <v>1214</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N416" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O416" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P416" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="N417" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O417" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P417" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>480</v>
+        <v>1100</v>
       </c>
       <c r="N418" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O418" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P418" t="n">
-        <v>11000</v>
+        <v>7159</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1571</v>
+        <v>1023</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="N419" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P419" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1143</v>
+        <v>643</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N420" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O420" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P420" t="n">
-        <v>6000</v>
+        <v>3250</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>857</v>
+        <v>464</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>110</v>
+        <v>660</v>
       </c>
       <c r="N421" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O421" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P421" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>2429</v>
+        <v>1857</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N422" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O422" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P422" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>2000</v>
+        <v>1571</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1714</v>
+        <v>1143</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>495</v>
+        <v>350</v>
       </c>
       <c r="N424" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O424" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P424" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>2000</v>
+        <v>857</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>518</v>
+        <v>110</v>
       </c>
       <c r="N425" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O425" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P425" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1714</v>
+        <v>2429</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N426" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O426" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P426" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1286</v>
+        <v>2000</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="N427" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O427" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P427" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>65</v>
+        <v>495</v>
       </c>
       <c r="N428" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O428" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P428" t="n">
-        <v>21077</v>
+        <v>14000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>3011</v>
+        <v>2000</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>50</v>
+        <v>518</v>
       </c>
       <c r="N429" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O429" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P429" t="n">
-        <v>15600</v>
+        <v>12000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>2229</v>
+        <v>1714</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,17 +34760,17 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="N430" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P430" t="n">
         <v>9000</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44243</v>
+        <v>44350</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>630</v>
+        <v>195</v>
       </c>
       <c r="N431" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O431" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P431" t="n">
-        <v>9571</v>
+        <v>6000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1367</v>
+        <v>857</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>530</v>
+        <v>65</v>
       </c>
       <c r="N432" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P432" t="n">
-        <v>9566</v>
+        <v>21077</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34942,11 +34942,11 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1367</v>
+        <v>3011</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N433" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O433" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P433" t="n">
-        <v>7562</v>
+        <v>15600</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1080</v>
+        <v>2229</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>640</v>
+        <v>50</v>
       </c>
       <c r="N434" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O434" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P434" t="n">
-        <v>7547</v>
+        <v>9000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1078</v>
+        <v>1286</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="N435" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O435" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>4760</v>
+        <v>9571</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>680</v>
+        <v>1367</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="N436" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O436" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P436" t="n">
-        <v>5000</v>
+        <v>9566</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>714</v>
+        <v>1367</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="N437" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O437" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P437" t="n">
-        <v>24000</v>
+        <v>7562</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>3429</v>
+        <v>1080</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>110</v>
+        <v>640</v>
       </c>
       <c r="N438" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O438" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P438" t="n">
-        <v>20000</v>
+        <v>7547</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35422,11 +35422,11 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>2857</v>
+        <v>1078</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N439" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O439" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P439" t="n">
-        <v>14000</v>
+        <v>4760</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="N440" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O440" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="P440" t="n">
-        <v>8264</v>
+        <v>5000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35582,11 +35582,11 @@
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>1181</v>
+        <v>714</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>810</v>
+        <v>60</v>
       </c>
       <c r="N441" t="n">
-        <v>6500</v>
+        <v>24000</v>
       </c>
       <c r="O441" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="P441" t="n">
-        <v>6728</v>
+        <v>24000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>961</v>
+        <v>3429</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>780</v>
+        <v>110</v>
       </c>
       <c r="N442" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O442" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="P442" t="n">
-        <v>5256</v>
+        <v>20000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>751</v>
+        <v>2857</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N443" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O443" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P443" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>3571</v>
+        <v>2000</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="N444" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O444" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="P444" t="n">
-        <v>20000</v>
+        <v>8264</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>2857</v>
+        <v>1181</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="N445" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="O445" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P445" t="n">
-        <v>15000</v>
+        <v>6728</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>2143</v>
+        <v>961</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>220</v>
+        <v>780</v>
       </c>
       <c r="N446" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P446" t="n">
-        <v>10000</v>
+        <v>5256</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1429</v>
+        <v>751</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="N447" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O447" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="P447" t="n">
-        <v>24528</v>
+        <v>25000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>3504</v>
+        <v>3571</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N448" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O448" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P448" t="n">
-        <v>16404</v>
+        <v>20000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>2343</v>
+        <v>2857</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="N449" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P449" t="n">
-        <v>9552</v>
+        <v>15000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1365</v>
+        <v>2143</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44377</v>
+        <v>44453</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N450" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O450" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P450" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>2429</v>
+        <v>1429</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="N451" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O451" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="P451" t="n">
-        <v>15000</v>
+        <v>24528</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>2143</v>
+        <v>3504</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="N452" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O452" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P452" t="n">
-        <v>10000</v>
+        <v>16404</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1429</v>
+        <v>2343</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="N453" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O453" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P453" t="n">
-        <v>17000</v>
+        <v>9552</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>2429</v>
+        <v>1365</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="N454" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O454" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P454" t="n">
-        <v>7741</v>
+        <v>17000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1106</v>
+        <v>2429</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>940</v>
+        <v>450</v>
       </c>
       <c r="N455" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="O455" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P455" t="n">
-        <v>6787</v>
+        <v>15000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>970</v>
+        <v>2143</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>730</v>
+        <v>160</v>
       </c>
       <c r="N456" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O456" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P456" t="n">
-        <v>4774</v>
+        <v>10000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>682</v>
+        <v>1429</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>1630</v>
+        <v>95</v>
       </c>
       <c r="N457" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O457" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="P457" t="n">
-        <v>7291</v>
+        <v>17000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1042</v>
+        <v>2429</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>1650</v>
+        <v>580</v>
       </c>
       <c r="N458" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O458" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P458" t="n">
-        <v>6233</v>
+        <v>7741</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>890</v>
+        <v>1106</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>1140</v>
+        <v>940</v>
       </c>
       <c r="N459" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O459" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P459" t="n">
-        <v>5263</v>
+        <v>6787</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>752</v>
+        <v>970</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>3000</v>
+        <v>730</v>
       </c>
       <c r="N460" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O460" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P460" t="n">
-        <v>7550</v>
+        <v>4774</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1079</v>
+        <v>682</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>1050</v>
+        <v>1630</v>
       </c>
       <c r="N461" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O461" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P461" t="n">
-        <v>6500</v>
+        <v>7291</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>929</v>
+        <v>1042</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>600</v>
+        <v>1650</v>
       </c>
       <c r="N462" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O462" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P462" t="n">
-        <v>4750</v>
+        <v>6233</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>679</v>
+        <v>890</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>580</v>
+        <v>1140</v>
       </c>
       <c r="N463" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O463" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P463" t="n">
-        <v>14517</v>
+        <v>5263</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>2074</v>
+        <v>752</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>770</v>
+        <v>3000</v>
       </c>
       <c r="N464" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O464" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P464" t="n">
-        <v>11481</v>
+        <v>7550</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1640</v>
+        <v>1079</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,21 +37560,21 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>580</v>
+        <v>1050</v>
       </c>
       <c r="N465" t="n">
         <v>6000</v>
       </c>
       <c r="O465" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P465" t="n">
         <v>6500</v>
       </c>
-      <c r="P465" t="n">
-        <v>6259</v>
-      </c>
       <c r="Q465" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="N466" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O466" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P466" t="n">
-        <v>4273</v>
+        <v>4750</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="N467" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O467" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P467" t="n">
-        <v>13526</v>
+        <v>14517</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37742,11 +37742,11 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1932</v>
+        <v>2074</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>450</v>
+        <v>770</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P468" t="n">
-        <v>9556</v>
+        <v>11481</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37822,11 +37822,11 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1365</v>
+        <v>1640</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="N469" t="n">
         <v>6000</v>
       </c>
       <c r="O469" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="P469" t="n">
-        <v>6474</v>
+        <v>6259</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37902,11 +37902,11 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>925</v>
+        <v>894</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37964,7 +37964,7 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="N470" t="n">
         <v>4000</v>
@@ -37982,7 +37982,7 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S470" t="n">
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N471" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O471" t="n">
         <v>14000</v>
       </c>
       <c r="P471" t="n">
-        <v>14000</v>
+        <v>13526</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>2000</v>
+        <v>1932</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="N472" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P472" t="n">
-        <v>12000</v>
+        <v>9556</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1714</v>
+        <v>1365</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="N473" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P473" t="n">
-        <v>8000</v>
+        <v>6474</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1143</v>
+        <v>925</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N474" t="n">
         <v>4000</v>
       </c>
       <c r="O474" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P474" t="n">
-        <v>4000</v>
+        <v>4273</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N475" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O475" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P475" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38382,11 +38382,11 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>3429</v>
+        <v>2000</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="N476" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O476" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38462,11 +38462,11 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>2857</v>
+        <v>1714</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>55</v>
+        <v>450</v>
       </c>
       <c r="N477" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O477" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P477" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38542,11 +38542,11 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>2000</v>
+        <v>1143</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N478" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="O478" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="P478" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38622,11 +38622,11 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>3429</v>
+        <v>571</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N479" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O479" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P479" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>2000</v>
+        <v>3429</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N480" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O480" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P480" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>857</v>
+        <v>2857</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N481" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O481" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="P481" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>429</v>
+        <v>2000</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N482" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O482" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P482" t="n">
-        <v>10500</v>
+        <v>24000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1500</v>
+        <v>3429</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N483" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O483" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P483" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1214</v>
+        <v>2000</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N484" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O484" t="n">
         <v>6000</v>
       </c>
       <c r="P484" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N485" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O485" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P485" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>536</v>
+        <v>429</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="N486" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O486" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P486" t="n">
-        <v>7708</v>
+        <v>10500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1101</v>
+        <v>1500</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>1240</v>
+        <v>400</v>
       </c>
       <c r="N487" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O487" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P487" t="n">
-        <v>6774</v>
+        <v>8500</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>968</v>
+        <v>1214</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>1010</v>
+        <v>300</v>
       </c>
       <c r="N488" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O488" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P488" t="n">
-        <v>4728</v>
+        <v>5500</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>675</v>
+        <v>786</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>780</v>
+        <v>240</v>
       </c>
       <c r="N489" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="O489" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P489" t="n">
-        <v>2756</v>
+        <v>3750</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>394</v>
+        <v>536</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>450</v>
+        <v>960</v>
       </c>
       <c r="N490" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O490" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P490" t="n">
-        <v>14556</v>
+        <v>7708</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>2079</v>
+        <v>1101</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>520</v>
+        <v>1240</v>
       </c>
       <c r="N491" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O491" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P491" t="n">
-        <v>12423</v>
+        <v>6774</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1775</v>
+        <v>968</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>290</v>
+        <v>1010</v>
       </c>
       <c r="N492" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O492" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P492" t="n">
-        <v>9414</v>
+        <v>4728</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1345</v>
+        <v>675</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>260</v>
+        <v>780</v>
       </c>
       <c r="N493" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O493" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P493" t="n">
-        <v>7385</v>
+        <v>2756</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1055</v>
+        <v>394</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N494" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O494" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P494" t="n">
-        <v>7500</v>
+        <v>14556</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1071</v>
+        <v>2079</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="N495" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O495" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="P495" t="n">
-        <v>6250</v>
+        <v>12423</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>893</v>
+        <v>1775</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="N496" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O496" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>4500</v>
+        <v>9414</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>643</v>
+        <v>1345</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N497" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O497" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P497" t="n">
-        <v>3250</v>
+        <v>7385</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>464</v>
+        <v>1055</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N498" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O498" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P498" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1929</v>
+        <v>1071</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N499" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O499" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P499" t="n">
-        <v>11000</v>
+        <v>6250</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>1571</v>
+        <v>893</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N500" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O500" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P500" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N501" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O501" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P501" t="n">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>643</v>
+        <v>464</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="N502" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O502" t="n">
         <v>14000</v>
       </c>
       <c r="P502" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>2000</v>
+        <v>1929</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,13 +40604,13 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N503" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P503" t="n">
         <v>11000</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N504" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O504" t="n">
         <v>8000</v>
       </c>
       <c r="P504" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N505" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O505" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P505" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1714</v>
+        <v>643</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N506" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O506" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P506" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1429</v>
+        <v>2000</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="N507" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O507" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P507" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1000</v>
+        <v>1571</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="N508" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O508" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P508" t="n">
-        <v>4776</v>
+        <v>8000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>682</v>
+        <v>1143</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>830</v>
+        <v>75</v>
       </c>
       <c r="N509" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O509" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P509" t="n">
-        <v>8729</v>
+        <v>12000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1247</v>
+        <v>1714</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>1810</v>
+        <v>80</v>
       </c>
       <c r="N510" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O510" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>7265</v>
+        <v>10000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1038</v>
+        <v>1429</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>1430</v>
+        <v>95</v>
       </c>
       <c r="N511" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O511" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P511" t="n">
-        <v>5273</v>
+        <v>7000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>980</v>
+        <v>145</v>
       </c>
       <c r="N512" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O512" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P512" t="n">
-        <v>3260</v>
+        <v>4776</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>40</v>
+        <v>830</v>
       </c>
       <c r="N513" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O513" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P513" t="n">
-        <v>8000</v>
+        <v>8729</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1143</v>
+        <v>1247</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>100</v>
+        <v>1810</v>
       </c>
       <c r="N514" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O514" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P514" t="n">
-        <v>6500</v>
+        <v>7265</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>929</v>
+        <v>1038</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>70</v>
+        <v>1430</v>
       </c>
       <c r="N515" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O515" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P515" t="n">
-        <v>4750</v>
+        <v>5273</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>679</v>
+        <v>753</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="N516" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O516" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="P516" t="n">
-        <v>20000</v>
+        <v>3260</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>2857</v>
+        <v>466</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="N517" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O517" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P517" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>2143</v>
+        <v>1143</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N518" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O518" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P518" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="N519" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O519" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P519" t="n">
-        <v>8000</v>
+        <v>4750</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1143</v>
+        <v>679</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="N520" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O520" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P520" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>3143</v>
+        <v>2857</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="N521" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O521" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P521" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>2286</v>
+        <v>2143</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N522" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O522" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P522" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N523" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O523" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P523" t="n">
-        <v>9786</v>
+        <v>8000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1398</v>
+        <v>1143</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N524" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="O524" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P524" t="n">
-        <v>7775</v>
+        <v>22000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>1111</v>
+        <v>3143</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>205</v>
+        <v>580</v>
       </c>
       <c r="N525" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O525" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P525" t="n">
-        <v>4732</v>
+        <v>16000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>676</v>
+        <v>2286</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="N526" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O526" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P526" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N527" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="O527" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P527" t="n">
-        <v>18000</v>
+        <v>9786</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>2571</v>
+        <v>1398</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="N528" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O528" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P528" t="n">
-        <v>15000</v>
+        <v>7775</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>2143</v>
+        <v>1111</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="N529" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="O529" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P529" t="n">
-        <v>25000</v>
+        <v>4732</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42702,11 +42702,11 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>3571</v>
+        <v>676</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,11 +42760,11 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N530" t="n">
         <v>20000</v>
@@ -42782,7 +42782,7 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S530" t="n">
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N531" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O531" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P531" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42862,11 +42862,11 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N532" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O532" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P532" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>2857</v>
+        <v>2143</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N533" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O533" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P533" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43022,11 +43022,11 @@
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>2571</v>
+        <v>3571</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N534" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O534" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P534" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43102,11 +43102,11 @@
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>2143</v>
+        <v>2857</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>920</v>
+        <v>110</v>
       </c>
       <c r="N535" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O535" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P535" t="n">
-        <v>10783</v>
+        <v>10000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43182,11 +43182,11 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1540</v>
+        <v>1429</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>1430</v>
+        <v>100</v>
       </c>
       <c r="N536" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O536" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="P536" t="n">
-        <v>9273</v>
+        <v>20000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1325</v>
+        <v>2857</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="N537" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O537" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="P537" t="n">
-        <v>5262</v>
+        <v>18000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>752</v>
+        <v>2571</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>630</v>
+        <v>75</v>
       </c>
       <c r="N538" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O538" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P538" t="n">
-        <v>4222</v>
+        <v>15000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>603</v>
+        <v>2143</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>580</v>
+        <v>920</v>
       </c>
       <c r="N539" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O539" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P539" t="n">
-        <v>7759</v>
+        <v>10783</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1108</v>
+        <v>1540</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>380</v>
+        <v>1430</v>
       </c>
       <c r="N540" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O540" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="P540" t="n">
-        <v>4737</v>
+        <v>9273</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>677</v>
+        <v>1325</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>1230</v>
+        <v>800</v>
       </c>
       <c r="N541" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O541" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="P541" t="n">
-        <v>8236</v>
+        <v>5262</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1177</v>
+        <v>752</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>1750</v>
+        <v>630</v>
       </c>
       <c r="N542" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O542" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P542" t="n">
-        <v>6771</v>
+        <v>4222</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>967</v>
+        <v>603</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>770</v>
+        <v>580</v>
       </c>
       <c r="N543" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O543" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P543" t="n">
-        <v>5240</v>
+        <v>7759</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>749</v>
+        <v>1108</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="N544" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O544" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P544" t="n">
-        <v>13517</v>
+        <v>4737</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>1931</v>
+        <v>677</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>650</v>
+        <v>1230</v>
       </c>
       <c r="N545" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O545" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P545" t="n">
-        <v>11462</v>
+        <v>8236</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1637</v>
+        <v>1177</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>580</v>
+        <v>1750</v>
       </c>
       <c r="N546" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O546" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P546" t="n">
-        <v>7759</v>
+        <v>6771</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1108</v>
+        <v>967</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="N547" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O547" t="n">
         <v>5500</v>
       </c>
-      <c r="O547" t="n">
-        <v>6000</v>
-      </c>
       <c r="P547" t="n">
-        <v>5744</v>
+        <v>5240</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="N548" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O548" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P548" t="n">
-        <v>4288</v>
+        <v>13517</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>613</v>
+        <v>1931</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,68 +44247,388 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E549" t="n">
+        <v>13</v>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G549" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I549" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M549" t="n">
+        <v>650</v>
+      </c>
+      <c r="N549" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O549" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P549" t="n">
+        <v>11462</v>
+      </c>
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R549" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S549" t="n">
+        <v>1637</v>
+      </c>
+      <c r="T549" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>9</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D550" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E550" t="n">
+        <v>13</v>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G550" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I550" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M550" t="n">
+        <v>580</v>
+      </c>
+      <c r="N550" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O550" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P550" t="n">
+        <v>7759</v>
+      </c>
+      <c r="Q550" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S550" t="n">
+        <v>1108</v>
+      </c>
+      <c r="T550" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>9</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D551" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E551" t="n">
+        <v>13</v>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G551" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I551" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M551" t="n">
+        <v>780</v>
+      </c>
+      <c r="N551" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O551" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P551" t="n">
+        <v>5744</v>
+      </c>
+      <c r="Q551" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R551" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S551" t="n">
+        <v>821</v>
+      </c>
+      <c r="T551" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>9</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D552" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E552" t="n">
+        <v>13</v>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G552" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I552" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M552" t="n">
+        <v>520</v>
+      </c>
+      <c r="N552" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O552" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P552" t="n">
+        <v>4288</v>
+      </c>
+      <c r="Q552" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R552" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S552" t="n">
+        <v>613</v>
+      </c>
+      <c r="T552" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>9</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D553" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E549" t="n">
-        <v>13</v>
-      </c>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G549" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I549" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J549" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L549" t="inlineStr">
+      <c r="E553" t="n">
+        <v>13</v>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G553" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I553" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L553" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M549" t="n">
+      <c r="M553" t="n">
         <v>80</v>
       </c>
-      <c r="N549" t="n">
+      <c r="N553" t="n">
         <v>10000</v>
       </c>
-      <c r="O549" t="n">
+      <c r="O553" t="n">
         <v>10000</v>
       </c>
-      <c r="P549" t="n">
+      <c r="P553" t="n">
         <v>10000</v>
       </c>
-      <c r="Q549" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R549" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S549" t="n">
+      <c r="Q553" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R553" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S553" t="n">
         <v>1429</v>
       </c>
-      <c r="T549" t="n">
+      <c r="T553" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T557"/>
+  <dimension ref="A1:T561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N502" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O502" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P502" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="N503" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O503" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P503" t="n">
-        <v>6250</v>
+        <v>4000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>893</v>
+        <v>571</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>360</v>
+        <v>950</v>
       </c>
       <c r="N504" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O504" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P504" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>643</v>
+        <v>429</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="N505" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O505" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="P505" t="n">
-        <v>3250</v>
+        <v>2000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>464</v>
+        <v>286</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N506" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O506" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P506" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1929</v>
+        <v>1071</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N507" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O507" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P507" t="n">
-        <v>11000</v>
+        <v>6250</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1571</v>
+        <v>893</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N508" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O508" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P508" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N509" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O509" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P509" t="n">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>643</v>
+        <v>464</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="N510" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O510" t="n">
         <v>14000</v>
       </c>
       <c r="P510" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>2000</v>
+        <v>1929</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,13 +41244,13 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N511" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O511" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P511" t="n">
         <v>11000</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N512" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O512" t="n">
         <v>8000</v>
       </c>
       <c r="P512" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N513" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O513" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P513" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1714</v>
+        <v>643</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N514" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O514" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P514" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1429</v>
+        <v>2000</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="N515" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O515" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P515" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1000</v>
+        <v>1571</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="N516" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O516" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P516" t="n">
-        <v>4776</v>
+        <v>8000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>682</v>
+        <v>1143</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>830</v>
+        <v>75</v>
       </c>
       <c r="N517" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O517" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P517" t="n">
-        <v>8729</v>
+        <v>12000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>1247</v>
+        <v>1714</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>1810</v>
+        <v>80</v>
       </c>
       <c r="N518" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O518" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P518" t="n">
-        <v>7265</v>
+        <v>10000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1038</v>
+        <v>1429</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>1430</v>
+        <v>95</v>
       </c>
       <c r="N519" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O519" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P519" t="n">
-        <v>5273</v>
+        <v>7000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>980</v>
+        <v>145</v>
       </c>
       <c r="N520" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O520" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P520" t="n">
-        <v>3260</v>
+        <v>4776</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>40</v>
+        <v>830</v>
       </c>
       <c r="N521" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O521" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P521" t="n">
-        <v>8000</v>
+        <v>8729</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1143</v>
+        <v>1247</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>100</v>
+        <v>1810</v>
       </c>
       <c r="N522" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O522" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P522" t="n">
-        <v>6500</v>
+        <v>7265</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>929</v>
+        <v>1038</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>70</v>
+        <v>1430</v>
       </c>
       <c r="N523" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O523" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P523" t="n">
-        <v>4750</v>
+        <v>5273</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>679</v>
+        <v>753</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="N524" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O524" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="P524" t="n">
-        <v>20000</v>
+        <v>3260</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>2857</v>
+        <v>466</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="N525" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O525" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P525" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>2143</v>
+        <v>1143</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N526" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O526" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P526" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="N527" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O527" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P527" t="n">
-        <v>8000</v>
+        <v>4750</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>1143</v>
+        <v>679</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="N528" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O528" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P528" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>3143</v>
+        <v>2857</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="N529" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O529" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P529" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>2286</v>
+        <v>2143</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N530" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O530" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P530" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N531" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O531" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P531" t="n">
-        <v>9786</v>
+        <v>8000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1398</v>
+        <v>1143</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N532" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="O532" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P532" t="n">
-        <v>7775</v>
+        <v>22000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1111</v>
+        <v>3143</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>205</v>
+        <v>580</v>
       </c>
       <c r="N533" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O533" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P533" t="n">
-        <v>4732</v>
+        <v>16000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>676</v>
+        <v>2286</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="N534" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O534" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P534" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N535" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="O535" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P535" t="n">
-        <v>18000</v>
+        <v>9786</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>2571</v>
+        <v>1398</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="N536" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O536" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P536" t="n">
-        <v>15000</v>
+        <v>7775</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>2143</v>
+        <v>1111</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="N537" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="O537" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P537" t="n">
-        <v>25000</v>
+        <v>4732</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43342,11 +43342,11 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>3571</v>
+        <v>676</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,11 +43400,11 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N538" t="n">
         <v>20000</v>
@@ -43422,7 +43422,7 @@
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S538" t="n">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N539" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O539" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P539" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43502,11 +43502,11 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N540" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O540" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P540" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>2857</v>
+        <v>2143</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N541" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O541" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P541" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>2571</v>
+        <v>3571</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N542" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O542" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P542" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43742,11 +43742,11 @@
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>2143</v>
+        <v>2857</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>920</v>
+        <v>110</v>
       </c>
       <c r="N543" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O543" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P543" t="n">
-        <v>10783</v>
+        <v>10000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43822,11 +43822,11 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1540</v>
+        <v>1429</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>1430</v>
+        <v>100</v>
       </c>
       <c r="N544" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O544" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="P544" t="n">
-        <v>9273</v>
+        <v>20000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>1325</v>
+        <v>2857</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="N545" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O545" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="P545" t="n">
-        <v>5262</v>
+        <v>18000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>752</v>
+        <v>2571</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>630</v>
+        <v>75</v>
       </c>
       <c r="N546" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O546" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P546" t="n">
-        <v>4222</v>
+        <v>15000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>603</v>
+        <v>2143</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>580</v>
+        <v>920</v>
       </c>
       <c r="N547" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O547" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P547" t="n">
-        <v>7759</v>
+        <v>10783</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1108</v>
+        <v>1540</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>380</v>
+        <v>1430</v>
       </c>
       <c r="N548" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O548" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="P548" t="n">
-        <v>4737</v>
+        <v>9273</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>677</v>
+        <v>1325</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>1230</v>
+        <v>800</v>
       </c>
       <c r="N549" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O549" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="P549" t="n">
-        <v>8236</v>
+        <v>5262</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1177</v>
+        <v>752</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>1750</v>
+        <v>630</v>
       </c>
       <c r="N550" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O550" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P550" t="n">
-        <v>6771</v>
+        <v>4222</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>967</v>
+        <v>603</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>770</v>
+        <v>580</v>
       </c>
       <c r="N551" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O551" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P551" t="n">
-        <v>5240</v>
+        <v>7759</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>749</v>
+        <v>1108</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="N552" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O552" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P552" t="n">
-        <v>13517</v>
+        <v>4737</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1931</v>
+        <v>677</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>650</v>
+        <v>1230</v>
       </c>
       <c r="N553" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O553" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P553" t="n">
-        <v>11462</v>
+        <v>8236</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1637</v>
+        <v>1177</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>580</v>
+        <v>1750</v>
       </c>
       <c r="N554" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O554" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P554" t="n">
-        <v>7759</v>
+        <v>6771</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1108</v>
+        <v>967</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="N555" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O555" t="n">
         <v>5500</v>
       </c>
-      <c r="O555" t="n">
-        <v>6000</v>
-      </c>
       <c r="P555" t="n">
-        <v>5744</v>
+        <v>5240</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="N556" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O556" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P556" t="n">
-        <v>4288</v>
+        <v>13517</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>613</v>
+        <v>1931</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,68 +44887,388 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E557" t="n">
+        <v>13</v>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G557" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I557" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M557" t="n">
+        <v>650</v>
+      </c>
+      <c r="N557" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O557" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P557" t="n">
+        <v>11462</v>
+      </c>
+      <c r="Q557" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R557" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S557" t="n">
+        <v>1637</v>
+      </c>
+      <c r="T557" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>9</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D558" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E558" t="n">
+        <v>13</v>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G558" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I558" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M558" t="n">
+        <v>580</v>
+      </c>
+      <c r="N558" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O558" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P558" t="n">
+        <v>7759</v>
+      </c>
+      <c r="Q558" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R558" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S558" t="n">
+        <v>1108</v>
+      </c>
+      <c r="T558" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>9</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D559" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E559" t="n">
+        <v>13</v>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G559" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I559" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M559" t="n">
+        <v>780</v>
+      </c>
+      <c r="N559" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O559" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P559" t="n">
+        <v>5744</v>
+      </c>
+      <c r="Q559" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R559" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S559" t="n">
+        <v>821</v>
+      </c>
+      <c r="T559" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>9</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D560" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E560" t="n">
+        <v>13</v>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G560" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I560" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M560" t="n">
+        <v>520</v>
+      </c>
+      <c r="N560" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O560" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P560" t="n">
+        <v>4288</v>
+      </c>
+      <c r="Q560" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R560" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S560" t="n">
+        <v>613</v>
+      </c>
+      <c r="T560" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>9</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D561" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E557" t="n">
-        <v>13</v>
-      </c>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G557" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I557" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J557" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L557" t="inlineStr">
+      <c r="E561" t="n">
+        <v>13</v>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G561" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I561" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L561" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M557" t="n">
+      <c r="M561" t="n">
         <v>80</v>
       </c>
-      <c r="N557" t="n">
+      <c r="N561" t="n">
         <v>10000</v>
       </c>
-      <c r="O557" t="n">
+      <c r="O561" t="n">
         <v>10000</v>
       </c>
-      <c r="P557" t="n">
+      <c r="P561" t="n">
         <v>10000</v>
       </c>
-      <c r="Q557" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R557" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S557" t="n">
+      <c r="Q561" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R561" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S561" t="n">
         <v>1429</v>
       </c>
-      <c r="T557" t="n">
+      <c r="T561" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T576"/>
+  <dimension ref="A1:T579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="N490" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="O490" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="P490" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39582,11 +39582,11 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>3429</v>
+        <v>714</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="N491" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O491" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P491" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>2000</v>
+        <v>571</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>480</v>
+        <v>950</v>
       </c>
       <c r="N492" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O492" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="P492" t="n">
-        <v>8292</v>
+        <v>3000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1185</v>
+        <v>429</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="N493" t="n">
-        <v>5500</v>
+        <v>24000</v>
       </c>
       <c r="O493" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="P493" t="n">
-        <v>5767</v>
+        <v>24000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>824</v>
+        <v>3429</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="N494" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O494" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P494" t="n">
-        <v>4283</v>
+        <v>14000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>612</v>
+        <v>2000</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>370</v>
+        <v>480</v>
       </c>
       <c r="N495" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O495" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="P495" t="n">
-        <v>6000</v>
+        <v>8292</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>857</v>
+        <v>1185</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>410</v>
+        <v>750</v>
       </c>
       <c r="N496" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O496" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P496" t="n">
-        <v>5000</v>
+        <v>5767</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40062,11 +40062,11 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>714</v>
+        <v>824</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="N497" t="n">
         <v>4000</v>
       </c>
       <c r="O497" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P497" t="n">
-        <v>4000</v>
+        <v>4283</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>571</v>
+        <v>612</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="N498" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="O498" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P498" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>3571</v>
+        <v>857</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N499" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O499" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P499" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40302,11 +40302,11 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>2857</v>
+        <v>714</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="N500" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O500" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P500" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40382,11 +40382,11 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>1429</v>
+        <v>571</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>490</v>
+        <v>60</v>
       </c>
       <c r="N501" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O501" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P501" t="n">
-        <v>12571</v>
+        <v>25000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1796</v>
+        <v>3571</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="N502" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P502" t="n">
-        <v>9436</v>
+        <v>20000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1348</v>
+        <v>2857</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="N503" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P503" t="n">
-        <v>6554</v>
+        <v>10000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>936</v>
+        <v>1429</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="N504" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O504" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P504" t="n">
-        <v>14000</v>
+        <v>12571</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>2000</v>
+        <v>1796</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N505" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O505" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P505" t="n">
-        <v>12000</v>
+        <v>9436</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1714</v>
+        <v>1348</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="N506" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O506" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P506" t="n">
-        <v>10000</v>
+        <v>6554</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1429</v>
+        <v>936</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N507" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O507" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P507" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="N508" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O508" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P508" t="n">
-        <v>19152</v>
+        <v>12000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>2736</v>
+        <v>1714</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>590</v>
+        <v>440</v>
       </c>
       <c r="N509" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O509" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P509" t="n">
-        <v>14576</v>
+        <v>10000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>2082</v>
+        <v>1429</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N510" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O510" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P510" t="n">
-        <v>8900</v>
+        <v>7000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1271</v>
+        <v>1000</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>1430</v>
+        <v>660</v>
       </c>
       <c r="N511" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O511" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P511" t="n">
-        <v>8762</v>
+        <v>19152</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1252</v>
+        <v>2736</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>1500</v>
+        <v>590</v>
       </c>
       <c r="N512" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O512" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P512" t="n">
-        <v>6773</v>
+        <v>14576</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>968</v>
+        <v>2082</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>1340</v>
+        <v>400</v>
       </c>
       <c r="N513" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O513" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P513" t="n">
-        <v>5291</v>
+        <v>8900</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>756</v>
+        <v>1271</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>2180</v>
+        <v>1430</v>
       </c>
       <c r="N514" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O514" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P514" t="n">
-        <v>6275</v>
+        <v>8762</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>896</v>
+        <v>1252</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="N515" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O515" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P515" t="n">
-        <v>5206</v>
+        <v>6773</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>744</v>
+        <v>968</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>860</v>
+        <v>1340</v>
       </c>
       <c r="N516" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O516" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P516" t="n">
-        <v>4267</v>
+        <v>5291</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>610</v>
+        <v>756</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>50</v>
+        <v>2180</v>
       </c>
       <c r="N517" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O517" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="P517" t="n">
-        <v>20000</v>
+        <v>6275</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>2857</v>
+        <v>896</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>90</v>
+        <v>1360</v>
       </c>
       <c r="N518" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O518" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P518" t="n">
-        <v>18000</v>
+        <v>5206</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>2571</v>
+        <v>744</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>75</v>
+        <v>860</v>
       </c>
       <c r="N519" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O519" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P519" t="n">
-        <v>15000</v>
+        <v>4267</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>2143</v>
+        <v>610</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="N520" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O520" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P520" t="n">
-        <v>7759</v>
+        <v>20000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1108</v>
+        <v>2857</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>780</v>
+        <v>90</v>
       </c>
       <c r="N521" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="O521" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P521" t="n">
-        <v>5744</v>
+        <v>18000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>821</v>
+        <v>2571</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>520</v>
+        <v>75</v>
       </c>
       <c r="N522" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O522" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P522" t="n">
-        <v>4288</v>
+        <v>15000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>613</v>
+        <v>2143</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="N523" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O523" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P523" t="n">
-        <v>20000</v>
+        <v>7759</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>2857</v>
+        <v>1108</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>220</v>
+        <v>780</v>
       </c>
       <c r="N524" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="O524" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P524" t="n">
-        <v>16000</v>
+        <v>5744</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>2286</v>
+        <v>821</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="N525" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O525" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P525" t="n">
-        <v>12000</v>
+        <v>4288</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1714</v>
+        <v>613</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N526" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O526" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P526" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1000</v>
+        <v>2857</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="N527" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O527" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="P527" t="n">
-        <v>6233</v>
+        <v>16000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42542,11 +42542,11 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>890</v>
+        <v>2286</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>960</v>
+        <v>280</v>
       </c>
       <c r="N528" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O528" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P528" t="n">
-        <v>4234</v>
+        <v>12000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42622,11 +42622,11 @@
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>605</v>
+        <v>1714</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>860</v>
+        <v>95</v>
       </c>
       <c r="N529" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O529" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P529" t="n">
-        <v>2738</v>
+        <v>7000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42702,11 +42702,11 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>391</v>
+        <v>1000</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>1450</v>
+        <v>750</v>
       </c>
       <c r="N530" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O530" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P530" t="n">
-        <v>7776</v>
+        <v>6233</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42782,11 +42782,11 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1111</v>
+        <v>890</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42847,13 +42847,13 @@
         <v>960</v>
       </c>
       <c r="N531" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O531" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P531" t="n">
-        <v>5266</v>
+        <v>4234</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42862,11 +42862,11 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>752</v>
+        <v>605</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>680</v>
+        <v>860</v>
       </c>
       <c r="N532" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="O532" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="P532" t="n">
-        <v>4206</v>
+        <v>2738</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42942,11 +42942,11 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>601</v>
+        <v>391</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>300</v>
+        <v>1450</v>
       </c>
       <c r="N533" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O533" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P533" t="n">
-        <v>12000</v>
+        <v>7776</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1714</v>
+        <v>1111</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="N534" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O534" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P534" t="n">
-        <v>9000</v>
+        <v>5266</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1286</v>
+        <v>752</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>220</v>
+        <v>680</v>
       </c>
       <c r="N535" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O535" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P535" t="n">
-        <v>6000</v>
+        <v>4206</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>857</v>
+        <v>601</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N536" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O536" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P536" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>2000</v>
+        <v>1714</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="N537" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O537" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P537" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1571</v>
+        <v>1286</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N538" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O538" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P538" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1143</v>
+        <v>857</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="N539" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O539" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P539" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1071</v>
+        <v>2000</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="N540" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O540" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="P540" t="n">
-        <v>6250</v>
+        <v>11000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>893</v>
+        <v>1571</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N541" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O541" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P541" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>643</v>
+        <v>1143</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N542" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O542" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P542" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>464</v>
+        <v>1071</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>420</v>
+        <v>800</v>
       </c>
       <c r="N543" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O543" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="P543" t="n">
-        <v>13405</v>
+        <v>6250</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1915</v>
+        <v>893</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="N544" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O544" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P544" t="n">
-        <v>10547</v>
+        <v>4500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>1507</v>
+        <v>643</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N545" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O545" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="P545" t="n">
-        <v>6222</v>
+        <v>3250</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>889</v>
+        <v>464</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="N546" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O546" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P546" t="n">
-        <v>4271</v>
+        <v>13405</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>610</v>
+        <v>1915</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>780</v>
+        <v>640</v>
       </c>
       <c r="N547" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O547" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="P547" t="n">
-        <v>7256</v>
+        <v>10547</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1037</v>
+        <v>1507</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>1180</v>
+        <v>450</v>
       </c>
       <c r="N548" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O548" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="P548" t="n">
-        <v>5754</v>
+        <v>6222</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>822</v>
+        <v>889</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>470</v>
+        <v>175</v>
       </c>
       <c r="N549" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O549" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P549" t="n">
-        <v>3723</v>
+        <v>4271</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>1130</v>
+        <v>780</v>
       </c>
       <c r="N550" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O550" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P550" t="n">
-        <v>8801</v>
+        <v>7256</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1257</v>
+        <v>1037</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>1550</v>
+        <v>1180</v>
       </c>
       <c r="N551" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O551" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P551" t="n">
-        <v>7774</v>
+        <v>5754</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1111</v>
+        <v>822</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>1380</v>
+        <v>470</v>
       </c>
       <c r="N552" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O552" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P552" t="n">
-        <v>4761</v>
+        <v>3723</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>680</v>
+        <v>532</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>120</v>
+        <v>1130</v>
       </c>
       <c r="N553" t="n">
-        <v>24000</v>
+        <v>8500</v>
       </c>
       <c r="O553" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P553" t="n">
-        <v>24000</v>
+        <v>8801</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>3429</v>
+        <v>1257</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>280</v>
+        <v>1550</v>
       </c>
       <c r="N554" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="O554" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P554" t="n">
-        <v>21000</v>
+        <v>7774</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>3000</v>
+        <v>1111</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>190</v>
+        <v>1380</v>
       </c>
       <c r="N555" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="O555" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P555" t="n">
-        <v>18000</v>
+        <v>4761</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>2571</v>
+        <v>680</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N556" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O556" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P556" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>3071</v>
+        <v>3429</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N557" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O557" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P557" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N558" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O558" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P558" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>1130</v>
+        <v>360</v>
       </c>
       <c r="N559" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O559" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P559" t="n">
-        <v>7788</v>
+        <v>21500</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45102,11 +45102,11 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1113</v>
+        <v>3071</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="N560" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="O560" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P560" t="n">
-        <v>5740</v>
+        <v>17500</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45182,11 +45182,11 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>820</v>
+        <v>2500</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>820</v>
+        <v>150</v>
       </c>
       <c r="N561" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O561" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P561" t="n">
-        <v>4232</v>
+        <v>10000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45262,11 +45262,11 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>605</v>
+        <v>1429</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,7 +45324,7 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="N562" t="n">
         <v>7500</v>
@@ -45333,7 +45333,7 @@
         <v>8000</v>
       </c>
       <c r="P562" t="n">
-        <v>7741</v>
+        <v>7788</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>940</v>
+        <v>1250</v>
       </c>
       <c r="N563" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="O563" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P563" t="n">
-        <v>6787</v>
+        <v>5740</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="N564" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O564" t="n">
         <v>4500</v>
       </c>
-      <c r="O564" t="n">
-        <v>5000</v>
-      </c>
       <c r="P564" t="n">
-        <v>4774</v>
+        <v>4232</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>682</v>
+        <v>605</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="N565" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O565" t="n">
         <v>8000</v>
       </c>
-      <c r="O565" t="n">
-        <v>8500</v>
-      </c>
       <c r="P565" t="n">
-        <v>8372</v>
+        <v>7741</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1196</v>
+        <v>1106</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="N566" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O566" t="n">
         <v>7000</v>
       </c>
-      <c r="O566" t="n">
-        <v>7500</v>
-      </c>
       <c r="P566" t="n">
-        <v>7284</v>
+        <v>6787</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1041</v>
+        <v>970</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="N567" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O567" t="n">
         <v>5000</v>
       </c>
-      <c r="O567" t="n">
-        <v>5500</v>
-      </c>
       <c r="P567" t="n">
-        <v>5278</v>
+        <v>4774</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="N568" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O568" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="P568" t="n">
-        <v>17000</v>
+        <v>8372</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>2429</v>
+        <v>1196</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="N569" t="n">
         <v>7000</v>
       </c>
       <c r="O569" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P569" t="n">
-        <v>7500</v>
+        <v>7284</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>1350</v>
+        <v>630</v>
       </c>
       <c r="N570" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O570" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P570" t="n">
-        <v>6500</v>
+        <v>5278</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>929</v>
+        <v>754</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="N571" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O571" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P571" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>643</v>
+        <v>2429</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="N572" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O572" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P572" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>429</v>
+        <v>1071</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="N573" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O573" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P573" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>714</v>
+        <v>929</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N574" t="n">
         <v>4000</v>
       </c>
       <c r="O574" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P574" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46302,11 +46302,11 @@
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,17 +46360,17 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="N575" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O575" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P575" t="n">
         <v>3000</v>
@@ -46382,7 +46382,7 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S575" t="n">
@@ -46440,35 +46440,275 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M576" t="n">
+        <v>900</v>
+      </c>
+      <c r="N576" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O576" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P576" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q576" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R576" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S576" t="n">
+        <v>714</v>
+      </c>
+      <c r="T576" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>9</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D577" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E577" t="n">
+        <v>13</v>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G577" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I577" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M577" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N577" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O577" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P577" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q577" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R577" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S577" t="n">
+        <v>571</v>
+      </c>
+      <c r="T577" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>9</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D578" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E578" t="n">
+        <v>13</v>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G578" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I578" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M578" t="n">
+        <v>950</v>
+      </c>
+      <c r="N578" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O578" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P578" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q578" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R578" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S578" t="n">
+        <v>429</v>
+      </c>
+      <c r="T578" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>9</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D579" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E579" t="n">
+        <v>13</v>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G579" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I579" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M576" t="n">
+      <c r="M579" t="n">
         <v>750</v>
       </c>
-      <c r="N576" t="n">
+      <c r="N579" t="n">
         <v>2000</v>
       </c>
-      <c r="O576" t="n">
+      <c r="O579" t="n">
         <v>2000</v>
       </c>
-      <c r="P576" t="n">
+      <c r="P579" t="n">
         <v>2000</v>
       </c>
-      <c r="Q576" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R576" t="inlineStr">
+      <c r="Q579" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R579" t="inlineStr">
         <is>
           <t>Provincia de San Antonio</t>
         </is>
       </c>
-      <c r="S576" t="n">
+      <c r="S579" t="n">
         <v>286</v>
       </c>
-      <c r="T576" t="n">
+      <c r="T579" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T579"/>
+  <dimension ref="A1:T582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="N498" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O498" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P498" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>857</v>
+        <v>714</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>410</v>
+        <v>980</v>
       </c>
       <c r="N499" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O499" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P499" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>714</v>
+        <v>571</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>380</v>
+        <v>750</v>
       </c>
       <c r="N500" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O500" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P500" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>571</v>
+        <v>429</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="N501" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="O501" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P501" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>3571</v>
+        <v>857</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N502" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O502" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P502" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>2857</v>
+        <v>714</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="N503" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O503" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P503" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1429</v>
+        <v>571</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>490</v>
+        <v>60</v>
       </c>
       <c r="N504" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O504" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P504" t="n">
-        <v>12571</v>
+        <v>25000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1796</v>
+        <v>3571</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="N505" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O505" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P505" t="n">
-        <v>9436</v>
+        <v>20000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1348</v>
+        <v>2857</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="N506" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O506" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P506" t="n">
-        <v>6554</v>
+        <v>10000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>936</v>
+        <v>1429</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="N507" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O507" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P507" t="n">
-        <v>14000</v>
+        <v>12571</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>2000</v>
+        <v>1796</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N508" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O508" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P508" t="n">
-        <v>12000</v>
+        <v>9436</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1714</v>
+        <v>1348</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O509" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P509" t="n">
-        <v>10000</v>
+        <v>6554</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1429</v>
+        <v>936</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N510" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O510" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P510" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="N511" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O511" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P511" t="n">
-        <v>19152</v>
+        <v>12000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>2736</v>
+        <v>1714</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>590</v>
+        <v>440</v>
       </c>
       <c r="N512" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O512" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P512" t="n">
-        <v>14576</v>
+        <v>10000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>2082</v>
+        <v>1429</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N513" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O513" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P513" t="n">
-        <v>8900</v>
+        <v>7000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1271</v>
+        <v>1000</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>1430</v>
+        <v>660</v>
       </c>
       <c r="N514" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O514" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P514" t="n">
-        <v>8762</v>
+        <v>19152</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1252</v>
+        <v>2736</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>1500</v>
+        <v>590</v>
       </c>
       <c r="N515" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O515" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P515" t="n">
-        <v>6773</v>
+        <v>14576</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>968</v>
+        <v>2082</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>1340</v>
+        <v>400</v>
       </c>
       <c r="N516" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O516" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P516" t="n">
-        <v>5291</v>
+        <v>8900</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>756</v>
+        <v>1271</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>2180</v>
+        <v>1430</v>
       </c>
       <c r="N517" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O517" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P517" t="n">
-        <v>6275</v>
+        <v>8762</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>896</v>
+        <v>1252</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="N518" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O518" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P518" t="n">
-        <v>5206</v>
+        <v>6773</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>744</v>
+        <v>968</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>860</v>
+        <v>1340</v>
       </c>
       <c r="N519" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O519" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P519" t="n">
-        <v>4267</v>
+        <v>5291</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>610</v>
+        <v>756</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>50</v>
+        <v>2180</v>
       </c>
       <c r="N520" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O520" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="P520" t="n">
-        <v>20000</v>
+        <v>6275</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>2857</v>
+        <v>896</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>90</v>
+        <v>1360</v>
       </c>
       <c r="N521" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O521" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P521" t="n">
-        <v>18000</v>
+        <v>5206</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>2571</v>
+        <v>744</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>75</v>
+        <v>860</v>
       </c>
       <c r="N522" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O522" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P522" t="n">
-        <v>15000</v>
+        <v>4267</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>2143</v>
+        <v>610</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="N523" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O523" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P523" t="n">
-        <v>7759</v>
+        <v>20000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1108</v>
+        <v>2857</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>780</v>
+        <v>90</v>
       </c>
       <c r="N524" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="O524" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P524" t="n">
-        <v>5744</v>
+        <v>18000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>821</v>
+        <v>2571</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>520</v>
+        <v>75</v>
       </c>
       <c r="N525" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O525" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P525" t="n">
-        <v>4288</v>
+        <v>15000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>613</v>
+        <v>2143</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="N526" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O526" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P526" t="n">
-        <v>20000</v>
+        <v>7759</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>2857</v>
+        <v>1108</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>220</v>
+        <v>780</v>
       </c>
       <c r="N527" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="O527" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P527" t="n">
-        <v>16000</v>
+        <v>5744</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>2286</v>
+        <v>821</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="N528" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O528" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P528" t="n">
-        <v>12000</v>
+        <v>4288</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1714</v>
+        <v>613</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N529" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O529" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P529" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1000</v>
+        <v>2857</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="N530" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O530" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="P530" t="n">
-        <v>6233</v>
+        <v>16000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42782,11 +42782,11 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>890</v>
+        <v>2286</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>960</v>
+        <v>280</v>
       </c>
       <c r="N531" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O531" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P531" t="n">
-        <v>4234</v>
+        <v>12000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42862,11 +42862,11 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>605</v>
+        <v>1714</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>860</v>
+        <v>95</v>
       </c>
       <c r="N532" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O532" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P532" t="n">
-        <v>2738</v>
+        <v>7000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42942,11 +42942,11 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>391</v>
+        <v>1000</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>1450</v>
+        <v>750</v>
       </c>
       <c r="N533" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O533" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P533" t="n">
-        <v>7776</v>
+        <v>6233</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43022,11 +43022,11 @@
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1111</v>
+        <v>890</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43087,13 +43087,13 @@
         <v>960</v>
       </c>
       <c r="N534" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O534" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P534" t="n">
-        <v>5266</v>
+        <v>4234</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43102,11 +43102,11 @@
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>752</v>
+        <v>605</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>680</v>
+        <v>860</v>
       </c>
       <c r="N535" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="O535" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="P535" t="n">
-        <v>4206</v>
+        <v>2738</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43182,11 +43182,11 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>601</v>
+        <v>391</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>300</v>
+        <v>1450</v>
       </c>
       <c r="N536" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O536" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P536" t="n">
-        <v>12000</v>
+        <v>7776</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1714</v>
+        <v>1111</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="N537" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O537" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P537" t="n">
-        <v>9000</v>
+        <v>5266</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1286</v>
+        <v>752</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>220</v>
+        <v>680</v>
       </c>
       <c r="N538" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O538" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P538" t="n">
-        <v>6000</v>
+        <v>4206</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>857</v>
+        <v>601</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N539" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O539" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P539" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>2000</v>
+        <v>1714</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="N540" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O540" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P540" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1571</v>
+        <v>1286</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N541" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O541" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P541" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1143</v>
+        <v>857</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="N542" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O542" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P542" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1071</v>
+        <v>2000</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="N543" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O543" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="P543" t="n">
-        <v>6250</v>
+        <v>11000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>893</v>
+        <v>1571</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N544" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O544" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P544" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>643</v>
+        <v>1143</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N545" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O545" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P545" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>464</v>
+        <v>1071</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>420</v>
+        <v>800</v>
       </c>
       <c r="N546" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O546" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="P546" t="n">
-        <v>13405</v>
+        <v>6250</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1915</v>
+        <v>893</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="N547" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O547" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P547" t="n">
-        <v>10547</v>
+        <v>4500</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1507</v>
+        <v>643</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N548" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O548" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="P548" t="n">
-        <v>6222</v>
+        <v>3250</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>889</v>
+        <v>464</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="N549" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O549" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P549" t="n">
-        <v>4271</v>
+        <v>13405</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>610</v>
+        <v>1915</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>780</v>
+        <v>640</v>
       </c>
       <c r="N550" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O550" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="P550" t="n">
-        <v>7256</v>
+        <v>10547</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1037</v>
+        <v>1507</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>1180</v>
+        <v>450</v>
       </c>
       <c r="N551" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O551" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="P551" t="n">
-        <v>5754</v>
+        <v>6222</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>822</v>
+        <v>889</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>470</v>
+        <v>175</v>
       </c>
       <c r="N552" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O552" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P552" t="n">
-        <v>3723</v>
+        <v>4271</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>1130</v>
+        <v>780</v>
       </c>
       <c r="N553" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O553" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P553" t="n">
-        <v>8801</v>
+        <v>7256</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1257</v>
+        <v>1037</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>1550</v>
+        <v>1180</v>
       </c>
       <c r="N554" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O554" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P554" t="n">
-        <v>7774</v>
+        <v>5754</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1111</v>
+        <v>822</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>1380</v>
+        <v>470</v>
       </c>
       <c r="N555" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O555" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P555" t="n">
-        <v>4761</v>
+        <v>3723</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>680</v>
+        <v>532</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>120</v>
+        <v>1130</v>
       </c>
       <c r="N556" t="n">
-        <v>24000</v>
+        <v>8500</v>
       </c>
       <c r="O556" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P556" t="n">
-        <v>24000</v>
+        <v>8801</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>3429</v>
+        <v>1257</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>280</v>
+        <v>1550</v>
       </c>
       <c r="N557" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="O557" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P557" t="n">
-        <v>21000</v>
+        <v>7774</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>3000</v>
+        <v>1111</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>190</v>
+        <v>1380</v>
       </c>
       <c r="N558" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="O558" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P558" t="n">
-        <v>18000</v>
+        <v>4761</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>2571</v>
+        <v>680</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N559" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O559" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P559" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>3071</v>
+        <v>3429</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N560" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O560" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P560" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N561" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O561" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P561" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>1130</v>
+        <v>360</v>
       </c>
       <c r="N562" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O562" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P562" t="n">
-        <v>7788</v>
+        <v>21500</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1113</v>
+        <v>3071</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="N563" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="O563" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P563" t="n">
-        <v>5740</v>
+        <v>17500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>820</v>
+        <v>2500</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>820</v>
+        <v>150</v>
       </c>
       <c r="N564" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O564" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P564" t="n">
-        <v>4232</v>
+        <v>10000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>605</v>
+        <v>1429</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,7 +45564,7 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="N565" t="n">
         <v>7500</v>
@@ -45573,7 +45573,7 @@
         <v>8000</v>
       </c>
       <c r="P565" t="n">
-        <v>7741</v>
+        <v>7788</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>940</v>
+        <v>1250</v>
       </c>
       <c r="N566" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="O566" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P566" t="n">
-        <v>6787</v>
+        <v>5740</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="N567" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O567" t="n">
         <v>4500</v>
       </c>
-      <c r="O567" t="n">
-        <v>5000</v>
-      </c>
       <c r="P567" t="n">
-        <v>4774</v>
+        <v>4232</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>682</v>
+        <v>605</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="N568" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O568" t="n">
         <v>8000</v>
       </c>
-      <c r="O568" t="n">
-        <v>8500</v>
-      </c>
       <c r="P568" t="n">
-        <v>8372</v>
+        <v>7741</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1196</v>
+        <v>1106</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="N569" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O569" t="n">
         <v>7000</v>
       </c>
-      <c r="O569" t="n">
-        <v>7500</v>
-      </c>
       <c r="P569" t="n">
-        <v>7284</v>
+        <v>6787</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1041</v>
+        <v>970</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="N570" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O570" t="n">
         <v>5000</v>
       </c>
-      <c r="O570" t="n">
-        <v>5500</v>
-      </c>
       <c r="P570" t="n">
-        <v>5278</v>
+        <v>4774</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="N571" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O571" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="P571" t="n">
-        <v>17000</v>
+        <v>8372</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>2429</v>
+        <v>1196</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="N572" t="n">
         <v>7000</v>
       </c>
       <c r="O572" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P572" t="n">
-        <v>7500</v>
+        <v>7284</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>1350</v>
+        <v>630</v>
       </c>
       <c r="N573" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O573" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P573" t="n">
-        <v>6500</v>
+        <v>5278</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>929</v>
+        <v>754</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="N574" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O574" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P574" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>643</v>
+        <v>2429</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="N575" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O575" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P575" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>429</v>
+        <v>1071</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="N576" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O576" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P576" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46462,11 +46462,11 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>714</v>
+        <v>929</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N577" t="n">
         <v>4000</v>
       </c>
       <c r="O577" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P577" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46542,11 +46542,11 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,17 +46600,17 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="N578" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O578" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P578" t="n">
         <v>3000</v>
@@ -46622,7 +46622,7 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S578" t="n">
@@ -46680,35 +46680,275 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M579" t="n">
+        <v>900</v>
+      </c>
+      <c r="N579" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O579" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P579" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q579" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R579" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S579" t="n">
+        <v>714</v>
+      </c>
+      <c r="T579" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>9</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D580" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E580" t="n">
+        <v>13</v>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G580" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I580" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M580" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N580" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O580" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P580" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q580" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R580" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S580" t="n">
+        <v>571</v>
+      </c>
+      <c r="T580" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>9</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D581" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E581" t="n">
+        <v>13</v>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G581" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I581" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M581" t="n">
+        <v>950</v>
+      </c>
+      <c r="N581" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O581" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P581" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q581" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R581" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S581" t="n">
+        <v>429</v>
+      </c>
+      <c r="T581" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>9</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D582" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E582" t="n">
+        <v>13</v>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G582" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I582" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M579" t="n">
+      <c r="M582" t="n">
         <v>750</v>
       </c>
-      <c r="N579" t="n">
+      <c r="N582" t="n">
         <v>2000</v>
       </c>
-      <c r="O579" t="n">
+      <c r="O582" t="n">
         <v>2000</v>
       </c>
-      <c r="P579" t="n">
+      <c r="P582" t="n">
         <v>2000</v>
       </c>
-      <c r="Q579" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R579" t="inlineStr">
+      <c r="Q582" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R582" t="inlineStr">
         <is>
           <t>Provincia de San Antonio</t>
         </is>
       </c>
-      <c r="S579" t="n">
+      <c r="S582" t="n">
         <v>286</v>
       </c>
-      <c r="T579" t="n">
+      <c r="T582" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T582"/>
+  <dimension ref="A1:T585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="N467" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O467" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P467" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37742,11 +37742,11 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1357</v>
+        <v>714</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>900</v>
+        <v>510</v>
       </c>
       <c r="N468" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P468" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37822,11 +37822,11 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1071</v>
+        <v>571</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N469" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O469" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P469" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37902,11 +37902,11 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>643</v>
+        <v>429</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N470" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O470" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1714</v>
+        <v>1357</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>340</v>
+        <v>900</v>
       </c>
       <c r="N471" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O471" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P471" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N472" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O472" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P472" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>960</v>
+        <v>250</v>
       </c>
       <c r="N473" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P473" t="n">
-        <v>7708</v>
+        <v>12000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1101</v>
+        <v>1714</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>1240</v>
+        <v>340</v>
       </c>
       <c r="N474" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>6774</v>
+        <v>10000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>968</v>
+        <v>1429</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>1010</v>
+        <v>180</v>
       </c>
       <c r="N475" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O475" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P475" t="n">
-        <v>4728</v>
+        <v>7000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>780</v>
+        <v>960</v>
       </c>
       <c r="N476" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="O476" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P476" t="n">
-        <v>2756</v>
+        <v>7708</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>394</v>
+        <v>1101</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>1000</v>
+        <v>1240</v>
       </c>
       <c r="N477" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="O477" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P477" t="n">
-        <v>8780</v>
+        <v>6774</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1254</v>
+        <v>968</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="N478" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O478" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P478" t="n">
-        <v>7288</v>
+        <v>4728</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1041</v>
+        <v>675</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>900</v>
+        <v>780</v>
       </c>
       <c r="N479" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="O479" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P479" t="n">
-        <v>4789</v>
+        <v>2756</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>684</v>
+        <v>394</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="N480" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O480" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P480" t="n">
-        <v>14526</v>
+        <v>8780</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38782,11 +38782,11 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>2075</v>
+        <v>1254</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>450</v>
+        <v>1040</v>
       </c>
       <c r="N481" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O481" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P481" t="n">
-        <v>11444</v>
+        <v>7288</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38862,11 +38862,11 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1635</v>
+        <v>1041</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>430</v>
+        <v>900</v>
       </c>
       <c r="N482" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O482" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P482" t="n">
-        <v>7419</v>
+        <v>4789</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38942,11 +38942,11 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1060</v>
+        <v>684</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N483" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O483" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P483" t="n">
-        <v>8620</v>
+        <v>14526</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39022,11 +39022,11 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1231</v>
+        <v>2075</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>1540</v>
+        <v>450</v>
       </c>
       <c r="N484" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O484" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P484" t="n">
-        <v>7779</v>
+        <v>11444</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39102,11 +39102,11 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1111</v>
+        <v>1635</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>740</v>
+        <v>430</v>
       </c>
       <c r="N485" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O485" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P485" t="n">
-        <v>4797</v>
+        <v>7419</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>685</v>
+        <v>1060</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="N486" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O486" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P486" t="n">
-        <v>20476</v>
+        <v>8620</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>2925</v>
+        <v>1231</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>560</v>
+        <v>1540</v>
       </c>
       <c r="N487" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O487" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P487" t="n">
-        <v>18571</v>
+        <v>7779</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>2653</v>
+        <v>1111</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>380</v>
+        <v>740</v>
       </c>
       <c r="N488" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O488" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P488" t="n">
-        <v>15526</v>
+        <v>4797</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>2218</v>
+        <v>685</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="N489" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O489" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P489" t="n">
-        <v>7776</v>
+        <v>20476</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1111</v>
+        <v>2925</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>980</v>
+        <v>560</v>
       </c>
       <c r="N490" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O490" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="P490" t="n">
-        <v>5000</v>
+        <v>18571</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39582,11 +39582,11 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>714</v>
+        <v>2653</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>1200</v>
+        <v>380</v>
       </c>
       <c r="N491" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O491" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="P491" t="n">
-        <v>4000</v>
+        <v>15526</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>571</v>
+        <v>2218</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>950</v>
+        <v>380</v>
       </c>
       <c r="N492" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="O492" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P492" t="n">
-        <v>3000</v>
+        <v>7776</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>429</v>
+        <v>1111</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="N493" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="O493" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="P493" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>3429</v>
+        <v>714</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="N494" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O494" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P494" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>2000</v>
+        <v>571</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>480</v>
+        <v>950</v>
       </c>
       <c r="N495" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O495" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="P495" t="n">
-        <v>8292</v>
+        <v>3000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1185</v>
+        <v>429</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="N496" t="n">
-        <v>5500</v>
+        <v>24000</v>
       </c>
       <c r="O496" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="P496" t="n">
-        <v>5767</v>
+        <v>24000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>824</v>
+        <v>3429</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="N497" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O497" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P497" t="n">
-        <v>4283</v>
+        <v>14000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>612</v>
+        <v>2000</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="N498" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O498" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="P498" t="n">
-        <v>5000</v>
+        <v>8292</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>714</v>
+        <v>1185</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="N499" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O499" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P499" t="n">
-        <v>4000</v>
+        <v>5767</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40302,11 +40302,11 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>571</v>
+        <v>824</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>750</v>
+        <v>460</v>
       </c>
       <c r="N500" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O500" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P500" t="n">
-        <v>3000</v>
+        <v>4283</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40382,11 +40382,11 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>429</v>
+        <v>612</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="N501" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O501" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P501" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>857</v>
+        <v>714</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>410</v>
+        <v>980</v>
       </c>
       <c r="N502" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O502" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P502" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>714</v>
+        <v>571</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>380</v>
+        <v>750</v>
       </c>
       <c r="N503" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O503" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P503" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>571</v>
+        <v>429</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="N504" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="O504" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P504" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>3571</v>
+        <v>857</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N505" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O505" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P505" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>2857</v>
+        <v>714</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="N506" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O506" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P506" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1429</v>
+        <v>571</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>490</v>
+        <v>60</v>
       </c>
       <c r="N507" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O507" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P507" t="n">
-        <v>12571</v>
+        <v>25000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1796</v>
+        <v>3571</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="N508" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O508" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P508" t="n">
-        <v>9436</v>
+        <v>20000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41022,11 +41022,11 @@
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1348</v>
+        <v>2857</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="N509" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O509" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P509" t="n">
-        <v>6554</v>
+        <v>10000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41102,11 +41102,11 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>936</v>
+        <v>1429</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="N510" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O510" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P510" t="n">
-        <v>14000</v>
+        <v>12571</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>2000</v>
+        <v>1796</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N511" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O511" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P511" t="n">
-        <v>12000</v>
+        <v>9436</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1714</v>
+        <v>1348</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="N512" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O512" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P512" t="n">
-        <v>10000</v>
+        <v>6554</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>1429</v>
+        <v>936</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N513" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O513" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P513" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="N514" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O514" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P514" t="n">
-        <v>19152</v>
+        <v>12000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>2736</v>
+        <v>1714</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>590</v>
+        <v>440</v>
       </c>
       <c r="N515" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O515" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P515" t="n">
-        <v>14576</v>
+        <v>10000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>2082</v>
+        <v>1429</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N516" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O516" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P516" t="n">
-        <v>8900</v>
+        <v>7000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1271</v>
+        <v>1000</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>1430</v>
+        <v>660</v>
       </c>
       <c r="N517" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O517" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P517" t="n">
-        <v>8762</v>
+        <v>19152</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>1252</v>
+        <v>2736</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>1500</v>
+        <v>590</v>
       </c>
       <c r="N518" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O518" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P518" t="n">
-        <v>6773</v>
+        <v>14576</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>968</v>
+        <v>2082</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>1340</v>
+        <v>400</v>
       </c>
       <c r="N519" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O519" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P519" t="n">
-        <v>5291</v>
+        <v>8900</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>756</v>
+        <v>1271</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>2180</v>
+        <v>1430</v>
       </c>
       <c r="N520" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O520" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P520" t="n">
-        <v>6275</v>
+        <v>8762</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>896</v>
+        <v>1252</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="N521" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O521" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P521" t="n">
-        <v>5206</v>
+        <v>6773</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>744</v>
+        <v>968</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>860</v>
+        <v>1340</v>
       </c>
       <c r="N522" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O522" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P522" t="n">
-        <v>4267</v>
+        <v>5291</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>610</v>
+        <v>756</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>50</v>
+        <v>2180</v>
       </c>
       <c r="N523" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O523" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="P523" t="n">
-        <v>20000</v>
+        <v>6275</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>2857</v>
+        <v>896</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>90</v>
+        <v>1360</v>
       </c>
       <c r="N524" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O524" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P524" t="n">
-        <v>18000</v>
+        <v>5206</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>2571</v>
+        <v>744</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>75</v>
+        <v>860</v>
       </c>
       <c r="N525" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O525" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P525" t="n">
-        <v>15000</v>
+        <v>4267</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>2143</v>
+        <v>610</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="N526" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O526" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P526" t="n">
-        <v>7759</v>
+        <v>20000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1108</v>
+        <v>2857</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>780</v>
+        <v>90</v>
       </c>
       <c r="N527" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="O527" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P527" t="n">
-        <v>5744</v>
+        <v>18000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>821</v>
+        <v>2571</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>520</v>
+        <v>75</v>
       </c>
       <c r="N528" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O528" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P528" t="n">
-        <v>4288</v>
+        <v>15000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>613</v>
+        <v>2143</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="N529" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O529" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P529" t="n">
-        <v>20000</v>
+        <v>7759</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>2857</v>
+        <v>1108</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>220</v>
+        <v>780</v>
       </c>
       <c r="N530" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="O530" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P530" t="n">
-        <v>16000</v>
+        <v>5744</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>2286</v>
+        <v>821</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="N531" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O531" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P531" t="n">
-        <v>12000</v>
+        <v>4288</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1714</v>
+        <v>613</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N532" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O532" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P532" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1000</v>
+        <v>2857</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="N533" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O533" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="P533" t="n">
-        <v>6233</v>
+        <v>16000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43022,11 +43022,11 @@
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>890</v>
+        <v>2286</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>960</v>
+        <v>280</v>
       </c>
       <c r="N534" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O534" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P534" t="n">
-        <v>4234</v>
+        <v>12000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43102,11 +43102,11 @@
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>605</v>
+        <v>1714</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>860</v>
+        <v>95</v>
       </c>
       <c r="N535" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O535" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P535" t="n">
-        <v>2738</v>
+        <v>7000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43182,11 +43182,11 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>391</v>
+        <v>1000</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>1450</v>
+        <v>750</v>
       </c>
       <c r="N536" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O536" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P536" t="n">
-        <v>7776</v>
+        <v>6233</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1111</v>
+        <v>890</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43327,13 +43327,13 @@
         <v>960</v>
       </c>
       <c r="N537" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O537" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P537" t="n">
-        <v>5266</v>
+        <v>4234</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43342,11 +43342,11 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>752</v>
+        <v>605</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>680</v>
+        <v>860</v>
       </c>
       <c r="N538" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="O538" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="P538" t="n">
-        <v>4206</v>
+        <v>2738</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43422,11 +43422,11 @@
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>601</v>
+        <v>391</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>300</v>
+        <v>1450</v>
       </c>
       <c r="N539" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O539" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P539" t="n">
-        <v>12000</v>
+        <v>7776</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1714</v>
+        <v>1111</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="N540" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O540" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P540" t="n">
-        <v>9000</v>
+        <v>5266</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1286</v>
+        <v>752</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>220</v>
+        <v>680</v>
       </c>
       <c r="N541" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O541" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P541" t="n">
-        <v>6000</v>
+        <v>4206</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>857</v>
+        <v>601</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N542" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O542" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P542" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>2000</v>
+        <v>1714</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="N543" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O543" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P543" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1571</v>
+        <v>1286</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N544" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O544" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P544" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>1143</v>
+        <v>857</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="N545" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O545" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P545" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1071</v>
+        <v>2000</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="N546" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O546" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="P546" t="n">
-        <v>6250</v>
+        <v>11000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>893</v>
+        <v>1571</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N547" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O547" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P547" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>643</v>
+        <v>1143</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N548" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O548" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P548" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>464</v>
+        <v>1071</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>420</v>
+        <v>800</v>
       </c>
       <c r="N549" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O549" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="P549" t="n">
-        <v>13405</v>
+        <v>6250</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1915</v>
+        <v>893</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="N550" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O550" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P550" t="n">
-        <v>10547</v>
+        <v>4500</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1507</v>
+        <v>643</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N551" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O551" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="P551" t="n">
-        <v>6222</v>
+        <v>3250</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>889</v>
+        <v>464</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="N552" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O552" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P552" t="n">
-        <v>4271</v>
+        <v>13405</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>610</v>
+        <v>1915</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>780</v>
+        <v>640</v>
       </c>
       <c r="N553" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O553" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="P553" t="n">
-        <v>7256</v>
+        <v>10547</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1037</v>
+        <v>1507</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>1180</v>
+        <v>450</v>
       </c>
       <c r="N554" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O554" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="P554" t="n">
-        <v>5754</v>
+        <v>6222</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>822</v>
+        <v>889</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>470</v>
+        <v>175</v>
       </c>
       <c r="N555" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O555" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P555" t="n">
-        <v>3723</v>
+        <v>4271</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>1130</v>
+        <v>780</v>
       </c>
       <c r="N556" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O556" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P556" t="n">
-        <v>8801</v>
+        <v>7256</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1257</v>
+        <v>1037</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>1550</v>
+        <v>1180</v>
       </c>
       <c r="N557" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O557" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P557" t="n">
-        <v>7774</v>
+        <v>5754</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1111</v>
+        <v>822</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>1380</v>
+        <v>470</v>
       </c>
       <c r="N558" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O558" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P558" t="n">
-        <v>4761</v>
+        <v>3723</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>680</v>
+        <v>532</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>120</v>
+        <v>1130</v>
       </c>
       <c r="N559" t="n">
-        <v>24000</v>
+        <v>8500</v>
       </c>
       <c r="O559" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P559" t="n">
-        <v>24000</v>
+        <v>8801</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>3429</v>
+        <v>1257</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>280</v>
+        <v>1550</v>
       </c>
       <c r="N560" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="O560" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P560" t="n">
-        <v>21000</v>
+        <v>7774</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>3000</v>
+        <v>1111</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>190</v>
+        <v>1380</v>
       </c>
       <c r="N561" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="O561" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P561" t="n">
-        <v>18000</v>
+        <v>4761</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>2571</v>
+        <v>680</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N562" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O562" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P562" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>3071</v>
+        <v>3429</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N563" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O563" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P563" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N564" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O564" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P564" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>1130</v>
+        <v>360</v>
       </c>
       <c r="N565" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O565" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P565" t="n">
-        <v>7788</v>
+        <v>21500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1113</v>
+        <v>3071</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="N566" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="O566" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P566" t="n">
-        <v>5740</v>
+        <v>17500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>820</v>
+        <v>2500</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>820</v>
+        <v>150</v>
       </c>
       <c r="N567" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O567" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P567" t="n">
-        <v>4232</v>
+        <v>10000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>605</v>
+        <v>1429</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,7 +45804,7 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="N568" t="n">
         <v>7500</v>
@@ -45813,7 +45813,7 @@
         <v>8000</v>
       </c>
       <c r="P568" t="n">
-        <v>7741</v>
+        <v>7788</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>940</v>
+        <v>1250</v>
       </c>
       <c r="N569" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="O569" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P569" t="n">
-        <v>6787</v>
+        <v>5740</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="N570" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O570" t="n">
         <v>4500</v>
       </c>
-      <c r="O570" t="n">
-        <v>5000</v>
-      </c>
       <c r="P570" t="n">
-        <v>4774</v>
+        <v>4232</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45982,11 +45982,11 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>682</v>
+        <v>605</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="N571" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O571" t="n">
         <v>8000</v>
       </c>
-      <c r="O571" t="n">
-        <v>8500</v>
-      </c>
       <c r="P571" t="n">
-        <v>8372</v>
+        <v>7741</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1196</v>
+        <v>1106</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="N572" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O572" t="n">
         <v>7000</v>
       </c>
-      <c r="O572" t="n">
-        <v>7500</v>
-      </c>
       <c r="P572" t="n">
-        <v>7284</v>
+        <v>6787</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>1041</v>
+        <v>970</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="N573" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O573" t="n">
         <v>5000</v>
       </c>
-      <c r="O573" t="n">
-        <v>5500</v>
-      </c>
       <c r="P573" t="n">
-        <v>5278</v>
+        <v>4774</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="N574" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O574" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="P574" t="n">
-        <v>17000</v>
+        <v>8372</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>2429</v>
+        <v>1196</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="N575" t="n">
         <v>7000</v>
       </c>
       <c r="O575" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P575" t="n">
-        <v>7500</v>
+        <v>7284</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>1350</v>
+        <v>630</v>
       </c>
       <c r="N576" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O576" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P576" t="n">
-        <v>6500</v>
+        <v>5278</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>929</v>
+        <v>754</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="N577" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O577" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P577" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>643</v>
+        <v>2429</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="N578" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O578" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P578" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>429</v>
+        <v>1071</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="N579" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O579" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P579" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46702,11 +46702,11 @@
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>714</v>
+        <v>929</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N580" t="n">
         <v>4000</v>
       </c>
       <c r="O580" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P580" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46782,11 +46782,11 @@
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,17 +46840,17 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="N581" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O581" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P581" t="n">
         <v>3000</v>
@@ -46862,7 +46862,7 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S581" t="n">
@@ -46920,35 +46920,275 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M582" t="n">
+        <v>900</v>
+      </c>
+      <c r="N582" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O582" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P582" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q582" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R582" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S582" t="n">
+        <v>714</v>
+      </c>
+      <c r="T582" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>9</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D583" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E583" t="n">
+        <v>13</v>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G583" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I583" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M583" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N583" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O583" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P583" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q583" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R583" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S583" t="n">
+        <v>571</v>
+      </c>
+      <c r="T583" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>9</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D584" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E584" t="n">
+        <v>13</v>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G584" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I584" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M584" t="n">
+        <v>950</v>
+      </c>
+      <c r="N584" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O584" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P584" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q584" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R584" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S584" t="n">
+        <v>429</v>
+      </c>
+      <c r="T584" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>9</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D585" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E585" t="n">
+        <v>13</v>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G585" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I585" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M582" t="n">
+      <c r="M585" t="n">
         <v>750</v>
       </c>
-      <c r="N582" t="n">
+      <c r="N585" t="n">
         <v>2000</v>
       </c>
-      <c r="O582" t="n">
+      <c r="O585" t="n">
         <v>2000</v>
       </c>
-      <c r="P582" t="n">
+      <c r="P585" t="n">
         <v>2000</v>
       </c>
-      <c r="Q582" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R582" t="inlineStr">
+      <c r="Q585" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R585" t="inlineStr">
         <is>
           <t>Provincia de San Antonio</t>
         </is>
       </c>
-      <c r="S582" t="n">
+      <c r="S585" t="n">
         <v>286</v>
       </c>
-      <c r="T582" t="n">
+      <c r="T585" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T585"/>
+  <dimension ref="A1:T588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>120</v>
+        <v>930</v>
       </c>
       <c r="N562" t="n">
-        <v>24000</v>
+        <v>4500</v>
       </c>
       <c r="O562" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="P562" t="n">
-        <v>24000</v>
+        <v>4758</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>3429</v>
+        <v>680</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>280</v>
+        <v>660</v>
       </c>
       <c r="N563" t="n">
-        <v>21000</v>
+        <v>3500</v>
       </c>
       <c r="O563" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="P563" t="n">
-        <v>21000</v>
+        <v>3689</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>3000</v>
+        <v>527</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>190</v>
+        <v>850</v>
       </c>
       <c r="N564" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="O564" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P564" t="n">
-        <v>18000</v>
+        <v>2735</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>2571</v>
+        <v>391</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N565" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O565" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P565" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>3071</v>
+        <v>3429</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N566" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O566" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P566" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N567" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O567" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P567" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>1130</v>
+        <v>360</v>
       </c>
       <c r="N568" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O568" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P568" t="n">
-        <v>7788</v>
+        <v>21500</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1113</v>
+        <v>3071</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="N569" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="O569" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P569" t="n">
-        <v>5740</v>
+        <v>17500</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>820</v>
+        <v>2500</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>820</v>
+        <v>150</v>
       </c>
       <c r="N570" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O570" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>4232</v>
+        <v>10000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45982,11 +45982,11 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>605</v>
+        <v>1429</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,7 +46044,7 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="N571" t="n">
         <v>7500</v>
@@ -46053,7 +46053,7 @@
         <v>8000</v>
       </c>
       <c r="P571" t="n">
-        <v>7741</v>
+        <v>7788</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>940</v>
+        <v>1250</v>
       </c>
       <c r="N572" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="O572" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P572" t="n">
-        <v>6787</v>
+        <v>5740</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="N573" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O573" t="n">
         <v>4500</v>
       </c>
-      <c r="O573" t="n">
-        <v>5000</v>
-      </c>
       <c r="P573" t="n">
-        <v>4774</v>
+        <v>4232</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>682</v>
+        <v>605</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="N574" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O574" t="n">
         <v>8000</v>
       </c>
-      <c r="O574" t="n">
-        <v>8500</v>
-      </c>
       <c r="P574" t="n">
-        <v>8372</v>
+        <v>7741</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1196</v>
+        <v>1106</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="N575" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O575" t="n">
         <v>7000</v>
       </c>
-      <c r="O575" t="n">
-        <v>7500</v>
-      </c>
       <c r="P575" t="n">
-        <v>7284</v>
+        <v>6787</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>1041</v>
+        <v>970</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="N576" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O576" t="n">
         <v>5000</v>
       </c>
-      <c r="O576" t="n">
-        <v>5500</v>
-      </c>
       <c r="P576" t="n">
-        <v>5278</v>
+        <v>4774</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="N577" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O577" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="P577" t="n">
-        <v>17000</v>
+        <v>8372</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>2429</v>
+        <v>1196</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="N578" t="n">
         <v>7000</v>
       </c>
       <c r="O578" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P578" t="n">
-        <v>7500</v>
+        <v>7284</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>1350</v>
+        <v>630</v>
       </c>
       <c r="N579" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O579" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P579" t="n">
-        <v>6500</v>
+        <v>5278</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>929</v>
+        <v>754</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46764,16 +46764,16 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="N580" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O580" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P580" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>643</v>
+        <v>2429</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="N581" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O581" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P581" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>429</v>
+        <v>1071</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="N582" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O582" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P582" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46942,11 +46942,11 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>714</v>
+        <v>929</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N583" t="n">
         <v>4000</v>
       </c>
       <c r="O583" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P583" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,17 +47080,17 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="N584" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O584" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P584" t="n">
         <v>3000</v>
@@ -47102,7 +47102,7 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S584" t="n">
@@ -47160,35 +47160,275 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M585" t="n">
+        <v>900</v>
+      </c>
+      <c r="N585" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O585" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P585" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q585" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R585" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S585" t="n">
+        <v>714</v>
+      </c>
+      <c r="T585" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>9</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D586" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E586" t="n">
+        <v>13</v>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G586" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I586" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M586" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N586" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O586" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P586" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q586" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R586" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S586" t="n">
+        <v>571</v>
+      </c>
+      <c r="T586" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>9</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D587" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E587" t="n">
+        <v>13</v>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G587" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I587" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M587" t="n">
+        <v>950</v>
+      </c>
+      <c r="N587" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O587" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P587" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q587" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R587" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S587" t="n">
+        <v>429</v>
+      </c>
+      <c r="T587" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>9</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D588" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E588" t="n">
+        <v>13</v>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G588" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I588" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M585" t="n">
+      <c r="M588" t="n">
         <v>750</v>
       </c>
-      <c r="N585" t="n">
+      <c r="N588" t="n">
         <v>2000</v>
       </c>
-      <c r="O585" t="n">
+      <c r="O588" t="n">
         <v>2000</v>
       </c>
-      <c r="P585" t="n">
+      <c r="P588" t="n">
         <v>2000</v>
       </c>
-      <c r="Q585" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R585" t="inlineStr">
+      <c r="Q588" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R588" t="inlineStr">
         <is>
           <t>Provincia de San Antonio</t>
         </is>
       </c>
-      <c r="S585" t="n">
+      <c r="S588" t="n">
         <v>286</v>
       </c>
-      <c r="T585" t="n">
+      <c r="T588" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T588"/>
+  <dimension ref="A1:T591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>660</v>
+        <v>710</v>
       </c>
       <c r="N416" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O416" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P416" t="n">
-        <v>13576</v>
+        <v>4732</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33662,11 +33662,11 @@
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1939</v>
+        <v>676</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>680</v>
+        <v>730</v>
       </c>
       <c r="N417" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O417" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P417" t="n">
-        <v>10588</v>
+        <v>3740</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33742,11 +33742,11 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1513</v>
+        <v>534</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>390</v>
+        <v>530</v>
       </c>
       <c r="N418" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O418" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P418" t="n">
-        <v>6564</v>
+        <v>2736</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33822,11 +33822,11 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>938</v>
+        <v>391</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="N419" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P419" t="n">
-        <v>11000</v>
+        <v>13576</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1571</v>
+        <v>1939</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="N420" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O420" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P420" t="n">
-        <v>7500</v>
+        <v>10588</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1071</v>
+        <v>1513</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="N421" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O421" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P421" t="n">
-        <v>4500</v>
+        <v>6564</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>643</v>
+        <v>938</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N422" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O422" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P422" t="n">
-        <v>3250</v>
+        <v>11000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>464</v>
+        <v>1571</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="N423" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O423" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P423" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>2571</v>
+        <v>1071</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N424" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O424" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P424" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>2143</v>
+        <v>643</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N425" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O425" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="P425" t="n">
-        <v>11000</v>
+        <v>3250</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1571</v>
+        <v>464</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="N426" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O426" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P426" t="n">
-        <v>10316</v>
+        <v>18000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1474</v>
+        <v>2571</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N427" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O427" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P427" t="n">
-        <v>8220</v>
+        <v>15000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1174</v>
+        <v>2143</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N428" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="O428" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P428" t="n">
-        <v>4783</v>
+        <v>11000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>683</v>
+        <v>1571</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N429" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O429" t="n">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="P429" t="n">
-        <v>25000</v>
+        <v>10316</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>3571</v>
+        <v>1474</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N430" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O430" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="P430" t="n">
-        <v>20000</v>
+        <v>8220</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>2857</v>
+        <v>1174</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="N431" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O431" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P431" t="n">
-        <v>15000</v>
+        <v>4783</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>2143</v>
+        <v>683</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N432" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P432" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1429</v>
+        <v>3571</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44351</v>
+        <v>44453</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>490</v>
+        <v>240</v>
       </c>
       <c r="N433" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O433" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P433" t="n">
-        <v>13571</v>
+        <v>20000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1939</v>
+        <v>2857</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44351</v>
+        <v>44453</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>750</v>
+        <v>270</v>
       </c>
       <c r="N434" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O434" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P434" t="n">
-        <v>10533</v>
+        <v>15000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1505</v>
+        <v>2143</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44351</v>
+        <v>44453</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N435" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O435" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>7591</v>
+        <v>10000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1084</v>
+        <v>1429</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>360</v>
+        <v>490</v>
       </c>
       <c r="N436" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O436" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P436" t="n">
-        <v>8333</v>
+        <v>13571</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1190</v>
+        <v>1939</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N437" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O437" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="P437" t="n">
-        <v>7280</v>
+        <v>10533</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1040</v>
+        <v>1505</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="N438" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O438" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P438" t="n">
-        <v>5281</v>
+        <v>7591</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>754</v>
+        <v>1084</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,7 +35484,7 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>780</v>
+        <v>360</v>
       </c>
       <c r="N439" t="n">
         <v>8000</v>
@@ -35493,7 +35493,7 @@
         <v>8500</v>
       </c>
       <c r="P439" t="n">
-        <v>8244</v>
+        <v>8333</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>1178</v>
+        <v>1190</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>920</v>
+        <v>500</v>
       </c>
       <c r="N440" t="n">
         <v>7000</v>
@@ -35573,7 +35573,7 @@
         <v>7500</v>
       </c>
       <c r="P440" t="n">
-        <v>7272</v>
+        <v>7280</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35644,7 +35644,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="N441" t="n">
         <v>5000</v>
@@ -35653,7 +35653,7 @@
         <v>5500</v>
       </c>
       <c r="P441" t="n">
-        <v>5222</v>
+        <v>5281</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>380</v>
+        <v>780</v>
       </c>
       <c r="N442" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O442" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P442" t="n">
-        <v>13526</v>
+        <v>8244</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35742,11 +35742,11 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1932</v>
+        <v>1178</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>450</v>
+        <v>920</v>
       </c>
       <c r="N443" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O443" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P443" t="n">
-        <v>9556</v>
+        <v>7272</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35822,11 +35822,11 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>1365</v>
+        <v>1039</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="N444" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O444" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P444" t="n">
-        <v>6474</v>
+        <v>5222</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35902,11 +35902,11 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>925</v>
+        <v>746</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N445" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O445" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P445" t="n">
-        <v>4273</v>
+        <v>13526</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>610</v>
+        <v>1932</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>110</v>
+        <v>450</v>
       </c>
       <c r="N446" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O446" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P446" t="n">
-        <v>17000</v>
+        <v>9556</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36062,11 +36062,11 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>2429</v>
+        <v>1365</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N447" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O447" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P447" t="n">
-        <v>14000</v>
+        <v>6474</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36142,11 +36142,11 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>2000</v>
+        <v>925</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O448" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>4273</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36222,11 +36222,11 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1714</v>
+        <v>610</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44201</v>
+        <v>44372</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>1230</v>
+        <v>110</v>
       </c>
       <c r="N449" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O449" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="P449" t="n">
-        <v>8236</v>
+        <v>17000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1177</v>
+        <v>2429</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44201</v>
+        <v>44372</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>1750</v>
+        <v>350</v>
       </c>
       <c r="N450" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O450" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P450" t="n">
-        <v>6771</v>
+        <v>14000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>967</v>
+        <v>2000</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44201</v>
+        <v>44372</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>770</v>
+        <v>180</v>
       </c>
       <c r="N451" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O451" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="P451" t="n">
-        <v>5240</v>
+        <v>12000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>749</v>
+        <v>1714</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44293</v>
+        <v>44201</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>780</v>
+        <v>1230</v>
       </c>
       <c r="N452" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O452" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P452" t="n">
-        <v>6744</v>
+        <v>8236</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>963</v>
+        <v>1177</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44293</v>
+        <v>44201</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>820</v>
+        <v>1750</v>
       </c>
       <c r="N453" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="O453" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P453" t="n">
-        <v>5768</v>
+        <v>6771</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>824</v>
+        <v>967</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44293</v>
+        <v>44201</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>580</v>
+        <v>770</v>
       </c>
       <c r="N454" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O454" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="P454" t="n">
-        <v>3733</v>
+        <v>5240</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>533</v>
+        <v>749</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44218</v>
+        <v>44293</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>1030</v>
+        <v>780</v>
       </c>
       <c r="N455" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="O455" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P455" t="n">
-        <v>8767</v>
+        <v>6744</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1252</v>
+        <v>963</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44218</v>
+        <v>44293</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>1550</v>
+        <v>820</v>
       </c>
       <c r="N456" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O456" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P456" t="n">
-        <v>7742</v>
+        <v>5768</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1106</v>
+        <v>824</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44218</v>
+        <v>44293</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36924,16 +36924,16 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>830</v>
+        <v>580</v>
       </c>
       <c r="N457" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O457" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P457" t="n">
-        <v>4735</v>
+        <v>3733</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>676</v>
+        <v>533</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>3000</v>
+        <v>1030</v>
       </c>
       <c r="N458" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O458" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P458" t="n">
-        <v>7550</v>
+        <v>8767</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1079</v>
+        <v>1252</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37084,16 +37084,16 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="N459" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O459" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P459" t="n">
-        <v>6500</v>
+        <v>7742</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>929</v>
+        <v>1106</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,7 +37164,7 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="N460" t="n">
         <v>4500</v>
@@ -37173,7 +37173,7 @@
         <v>5000</v>
       </c>
       <c r="P460" t="n">
-        <v>4750</v>
+        <v>4735</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="N461" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O461" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P461" t="n">
-        <v>14000</v>
+        <v>7550</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37262,11 +37262,11 @@
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>2000</v>
+        <v>1079</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="N462" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O462" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P462" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37342,11 +37342,11 @@
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1429</v>
+        <v>929</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="N463" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O463" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P463" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37422,11 +37422,11 @@
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>857</v>
+        <v>679</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>1180</v>
+        <v>300</v>
       </c>
       <c r="N464" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O464" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P464" t="n">
-        <v>6746</v>
+        <v>14000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37502,11 +37502,11 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>964</v>
+        <v>2000</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>1550</v>
+        <v>350</v>
       </c>
       <c r="N465" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O465" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P465" t="n">
-        <v>5758</v>
+        <v>10000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37582,11 +37582,11 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>823</v>
+        <v>1429</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="N466" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O466" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P466" t="n">
-        <v>3767</v>
+        <v>6000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37662,11 +37662,11 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>538</v>
+        <v>857</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>480</v>
+        <v>1180</v>
       </c>
       <c r="N467" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O467" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P467" t="n">
-        <v>5000</v>
+        <v>6746</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37742,11 +37742,11 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>714</v>
+        <v>964</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>510</v>
+        <v>1550</v>
       </c>
       <c r="N468" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O468" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P468" t="n">
-        <v>4000</v>
+        <v>5758</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37822,11 +37822,11 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>571</v>
+        <v>823</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N469" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O469" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P469" t="n">
-        <v>3000</v>
+        <v>3767</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37902,11 +37902,11 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>429</v>
+        <v>538</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="N470" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O470" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P470" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37982,11 +37982,11 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1357</v>
+        <v>714</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>900</v>
+        <v>510</v>
       </c>
       <c r="N471" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O471" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P471" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1071</v>
+        <v>571</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N472" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O472" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P472" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>643</v>
+        <v>429</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N473" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O473" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P473" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1714</v>
+        <v>1357</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>340</v>
+        <v>900</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P474" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N475" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O475" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P475" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>960</v>
+        <v>250</v>
       </c>
       <c r="N476" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O476" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>7708</v>
+        <v>12000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1101</v>
+        <v>1714</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>1240</v>
+        <v>340</v>
       </c>
       <c r="N477" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O477" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P477" t="n">
-        <v>6774</v>
+        <v>10000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>968</v>
+        <v>1429</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>1010</v>
+        <v>180</v>
       </c>
       <c r="N478" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O478" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P478" t="n">
-        <v>4728</v>
+        <v>7000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>780</v>
+        <v>960</v>
       </c>
       <c r="N479" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="O479" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P479" t="n">
-        <v>2756</v>
+        <v>7708</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>394</v>
+        <v>1101</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>1000</v>
+        <v>1240</v>
       </c>
       <c r="N480" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="O480" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P480" t="n">
-        <v>8780</v>
+        <v>6774</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1254</v>
+        <v>968</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="N481" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O481" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P481" t="n">
-        <v>7288</v>
+        <v>4728</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1041</v>
+        <v>675</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>900</v>
+        <v>780</v>
       </c>
       <c r="N482" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="O482" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P482" t="n">
-        <v>4789</v>
+        <v>2756</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>684</v>
+        <v>394</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="N483" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O483" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P483" t="n">
-        <v>14526</v>
+        <v>8780</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39022,11 +39022,11 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>2075</v>
+        <v>1254</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>450</v>
+        <v>1040</v>
       </c>
       <c r="N484" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O484" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P484" t="n">
-        <v>11444</v>
+        <v>7288</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39102,11 +39102,11 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1635</v>
+        <v>1041</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>430</v>
+        <v>900</v>
       </c>
       <c r="N485" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O485" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P485" t="n">
-        <v>7419</v>
+        <v>4789</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1060</v>
+        <v>684</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N486" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O486" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P486" t="n">
-        <v>8620</v>
+        <v>14526</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1231</v>
+        <v>2075</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>1540</v>
+        <v>450</v>
       </c>
       <c r="N487" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O487" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P487" t="n">
-        <v>7779</v>
+        <v>11444</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>1111</v>
+        <v>1635</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>740</v>
+        <v>430</v>
       </c>
       <c r="N488" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O488" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P488" t="n">
-        <v>4797</v>
+        <v>7419</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39422,11 +39422,11 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>685</v>
+        <v>1060</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="N489" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O489" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P489" t="n">
-        <v>20476</v>
+        <v>8620</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>2925</v>
+        <v>1231</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>560</v>
+        <v>1540</v>
       </c>
       <c r="N490" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O490" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P490" t="n">
-        <v>18571</v>
+        <v>7779</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>2653</v>
+        <v>1111</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>380</v>
+        <v>740</v>
       </c>
       <c r="N491" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O491" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P491" t="n">
-        <v>15526</v>
+        <v>4797</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>2218</v>
+        <v>685</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="N492" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O492" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P492" t="n">
-        <v>7776</v>
+        <v>20476</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1111</v>
+        <v>2925</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>980</v>
+        <v>560</v>
       </c>
       <c r="N493" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O493" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="P493" t="n">
-        <v>5000</v>
+        <v>18571</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>714</v>
+        <v>2653</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>1200</v>
+        <v>380</v>
       </c>
       <c r="N494" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O494" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="P494" t="n">
-        <v>4000</v>
+        <v>15526</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>571</v>
+        <v>2218</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>950</v>
+        <v>380</v>
       </c>
       <c r="N495" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="O495" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P495" t="n">
-        <v>3000</v>
+        <v>7776</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>429</v>
+        <v>1111</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="N496" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="O496" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="P496" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40062,11 +40062,11 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>3429</v>
+        <v>714</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="N497" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O497" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P497" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>2000</v>
+        <v>571</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>480</v>
+        <v>950</v>
       </c>
       <c r="N498" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O498" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="P498" t="n">
-        <v>8292</v>
+        <v>3000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1185</v>
+        <v>429</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="N499" t="n">
-        <v>5500</v>
+        <v>24000</v>
       </c>
       <c r="O499" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="P499" t="n">
-        <v>5767</v>
+        <v>24000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>824</v>
+        <v>3429</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="N500" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O500" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P500" t="n">
-        <v>4283</v>
+        <v>14000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>612</v>
+        <v>2000</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="N501" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O501" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="P501" t="n">
-        <v>5000</v>
+        <v>8292</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>714</v>
+        <v>1185</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="N502" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O502" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P502" t="n">
-        <v>4000</v>
+        <v>5767</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>571</v>
+        <v>824</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>750</v>
+        <v>460</v>
       </c>
       <c r="N503" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O503" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P503" t="n">
-        <v>3000</v>
+        <v>4283</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>429</v>
+        <v>612</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="N504" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O504" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P504" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>857</v>
+        <v>714</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>410</v>
+        <v>980</v>
       </c>
       <c r="N505" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O505" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P505" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>714</v>
+        <v>571</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>380</v>
+        <v>750</v>
       </c>
       <c r="N506" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O506" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P506" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>571</v>
+        <v>429</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="N507" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="O507" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P507" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>3571</v>
+        <v>857</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N508" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O508" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P508" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41022,11 +41022,11 @@
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>2857</v>
+        <v>714</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O509" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P509" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41102,11 +41102,11 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1429</v>
+        <v>571</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>490</v>
+        <v>60</v>
       </c>
       <c r="N510" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O510" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P510" t="n">
-        <v>12571</v>
+        <v>25000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41182,11 +41182,11 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1796</v>
+        <v>3571</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="N511" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O511" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P511" t="n">
-        <v>9436</v>
+        <v>20000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41262,11 +41262,11 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1348</v>
+        <v>2857</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="N512" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O512" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P512" t="n">
-        <v>6554</v>
+        <v>10000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41342,11 +41342,11 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>936</v>
+        <v>1429</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="N513" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O513" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P513" t="n">
-        <v>14000</v>
+        <v>12571</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>2000</v>
+        <v>1796</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N514" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O514" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P514" t="n">
-        <v>12000</v>
+        <v>9436</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1714</v>
+        <v>1348</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="N515" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O515" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P515" t="n">
-        <v>10000</v>
+        <v>6554</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1429</v>
+        <v>936</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N516" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O516" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P516" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="N517" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O517" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P517" t="n">
-        <v>19152</v>
+        <v>12000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>2736</v>
+        <v>1714</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>590</v>
+        <v>440</v>
       </c>
       <c r="N518" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O518" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P518" t="n">
-        <v>14576</v>
+        <v>10000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>2082</v>
+        <v>1429</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N519" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O519" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P519" t="n">
-        <v>8900</v>
+        <v>7000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1271</v>
+        <v>1000</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>1430</v>
+        <v>660</v>
       </c>
       <c r="N520" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O520" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P520" t="n">
-        <v>8762</v>
+        <v>19152</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1252</v>
+        <v>2736</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>1500</v>
+        <v>590</v>
       </c>
       <c r="N521" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O521" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P521" t="n">
-        <v>6773</v>
+        <v>14576</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>968</v>
+        <v>2082</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>1340</v>
+        <v>400</v>
       </c>
       <c r="N522" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O522" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P522" t="n">
-        <v>5291</v>
+        <v>8900</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>756</v>
+        <v>1271</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>2180</v>
+        <v>1430</v>
       </c>
       <c r="N523" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O523" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P523" t="n">
-        <v>6275</v>
+        <v>8762</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>896</v>
+        <v>1252</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="N524" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O524" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P524" t="n">
-        <v>5206</v>
+        <v>6773</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>744</v>
+        <v>968</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>860</v>
+        <v>1340</v>
       </c>
       <c r="N525" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O525" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P525" t="n">
-        <v>4267</v>
+        <v>5291</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>610</v>
+        <v>756</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>50</v>
+        <v>2180</v>
       </c>
       <c r="N526" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O526" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="P526" t="n">
-        <v>20000</v>
+        <v>6275</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>2857</v>
+        <v>896</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>90</v>
+        <v>1360</v>
       </c>
       <c r="N527" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O527" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P527" t="n">
-        <v>18000</v>
+        <v>5206</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>2571</v>
+        <v>744</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>75</v>
+        <v>860</v>
       </c>
       <c r="N528" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O528" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P528" t="n">
-        <v>15000</v>
+        <v>4267</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>2143</v>
+        <v>610</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="N529" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O529" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P529" t="n">
-        <v>7759</v>
+        <v>20000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1108</v>
+        <v>2857</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>780</v>
+        <v>90</v>
       </c>
       <c r="N530" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="O530" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P530" t="n">
-        <v>5744</v>
+        <v>18000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>821</v>
+        <v>2571</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>520</v>
+        <v>75</v>
       </c>
       <c r="N531" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O531" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P531" t="n">
-        <v>4288</v>
+        <v>15000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>613</v>
+        <v>2143</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="N532" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O532" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P532" t="n">
-        <v>20000</v>
+        <v>7759</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>2857</v>
+        <v>1108</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>220</v>
+        <v>780</v>
       </c>
       <c r="N533" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="O533" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P533" t="n">
-        <v>16000</v>
+        <v>5744</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>2286</v>
+        <v>821</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="N534" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O534" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P534" t="n">
-        <v>12000</v>
+        <v>4288</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1714</v>
+        <v>613</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N535" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O535" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P535" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1000</v>
+        <v>2857</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="N536" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O536" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="P536" t="n">
-        <v>6233</v>
+        <v>16000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>890</v>
+        <v>2286</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>960</v>
+        <v>280</v>
       </c>
       <c r="N537" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O537" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P537" t="n">
-        <v>4234</v>
+        <v>12000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43342,11 +43342,11 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>605</v>
+        <v>1714</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>860</v>
+        <v>95</v>
       </c>
       <c r="N538" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O538" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P538" t="n">
-        <v>2738</v>
+        <v>7000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43422,11 +43422,11 @@
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>391</v>
+        <v>1000</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>1450</v>
+        <v>750</v>
       </c>
       <c r="N539" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O539" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P539" t="n">
-        <v>7776</v>
+        <v>6233</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43502,11 +43502,11 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1111</v>
+        <v>890</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43567,13 +43567,13 @@
         <v>960</v>
       </c>
       <c r="N540" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O540" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P540" t="n">
-        <v>5266</v>
+        <v>4234</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43582,11 +43582,11 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>752</v>
+        <v>605</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>680</v>
+        <v>860</v>
       </c>
       <c r="N541" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="O541" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="P541" t="n">
-        <v>4206</v>
+        <v>2738</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>601</v>
+        <v>391</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>300</v>
+        <v>1450</v>
       </c>
       <c r="N542" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O542" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P542" t="n">
-        <v>12000</v>
+        <v>7776</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1714</v>
+        <v>1111</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="N543" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O543" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P543" t="n">
-        <v>9000</v>
+        <v>5266</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1286</v>
+        <v>752</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>220</v>
+        <v>680</v>
       </c>
       <c r="N544" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O544" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P544" t="n">
-        <v>6000</v>
+        <v>4206</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>857</v>
+        <v>601</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N545" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O545" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P545" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>2000</v>
+        <v>1714</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="N546" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O546" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P546" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1571</v>
+        <v>1286</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N547" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O547" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P547" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1143</v>
+        <v>857</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="N548" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O548" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P548" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1071</v>
+        <v>2000</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="N549" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O549" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="P549" t="n">
-        <v>6250</v>
+        <v>11000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>893</v>
+        <v>1571</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N550" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O550" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P550" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>643</v>
+        <v>1143</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N551" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O551" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P551" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>464</v>
+        <v>1071</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>420</v>
+        <v>800</v>
       </c>
       <c r="N552" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O552" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="P552" t="n">
-        <v>13405</v>
+        <v>6250</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1915</v>
+        <v>893</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="N553" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O553" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P553" t="n">
-        <v>10547</v>
+        <v>4500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1507</v>
+        <v>643</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N554" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O554" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="P554" t="n">
-        <v>6222</v>
+        <v>3250</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>889</v>
+        <v>464</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="N555" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O555" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P555" t="n">
-        <v>4271</v>
+        <v>13405</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>610</v>
+        <v>1915</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>780</v>
+        <v>640</v>
       </c>
       <c r="N556" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O556" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="P556" t="n">
-        <v>7256</v>
+        <v>10547</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1037</v>
+        <v>1507</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>1180</v>
+        <v>450</v>
       </c>
       <c r="N557" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O557" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="P557" t="n">
-        <v>5754</v>
+        <v>6222</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>822</v>
+        <v>889</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>470</v>
+        <v>175</v>
       </c>
       <c r="N558" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O558" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P558" t="n">
-        <v>3723</v>
+        <v>4271</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>1130</v>
+        <v>780</v>
       </c>
       <c r="N559" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O559" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P559" t="n">
-        <v>8801</v>
+        <v>7256</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1257</v>
+        <v>1037</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>1550</v>
+        <v>1180</v>
       </c>
       <c r="N560" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O560" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P560" t="n">
-        <v>7774</v>
+        <v>5754</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1111</v>
+        <v>822</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>1380</v>
+        <v>470</v>
       </c>
       <c r="N561" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O561" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P561" t="n">
-        <v>4761</v>
+        <v>3723</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>680</v>
+        <v>532</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="N562" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="O562" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P562" t="n">
-        <v>4758</v>
+        <v>8801</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>680</v>
+        <v>1257</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>660</v>
+        <v>1550</v>
       </c>
       <c r="N563" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O563" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P563" t="n">
-        <v>3689</v>
+        <v>7774</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>527</v>
+        <v>1111</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>850</v>
+        <v>1380</v>
       </c>
       <c r="N564" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="O564" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P564" t="n">
-        <v>2735</v>
+        <v>4761</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>391</v>
+        <v>680</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>120</v>
+        <v>930</v>
       </c>
       <c r="N565" t="n">
-        <v>24000</v>
+        <v>4500</v>
       </c>
       <c r="O565" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="P565" t="n">
-        <v>24000</v>
+        <v>4758</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>3429</v>
+        <v>680</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>280</v>
+        <v>660</v>
       </c>
       <c r="N566" t="n">
-        <v>21000</v>
+        <v>3500</v>
       </c>
       <c r="O566" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="P566" t="n">
-        <v>21000</v>
+        <v>3689</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>3000</v>
+        <v>527</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>190</v>
+        <v>850</v>
       </c>
       <c r="N567" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="O567" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P567" t="n">
-        <v>18000</v>
+        <v>2735</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>2571</v>
+        <v>391</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N568" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O568" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P568" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>3071</v>
+        <v>3429</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N569" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O569" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P569" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N570" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O570" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P570" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>1130</v>
+        <v>360</v>
       </c>
       <c r="N571" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O571" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P571" t="n">
-        <v>7788</v>
+        <v>21500</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1113</v>
+        <v>3071</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="N572" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="O572" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P572" t="n">
-        <v>5740</v>
+        <v>17500</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>820</v>
+        <v>2500</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>820</v>
+        <v>150</v>
       </c>
       <c r="N573" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>4232</v>
+        <v>10000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>605</v>
+        <v>1429</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,7 +46284,7 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="N574" t="n">
         <v>7500</v>
@@ -46293,7 +46293,7 @@
         <v>8000</v>
       </c>
       <c r="P574" t="n">
-        <v>7741</v>
+        <v>7788</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46302,11 +46302,11 @@
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>940</v>
+        <v>1250</v>
       </c>
       <c r="N575" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="O575" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P575" t="n">
-        <v>6787</v>
+        <v>5740</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46382,11 +46382,11 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="N576" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O576" t="n">
         <v>4500</v>
       </c>
-      <c r="O576" t="n">
-        <v>5000</v>
-      </c>
       <c r="P576" t="n">
-        <v>4774</v>
+        <v>4232</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46462,11 +46462,11 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>682</v>
+        <v>605</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="N577" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O577" t="n">
         <v>8000</v>
       </c>
-      <c r="O577" t="n">
-        <v>8500</v>
-      </c>
       <c r="P577" t="n">
-        <v>8372</v>
+        <v>7741</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1196</v>
+        <v>1106</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="N578" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O578" t="n">
         <v>7000</v>
       </c>
-      <c r="O578" t="n">
-        <v>7500</v>
-      </c>
       <c r="P578" t="n">
-        <v>7284</v>
+        <v>6787</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1041</v>
+        <v>970</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="N579" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O579" t="n">
         <v>5000</v>
       </c>
-      <c r="O579" t="n">
-        <v>5500</v>
-      </c>
       <c r="P579" t="n">
-        <v>5278</v>
+        <v>4774</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="N580" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O580" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="P580" t="n">
-        <v>17000</v>
+        <v>8372</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>2429</v>
+        <v>1196</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="N581" t="n">
         <v>7000</v>
       </c>
       <c r="O581" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P581" t="n">
-        <v>7500</v>
+        <v>7284</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>1350</v>
+        <v>630</v>
       </c>
       <c r="N582" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O582" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P582" t="n">
-        <v>6500</v>
+        <v>5278</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>929</v>
+        <v>754</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="N583" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O583" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P583" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>643</v>
+        <v>2429</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="N584" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O584" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P584" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>429</v>
+        <v>1071</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="N585" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O585" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P585" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47182,11 +47182,11 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>714</v>
+        <v>929</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N586" t="n">
         <v>4000</v>
       </c>
       <c r="O586" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P586" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,17 +47320,17 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="N587" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O587" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P587" t="n">
         <v>3000</v>
@@ -47342,7 +47342,7 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S587" t="n">
@@ -47400,35 +47400,275 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M588" t="n">
+        <v>900</v>
+      </c>
+      <c r="N588" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O588" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P588" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q588" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R588" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S588" t="n">
+        <v>714</v>
+      </c>
+      <c r="T588" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>9</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D589" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E589" t="n">
+        <v>13</v>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G589" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I589" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M589" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N589" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O589" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P589" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q589" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R589" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S589" t="n">
+        <v>571</v>
+      </c>
+      <c r="T589" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>9</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D590" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E590" t="n">
+        <v>13</v>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G590" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I590" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M590" t="n">
+        <v>950</v>
+      </c>
+      <c r="N590" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O590" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P590" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q590" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R590" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S590" t="n">
+        <v>429</v>
+      </c>
+      <c r="T590" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>9</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D591" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E591" t="n">
+        <v>13</v>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G591" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I591" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M588" t="n">
+      <c r="M591" t="n">
         <v>750</v>
       </c>
-      <c r="N588" t="n">
+      <c r="N591" t="n">
         <v>2000</v>
       </c>
-      <c r="O588" t="n">
+      <c r="O591" t="n">
         <v>2000</v>
       </c>
-      <c r="P588" t="n">
+      <c r="P591" t="n">
         <v>2000</v>
       </c>
-      <c r="Q588" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R588" t="inlineStr">
+      <c r="Q591" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R591" t="inlineStr">
         <is>
           <t>Provincia de San Antonio</t>
         </is>
       </c>
-      <c r="S588" t="n">
+      <c r="S591" t="n">
         <v>286</v>
       </c>
-      <c r="T588" t="n">
+      <c r="T591" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T591"/>
+  <dimension ref="A1:T595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>960</v>
+        <v>1360</v>
       </c>
       <c r="N479" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="O479" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P479" t="n">
-        <v>7708</v>
+        <v>4739</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38702,11 +38702,11 @@
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1101</v>
+        <v>677</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>1240</v>
+        <v>860</v>
       </c>
       <c r="N480" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O480" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P480" t="n">
-        <v>6774</v>
+        <v>4262</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38782,11 +38782,11 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>968</v>
+        <v>609</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>1010</v>
+        <v>830</v>
       </c>
       <c r="N481" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O481" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P481" t="n">
-        <v>4728</v>
+        <v>3289</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38862,11 +38862,11 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>675</v>
+        <v>470</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>780</v>
+        <v>580</v>
       </c>
       <c r="N482" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O482" t="n">
         <v>2500</v>
       </c>
-      <c r="O482" t="n">
-        <v>3000</v>
-      </c>
       <c r="P482" t="n">
-        <v>2756</v>
+        <v>2259</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38942,11 +38942,11 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="N483" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="O483" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P483" t="n">
-        <v>8780</v>
+        <v>7708</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1254</v>
+        <v>1101</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>1040</v>
+        <v>1240</v>
       </c>
       <c r="N484" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O484" t="n">
         <v>7000</v>
       </c>
-      <c r="O484" t="n">
-        <v>7500</v>
-      </c>
       <c r="P484" t="n">
-        <v>7288</v>
+        <v>6774</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1041</v>
+        <v>968</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39164,7 +39164,7 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>900</v>
+        <v>1010</v>
       </c>
       <c r="N485" t="n">
         <v>4500</v>
@@ -39173,7 +39173,7 @@
         <v>5000</v>
       </c>
       <c r="P485" t="n">
-        <v>4789</v>
+        <v>4728</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>380</v>
+        <v>780</v>
       </c>
       <c r="N486" t="n">
-        <v>14000</v>
+        <v>2500</v>
       </c>
       <c r="O486" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="P486" t="n">
-        <v>14526</v>
+        <v>2756</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>2075</v>
+        <v>394</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="N487" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O487" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P487" t="n">
-        <v>11444</v>
+        <v>8780</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>1635</v>
+        <v>1254</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>430</v>
+        <v>1040</v>
       </c>
       <c r="N488" t="n">
         <v>7000</v>
       </c>
       <c r="O488" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P488" t="n">
-        <v>7419</v>
+        <v>7288</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39422,11 +39422,11 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N489" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="O489" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P489" t="n">
-        <v>8620</v>
+        <v>4789</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1231</v>
+        <v>684</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>1540</v>
+        <v>380</v>
       </c>
       <c r="N490" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O490" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P490" t="n">
-        <v>7779</v>
+        <v>14526</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39582,11 +39582,11 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1111</v>
+        <v>2075</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>740</v>
+        <v>450</v>
       </c>
       <c r="N491" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="O491" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P491" t="n">
-        <v>4797</v>
+        <v>11444</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>685</v>
+        <v>1635</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="N492" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O492" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P492" t="n">
-        <v>20476</v>
+        <v>7419</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>2925</v>
+        <v>1060</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="N493" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="O493" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P493" t="n">
-        <v>18571</v>
+        <v>8620</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>2653</v>
+        <v>1231</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>380</v>
+        <v>1540</v>
       </c>
       <c r="N494" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O494" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P494" t="n">
-        <v>15526</v>
+        <v>7779</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>2218</v>
+        <v>1111</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>380</v>
+        <v>740</v>
       </c>
       <c r="N495" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="O495" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P495" t="n">
-        <v>7776</v>
+        <v>4797</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1111</v>
+        <v>685</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>980</v>
+        <v>210</v>
       </c>
       <c r="N496" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O496" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="P496" t="n">
-        <v>5000</v>
+        <v>20476</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40062,11 +40062,11 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>714</v>
+        <v>2925</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>1200</v>
+        <v>560</v>
       </c>
       <c r="N497" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O497" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="P497" t="n">
-        <v>4000</v>
+        <v>18571</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>571</v>
+        <v>2653</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>950</v>
+        <v>380</v>
       </c>
       <c r="N498" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O498" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="P498" t="n">
-        <v>3000</v>
+        <v>15526</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>429</v>
+        <v>2218</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44384</v>
+        <v>44407</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N499" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O499" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P499" t="n">
-        <v>24000</v>
+        <v>7776</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>3429</v>
+        <v>1111</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="N500" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O500" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P500" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40382,11 +40382,11 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>2000</v>
+        <v>714</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="N501" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O501" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="P501" t="n">
-        <v>8292</v>
+        <v>4000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1185</v>
+        <v>571</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="N502" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="O502" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P502" t="n">
-        <v>5767</v>
+        <v>3000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>824</v>
+        <v>429</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="N503" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="O503" t="n">
-        <v>4500</v>
+        <v>24000</v>
       </c>
       <c r="P503" t="n">
-        <v>4283</v>
+        <v>24000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>612</v>
+        <v>3429</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>1200</v>
+        <v>80</v>
       </c>
       <c r="N504" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O504" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P504" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>714</v>
+        <v>2000</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="N505" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O505" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="P505" t="n">
-        <v>4000</v>
+        <v>8292</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>571</v>
+        <v>1185</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
         <v>750</v>
       </c>
       <c r="N506" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="O506" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P506" t="n">
-        <v>3000</v>
+        <v>5767</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>429</v>
+        <v>824</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="N507" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O507" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P507" t="n">
-        <v>6000</v>
+        <v>4283</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>857</v>
+        <v>612</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,11 +41000,11 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>410</v>
+        <v>1200</v>
       </c>
       <c r="N508" t="n">
         <v>5000</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,11 +41080,11 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>380</v>
+        <v>980</v>
       </c>
       <c r="N509" t="n">
         <v>4000</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>60</v>
+        <v>750</v>
       </c>
       <c r="N510" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="O510" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="P510" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41182,11 +41182,11 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>3571</v>
+        <v>429</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="N511" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O511" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P511" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41262,11 +41262,11 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>2857</v>
+        <v>857</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="N512" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O512" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P512" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41342,11 +41342,11 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="N513" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O513" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P513" t="n">
-        <v>12571</v>
+        <v>4000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41422,11 +41422,11 @@
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1796</v>
+        <v>571</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="N514" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O514" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P514" t="n">
-        <v>9436</v>
+        <v>25000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41502,11 +41502,11 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1348</v>
+        <v>3571</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="N515" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O515" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P515" t="n">
-        <v>6554</v>
+        <v>20000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41582,11 +41582,11 @@
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>936</v>
+        <v>2857</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="N516" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O516" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P516" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41662,11 +41662,11 @@
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>2000</v>
+        <v>1429</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>600</v>
+        <v>490</v>
       </c>
       <c r="N517" t="n">
         <v>12000</v>
       </c>
       <c r="O517" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P517" t="n">
-        <v>12000</v>
+        <v>12571</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>1714</v>
+        <v>1796</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="N518" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O518" t="n">
         <v>10000</v>
       </c>
       <c r="P518" t="n">
-        <v>10000</v>
+        <v>9436</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1429</v>
+        <v>1348</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="N519" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O519" t="n">
         <v>7000</v>
       </c>
       <c r="P519" t="n">
-        <v>7000</v>
+        <v>6554</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1000</v>
+        <v>936</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>660</v>
+        <v>450</v>
       </c>
       <c r="N520" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O520" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P520" t="n">
-        <v>19152</v>
+        <v>14000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>2736</v>
+        <v>2000</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="N521" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O521" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P521" t="n">
-        <v>14576</v>
+        <v>12000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>2082</v>
+        <v>1714</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N522" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O522" t="n">
         <v>10000</v>
       </c>
       <c r="P522" t="n">
-        <v>8900</v>
+        <v>10000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1271</v>
+        <v>1429</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>1430</v>
+        <v>300</v>
       </c>
       <c r="N523" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O523" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P523" t="n">
-        <v>8762</v>
+        <v>7000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1252</v>
+        <v>1000</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>1500</v>
+        <v>660</v>
       </c>
       <c r="N524" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="O524" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P524" t="n">
-        <v>6773</v>
+        <v>19152</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>968</v>
+        <v>2736</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>1340</v>
+        <v>590</v>
       </c>
       <c r="N525" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O525" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="P525" t="n">
-        <v>5291</v>
+        <v>14576</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>756</v>
+        <v>2082</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>2180</v>
+        <v>400</v>
       </c>
       <c r="N526" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O526" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P526" t="n">
-        <v>6275</v>
+        <v>8900</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>896</v>
+        <v>1271</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>1360</v>
+        <v>1430</v>
       </c>
       <c r="N527" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="O527" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P527" t="n">
-        <v>5206</v>
+        <v>8762</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>744</v>
+        <v>1252</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>860</v>
+        <v>1500</v>
       </c>
       <c r="N528" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O528" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P528" t="n">
-        <v>4267</v>
+        <v>6773</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>610</v>
+        <v>968</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>50</v>
+        <v>1340</v>
       </c>
       <c r="N529" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O529" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="P529" t="n">
-        <v>20000</v>
+        <v>5291</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>2857</v>
+        <v>756</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>90</v>
+        <v>2180</v>
       </c>
       <c r="N530" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O530" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="P530" t="n">
-        <v>18000</v>
+        <v>6275</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>2571</v>
+        <v>896</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>75</v>
+        <v>1360</v>
       </c>
       <c r="N531" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O531" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P531" t="n">
-        <v>15000</v>
+        <v>5206</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>2143</v>
+        <v>744</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>580</v>
+        <v>860</v>
       </c>
       <c r="N532" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="O532" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P532" t="n">
-        <v>7759</v>
+        <v>4267</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1108</v>
+        <v>610</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>780</v>
+        <v>50</v>
       </c>
       <c r="N533" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="O533" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P533" t="n">
-        <v>5744</v>
+        <v>20000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>821</v>
+        <v>2857</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>520</v>
+        <v>90</v>
       </c>
       <c r="N534" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O534" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="P534" t="n">
-        <v>4288</v>
+        <v>18000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>613</v>
+        <v>2571</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="N535" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O535" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P535" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>2857</v>
+        <v>2143</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="N536" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O536" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P536" t="n">
-        <v>16000</v>
+        <v>7759</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>2286</v>
+        <v>1108</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>280</v>
+        <v>780</v>
       </c>
       <c r="N537" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O537" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P537" t="n">
-        <v>12000</v>
+        <v>5744</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1714</v>
+        <v>821</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>95</v>
+        <v>520</v>
       </c>
       <c r="N538" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O538" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P538" t="n">
-        <v>7000</v>
+        <v>4288</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1000</v>
+        <v>613</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>750</v>
+        <v>140</v>
       </c>
       <c r="N539" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O539" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="P539" t="n">
-        <v>6233</v>
+        <v>20000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43502,11 +43502,11 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>890</v>
+        <v>2857</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>960</v>
+        <v>220</v>
       </c>
       <c r="N540" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O540" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="P540" t="n">
-        <v>4234</v>
+        <v>16000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43582,11 +43582,11 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>605</v>
+        <v>2286</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>860</v>
+        <v>280</v>
       </c>
       <c r="N541" t="n">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="O541" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P541" t="n">
-        <v>2738</v>
+        <v>12000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>391</v>
+        <v>1714</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>1450</v>
+        <v>95</v>
       </c>
       <c r="N542" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O542" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P542" t="n">
-        <v>7776</v>
+        <v>7000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>960</v>
+        <v>750</v>
       </c>
       <c r="N543" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O543" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="P543" t="n">
-        <v>5266</v>
+        <v>6233</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43822,11 +43822,11 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,11 +43880,11 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="N544" t="n">
         <v>4000</v>
@@ -43893,7 +43893,7 @@
         <v>4500</v>
       </c>
       <c r="P544" t="n">
-        <v>4206</v>
+        <v>4234</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43902,11 +43902,11 @@
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S544" t="n">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>300</v>
+        <v>860</v>
       </c>
       <c r="N545" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="O545" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P545" t="n">
-        <v>12000</v>
+        <v>2738</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43982,11 +43982,11 @@
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1714</v>
+        <v>391</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>480</v>
+        <v>1450</v>
       </c>
       <c r="N546" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O546" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P546" t="n">
-        <v>9000</v>
+        <v>7776</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1286</v>
+        <v>1111</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>220</v>
+        <v>960</v>
       </c>
       <c r="N547" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O547" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P547" t="n">
-        <v>6000</v>
+        <v>5266</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>857</v>
+        <v>752</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>140</v>
+        <v>680</v>
       </c>
       <c r="N548" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O548" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P548" t="n">
-        <v>14000</v>
+        <v>4206</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>2000</v>
+        <v>601</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N549" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O549" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P549" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1571</v>
+        <v>1714</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N550" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O550" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P550" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1143</v>
+        <v>1286</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>700</v>
+        <v>220</v>
       </c>
       <c r="N551" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O551" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P551" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1071</v>
+        <v>857</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>800</v>
+        <v>140</v>
       </c>
       <c r="N552" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O552" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="P552" t="n">
-        <v>6250</v>
+        <v>14000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>893</v>
+        <v>2000</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="N553" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O553" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P553" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>643</v>
+        <v>1571</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N554" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O554" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P554" t="n">
-        <v>3250</v>
+        <v>8000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>464</v>
+        <v>1143</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="N555" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O555" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P555" t="n">
-        <v>13405</v>
+        <v>7500</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>1915</v>
+        <v>1071</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="N556" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O556" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="P556" t="n">
-        <v>10547</v>
+        <v>6250</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1507</v>
+        <v>893</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="N557" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O557" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P557" t="n">
-        <v>6222</v>
+        <v>4500</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>889</v>
+        <v>643</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="N558" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O558" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="P558" t="n">
-        <v>4271</v>
+        <v>3250</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>610</v>
+        <v>464</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>780</v>
+        <v>420</v>
       </c>
       <c r="N559" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O559" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="P559" t="n">
-        <v>7256</v>
+        <v>13405</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1037</v>
+        <v>1915</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>1180</v>
+        <v>640</v>
       </c>
       <c r="N560" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O560" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P560" t="n">
-        <v>5754</v>
+        <v>10547</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>822</v>
+        <v>1507</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="N561" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O561" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P561" t="n">
-        <v>3723</v>
+        <v>6222</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>532</v>
+        <v>889</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>1130</v>
+        <v>175</v>
       </c>
       <c r="N562" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="O562" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P562" t="n">
-        <v>8801</v>
+        <v>4271</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1257</v>
+        <v>610</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>1550</v>
+        <v>780</v>
       </c>
       <c r="N563" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O563" t="n">
         <v>7500</v>
       </c>
-      <c r="O563" t="n">
-        <v>8000</v>
-      </c>
       <c r="P563" t="n">
-        <v>7774</v>
+        <v>7256</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1111</v>
+        <v>1037</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>1380</v>
+        <v>1180</v>
       </c>
       <c r="N564" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O564" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P564" t="n">
-        <v>4761</v>
+        <v>5754</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>680</v>
+        <v>822</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>930</v>
+        <v>470</v>
       </c>
       <c r="N565" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O565" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P565" t="n">
-        <v>4758</v>
+        <v>3723</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>680</v>
+        <v>532</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>660</v>
+        <v>1130</v>
       </c>
       <c r="N566" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="O566" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P566" t="n">
-        <v>3689</v>
+        <v>8801</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>527</v>
+        <v>1257</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>850</v>
+        <v>1550</v>
       </c>
       <c r="N567" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="O567" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P567" t="n">
-        <v>2735</v>
+        <v>7774</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>391</v>
+        <v>1111</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>120</v>
+        <v>1380</v>
       </c>
       <c r="N568" t="n">
-        <v>24000</v>
+        <v>4500</v>
       </c>
       <c r="O568" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="P568" t="n">
-        <v>24000</v>
+        <v>4761</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>3429</v>
+        <v>680</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>280</v>
+        <v>930</v>
       </c>
       <c r="N569" t="n">
-        <v>21000</v>
+        <v>4500</v>
       </c>
       <c r="O569" t="n">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="P569" t="n">
-        <v>21000</v>
+        <v>4758</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>3000</v>
+        <v>680</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>190</v>
+        <v>660</v>
       </c>
       <c r="N570" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="O570" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="P570" t="n">
-        <v>18000</v>
+        <v>3689</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45982,11 +45982,11 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>2571</v>
+        <v>527</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>360</v>
+        <v>850</v>
       </c>
       <c r="N571" t="n">
-        <v>21000</v>
+        <v>2500</v>
       </c>
       <c r="O571" t="n">
-        <v>22000</v>
+        <v>3000</v>
       </c>
       <c r="P571" t="n">
-        <v>21500</v>
+        <v>2735</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>3071</v>
+        <v>391</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N572" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O572" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P572" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>2500</v>
+        <v>3429</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="N573" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O573" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P573" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>1429</v>
+        <v>3000</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>1130</v>
+        <v>190</v>
       </c>
       <c r="N574" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O574" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P574" t="n">
-        <v>7788</v>
+        <v>18000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46302,11 +46302,11 @@
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1113</v>
+        <v>2571</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>1250</v>
+        <v>360</v>
       </c>
       <c r="N575" t="n">
-        <v>5500</v>
+        <v>21000</v>
       </c>
       <c r="O575" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="P575" t="n">
-        <v>5740</v>
+        <v>21500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46382,11 +46382,11 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>820</v>
+        <v>3071</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>820</v>
+        <v>250</v>
       </c>
       <c r="N576" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O576" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="P576" t="n">
-        <v>4232</v>
+        <v>17500</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46462,11 +46462,11 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>605</v>
+        <v>2500</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="N577" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O577" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P577" t="n">
-        <v>7741</v>
+        <v>10000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1106</v>
+        <v>1429</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>940</v>
+        <v>1130</v>
       </c>
       <c r="N578" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="O578" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P578" t="n">
-        <v>6787</v>
+        <v>7788</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46622,11 +46622,11 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>970</v>
+        <v>1113</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>730</v>
+        <v>1250</v>
       </c>
       <c r="N579" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O579" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P579" t="n">
-        <v>4774</v>
+        <v>5740</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46702,11 +46702,11 @@
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>682</v>
+        <v>820</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>470</v>
+        <v>820</v>
       </c>
       <c r="N580" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O580" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="P580" t="n">
-        <v>8372</v>
+        <v>4232</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46782,11 +46782,11 @@
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1196</v>
+        <v>605</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1020</v>
+        <v>580</v>
       </c>
       <c r="N581" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O581" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P581" t="n">
-        <v>7284</v>
+        <v>7741</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1041</v>
+        <v>1106</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>630</v>
+        <v>940</v>
       </c>
       <c r="N582" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O582" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P582" t="n">
-        <v>5278</v>
+        <v>6787</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>754</v>
+        <v>970</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>95</v>
+        <v>730</v>
       </c>
       <c r="N583" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O583" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P583" t="n">
-        <v>17000</v>
+        <v>4774</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>2429</v>
+        <v>682</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>1200</v>
+        <v>470</v>
       </c>
       <c r="N584" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O584" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P584" t="n">
-        <v>7500</v>
+        <v>8372</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>1071</v>
+        <v>1196</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>1350</v>
+        <v>1020</v>
       </c>
       <c r="N585" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O585" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P585" t="n">
-        <v>6500</v>
+        <v>7284</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>929</v>
+        <v>1041</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>300</v>
+        <v>630</v>
       </c>
       <c r="N586" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O586" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P586" t="n">
-        <v>4500</v>
+        <v>5278</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="N587" t="n">
-        <v>2500</v>
+        <v>17000</v>
       </c>
       <c r="O587" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P587" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>429</v>
+        <v>2429</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="N588" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O588" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P588" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47422,11 +47422,11 @@
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>714</v>
+        <v>1071</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47484,16 +47484,16 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>1100</v>
+        <v>1350</v>
       </c>
       <c r="N589" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O589" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P589" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47502,11 +47502,11 @@
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>571</v>
+        <v>929</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="N590" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O590" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P590" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47582,11 +47582,11 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>429</v>
+        <v>643</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47607,68 +47607,388 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E591" t="n">
+        <v>13</v>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G591" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I591" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M591" t="n">
+        <v>250</v>
+      </c>
+      <c r="N591" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O591" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P591" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q591" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R591" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S591" t="n">
+        <v>429</v>
+      </c>
+      <c r="T591" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>9</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D592" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E591" t="n">
-        <v>13</v>
-      </c>
-      <c r="F591" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G591" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I591" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J591" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L591" t="inlineStr">
+      <c r="E592" t="n">
+        <v>13</v>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G592" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I592" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M592" t="n">
+        <v>900</v>
+      </c>
+      <c r="N592" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O592" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P592" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q592" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R592" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S592" t="n">
+        <v>714</v>
+      </c>
+      <c r="T592" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>9</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D593" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E593" t="n">
+        <v>13</v>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G593" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I593" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M593" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N593" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O593" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P593" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q593" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R593" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S593" t="n">
+        <v>571</v>
+      </c>
+      <c r="T593" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>9</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D594" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E594" t="n">
+        <v>13</v>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G594" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I594" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M594" t="n">
+        <v>950</v>
+      </c>
+      <c r="N594" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O594" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P594" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q594" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R594" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S594" t="n">
+        <v>429</v>
+      </c>
+      <c r="T594" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>9</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D595" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E595" t="n">
+        <v>13</v>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G595" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I595" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M591" t="n">
+      <c r="M595" t="n">
         <v>750</v>
       </c>
-      <c r="N591" t="n">
+      <c r="N595" t="n">
         <v>2000</v>
       </c>
-      <c r="O591" t="n">
+      <c r="O595" t="n">
         <v>2000</v>
       </c>
-      <c r="P591" t="n">
+      <c r="P595" t="n">
         <v>2000</v>
       </c>
-      <c r="Q591" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R591" t="inlineStr">
+      <c r="Q595" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R595" t="inlineStr">
         <is>
           <t>Provincia de San Antonio</t>
         </is>
       </c>
-      <c r="S591" t="n">
+      <c r="S595" t="n">
         <v>286</v>
       </c>
-      <c r="T591" t="n">
+      <c r="T595" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T598"/>
+  <dimension ref="A1:T601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="N566" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O566" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P566" t="n">
-        <v>7256</v>
+        <v>4729</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1037</v>
+        <v>676</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>1180</v>
+        <v>800</v>
       </c>
       <c r="N567" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="O567" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P567" t="n">
-        <v>5754</v>
+        <v>3750</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>822</v>
+        <v>536</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>470</v>
+        <v>680</v>
       </c>
       <c r="N568" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="O568" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P568" t="n">
-        <v>3723</v>
+        <v>2757</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>532</v>
+        <v>394</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>1130</v>
+        <v>780</v>
       </c>
       <c r="N569" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O569" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P569" t="n">
-        <v>8801</v>
+        <v>7256</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1257</v>
+        <v>1037</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>1550</v>
+        <v>1180</v>
       </c>
       <c r="N570" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O570" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P570" t="n">
-        <v>7774</v>
+        <v>5754</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1111</v>
+        <v>822</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>1380</v>
+        <v>470</v>
       </c>
       <c r="N571" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O571" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P571" t="n">
-        <v>4761</v>
+        <v>3723</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>680</v>
+        <v>532</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="N572" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="O572" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P572" t="n">
-        <v>4758</v>
+        <v>8801</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>680</v>
+        <v>1257</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>660</v>
+        <v>1550</v>
       </c>
       <c r="N573" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O573" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P573" t="n">
-        <v>3689</v>
+        <v>7774</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>527</v>
+        <v>1111</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>850</v>
+        <v>1380</v>
       </c>
       <c r="N574" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="O574" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P574" t="n">
-        <v>2735</v>
+        <v>4761</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46302,11 +46302,11 @@
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>391</v>
+        <v>680</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>120</v>
+        <v>930</v>
       </c>
       <c r="N575" t="n">
-        <v>24000</v>
+        <v>4500</v>
       </c>
       <c r="O575" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="P575" t="n">
-        <v>24000</v>
+        <v>4758</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46382,11 +46382,11 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>3429</v>
+        <v>680</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>280</v>
+        <v>660</v>
       </c>
       <c r="N576" t="n">
-        <v>21000</v>
+        <v>3500</v>
       </c>
       <c r="O576" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="P576" t="n">
-        <v>21000</v>
+        <v>3689</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46462,11 +46462,11 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>3000</v>
+        <v>527</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>190</v>
+        <v>850</v>
       </c>
       <c r="N577" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="O577" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P577" t="n">
-        <v>18000</v>
+        <v>2735</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46542,11 +46542,11 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>2571</v>
+        <v>391</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N578" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O578" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P578" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>3071</v>
+        <v>3429</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N579" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O579" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P579" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N580" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O580" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P580" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1429</v>
+        <v>2571</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1130</v>
+        <v>360</v>
       </c>
       <c r="N581" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O581" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P581" t="n">
-        <v>7788</v>
+        <v>21500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46862,11 +46862,11 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1113</v>
+        <v>3071</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="N582" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="O582" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P582" t="n">
-        <v>5740</v>
+        <v>17500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46942,11 +46942,11 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>820</v>
+        <v>2500</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>820</v>
+        <v>150</v>
       </c>
       <c r="N583" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O583" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P583" t="n">
-        <v>4232</v>
+        <v>10000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>605</v>
+        <v>1429</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,7 +47084,7 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="N584" t="n">
         <v>7500</v>
@@ -47093,7 +47093,7 @@
         <v>8000</v>
       </c>
       <c r="P584" t="n">
-        <v>7741</v>
+        <v>7788</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47102,11 +47102,11 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>940</v>
+        <v>1250</v>
       </c>
       <c r="N585" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="O585" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P585" t="n">
-        <v>6787</v>
+        <v>5740</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47182,11 +47182,11 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="N586" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O586" t="n">
         <v>4500</v>
       </c>
-      <c r="O586" t="n">
-        <v>5000</v>
-      </c>
       <c r="P586" t="n">
-        <v>4774</v>
+        <v>4232</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>682</v>
+        <v>605</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="N587" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O587" t="n">
         <v>8000</v>
       </c>
-      <c r="O587" t="n">
-        <v>8500</v>
-      </c>
       <c r="P587" t="n">
-        <v>8372</v>
+        <v>7741</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>1196</v>
+        <v>1106</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="N588" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O588" t="n">
         <v>7000</v>
       </c>
-      <c r="O588" t="n">
-        <v>7500</v>
-      </c>
       <c r="P588" t="n">
-        <v>7284</v>
+        <v>6787</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1041</v>
+        <v>970</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47484,16 +47484,16 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="N589" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O589" t="n">
         <v>5000</v>
       </c>
-      <c r="O589" t="n">
-        <v>5500</v>
-      </c>
       <c r="P589" t="n">
-        <v>5278</v>
+        <v>4774</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="N590" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O590" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="P590" t="n">
-        <v>17000</v>
+        <v>8372</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>2429</v>
+        <v>1196</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="N591" t="n">
         <v>7000</v>
       </c>
       <c r="O591" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P591" t="n">
-        <v>7500</v>
+        <v>7284</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="T591" t="n">
         <v>7</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>1350</v>
+        <v>630</v>
       </c>
       <c r="N592" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O592" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P592" t="n">
-        <v>6500</v>
+        <v>5278</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>929</v>
+        <v>754</v>
       </c>
       <c r="T592" t="n">
         <v>7</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="N593" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O593" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P593" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>643</v>
+        <v>2429</v>
       </c>
       <c r="T593" t="n">
         <v>7</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="N594" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O594" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P594" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>429</v>
+        <v>1071</v>
       </c>
       <c r="T594" t="n">
         <v>7</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="N595" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O595" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P595" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47982,11 +47982,11 @@
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>714</v>
+        <v>929</v>
       </c>
       <c r="T595" t="n">
         <v>7</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N596" t="n">
         <v>4000</v>
       </c>
       <c r="O596" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P596" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48062,11 +48062,11 @@
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="T596" t="n">
         <v>7</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,17 +48120,17 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="N597" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O597" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P597" t="n">
         <v>3000</v>
@@ -48142,7 +48142,7 @@
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S597" t="n">
@@ -48200,35 +48200,275 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M598" t="n">
+        <v>900</v>
+      </c>
+      <c r="N598" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O598" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P598" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q598" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R598" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S598" t="n">
+        <v>714</v>
+      </c>
+      <c r="T598" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>9</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D599" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E599" t="n">
+        <v>13</v>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G599" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I599" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M599" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N599" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O599" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P599" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q599" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R599" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S599" t="n">
+        <v>571</v>
+      </c>
+      <c r="T599" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>9</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D600" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E600" t="n">
+        <v>13</v>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G600" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I600" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M600" t="n">
+        <v>950</v>
+      </c>
+      <c r="N600" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O600" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P600" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q600" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R600" t="inlineStr">
+        <is>
+          <t>Provincia de San Antonio</t>
+        </is>
+      </c>
+      <c r="S600" t="n">
+        <v>429</v>
+      </c>
+      <c r="T600" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>9</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D601" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E601" t="n">
+        <v>13</v>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G601" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I601" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M598" t="n">
+      <c r="M601" t="n">
         <v>750</v>
       </c>
-      <c r="N598" t="n">
+      <c r="N601" t="n">
         <v>2000</v>
       </c>
-      <c r="O598" t="n">
+      <c r="O601" t="n">
         <v>2000</v>
       </c>
-      <c r="P598" t="n">
+      <c r="P601" t="n">
         <v>2000</v>
       </c>
-      <c r="Q598" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R598" t="inlineStr">
+      <c r="Q601" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R601" t="inlineStr">
         <is>
           <t>Provincia de San Antonio</t>
         </is>
       </c>
-      <c r="S598" t="n">
+      <c r="S601" t="n">
         <v>286</v>
       </c>
-      <c r="T598" t="n">
+      <c r="T601" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T604"/>
+  <dimension ref="A1:T607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44463</v>
+        <v>44518</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N392" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O392" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P392" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31742,11 +31742,11 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>2000</v>
+        <v>714</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44463</v>
+        <v>44518</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>410</v>
+        <v>910</v>
       </c>
       <c r="N393" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O393" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P393" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31822,11 +31822,11 @@
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1714</v>
+        <v>571</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44463</v>
+        <v>44518</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N394" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O394" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P394" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31902,11 +31902,11 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1429</v>
+        <v>429</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44245</v>
+        <v>44463</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="N395" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O395" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P395" t="n">
-        <v>7759</v>
+        <v>14000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1108</v>
+        <v>2000</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44245</v>
+        <v>44463</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>1240</v>
+        <v>410</v>
       </c>
       <c r="N396" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="O396" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P396" t="n">
-        <v>5734</v>
+        <v>12000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>819</v>
+        <v>1714</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44245</v>
+        <v>44463</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>630</v>
+        <v>350</v>
       </c>
       <c r="N397" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O397" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P397" t="n">
-        <v>4278</v>
+        <v>10000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>611</v>
+        <v>1429</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O398" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P398" t="n">
-        <v>12000</v>
+        <v>7759</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1714</v>
+        <v>1108</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>340</v>
+        <v>1240</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>5734</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1429</v>
+        <v>819</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="N400" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O400" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P400" t="n">
-        <v>7000</v>
+        <v>4278</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44229</v>
+        <v>44323</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N401" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O401" t="n">
         <v>12000</v>
       </c>
       <c r="P401" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1571</v>
+        <v>1714</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44229</v>
+        <v>44323</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="N402" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O402" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P402" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44229</v>
+        <v>44323</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N403" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O403" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P403" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>643</v>
+        <v>1000</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N404" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O404" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>3250</v>
+        <v>11000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>464</v>
+        <v>1571</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44342</v>
+        <v>44229</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N405" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O405" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P405" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1714</v>
+        <v>1071</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44342</v>
+        <v>44229</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N406" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O406" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P406" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44342</v>
+        <v>44229</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N407" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O407" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P407" t="n">
-        <v>6000</v>
+        <v>3250</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>857</v>
+        <v>464</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44462</v>
+        <v>44342</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N408" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O408" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P408" t="n">
-        <v>14364</v>
+        <v>12000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>2052</v>
+        <v>1714</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44462</v>
+        <v>44342</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="N409" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O409" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P409" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1786</v>
+        <v>1286</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44462</v>
+        <v>44342</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="N410" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O410" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P410" t="n">
-        <v>9700</v>
+        <v>6000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1386</v>
+        <v>857</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="N411" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O411" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P411" t="n">
-        <v>6419</v>
+        <v>14364</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>917</v>
+        <v>2052</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44259</v>
+        <v>44462</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>730</v>
+        <v>600</v>
       </c>
       <c r="N412" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O412" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P412" t="n">
-        <v>9308</v>
+        <v>12500</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1330</v>
+        <v>1786</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44259</v>
+        <v>44462</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>770</v>
+        <v>500</v>
       </c>
       <c r="N413" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O413" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P413" t="n">
-        <v>7227</v>
+        <v>9700</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1032</v>
+        <v>1386</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44259</v>
+        <v>44462</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="N414" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O414" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P414" t="n">
-        <v>4783</v>
+        <v>6419</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>683</v>
+        <v>917</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="N415" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O415" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="P415" t="n">
-        <v>8692</v>
+        <v>9308</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1242</v>
+        <v>1330</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>1180</v>
+        <v>770</v>
       </c>
       <c r="N416" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O416" t="n">
         <v>7500</v>
       </c>
-      <c r="O416" t="n">
-        <v>8000</v>
-      </c>
       <c r="P416" t="n">
-        <v>7746</v>
+        <v>7227</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1107</v>
+        <v>1032</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,7 +33724,7 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>1030</v>
+        <v>460</v>
       </c>
       <c r="N417" t="n">
         <v>4500</v>
@@ -33733,7 +33733,7 @@
         <v>5000</v>
       </c>
       <c r="P417" t="n">
-        <v>4786</v>
+        <v>4783</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44406</v>
+        <v>44216</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>235</v>
+        <v>650</v>
       </c>
       <c r="N418" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O418" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P418" t="n">
-        <v>20596</v>
+        <v>8692</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>2942</v>
+        <v>1242</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44406</v>
+        <v>44216</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>430</v>
+        <v>1180</v>
       </c>
       <c r="N419" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O419" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>18535</v>
+        <v>7746</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>2648</v>
+        <v>1107</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44406</v>
+        <v>44216</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>390</v>
+        <v>1030</v>
       </c>
       <c r="N420" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O420" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P420" t="n">
-        <v>15462</v>
+        <v>4786</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>2209</v>
+        <v>684</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>380</v>
+        <v>235</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O421" t="n">
-        <v>8500</v>
+        <v>21000</v>
       </c>
       <c r="P421" t="n">
-        <v>8263</v>
+        <v>20596</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1180</v>
+        <v>2942</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44295</v>
+        <v>44406</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>780</v>
+        <v>430</v>
       </c>
       <c r="N422" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O422" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="P422" t="n">
-        <v>7256</v>
+        <v>18535</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1037</v>
+        <v>2648</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44295</v>
+        <v>44406</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>1180</v>
+        <v>390</v>
       </c>
       <c r="N423" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="O423" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P42